--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1081,6 +1081,106 @@
         </is>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Sổ vẽ màu dạ Ohuhu 200gsm 78 tờ</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:98.2%;"&gt;&lt;colgroup&gt;&lt;col style="width:16%;"/&gt;&lt;col style="width:84%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Sổ vẽ màu dạ Ohuhu 200gsm 78 tờ&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;i&gt;&lt;span&gt;&lt;strong&gt;&lt;u&gt;Ohuhu&lt;/u&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/i&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;Thương hiệu Mỹ sản xuất tại Trung Quốc&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Định lượng: 200gsm&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Màu trắng, vân nhẹ&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Bìa sổ cứng, giả da màu đen (các size nhỏ kèm dây buộc đặc biệt bất kì)&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Sổ vẽ màu dạ Ohuhu 200gsm 78 tờ là sản phẩm chuyên sử dụng cho màu dạ, được phát triển bởi thương hiệu màu dạ Ohuhu&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Sổ có bìa cứng giả da chắc chắn, basic. Giấy có độ dày 200gsm, gáy khâu với số tờ lên đến 78 tờ&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Giấy phù có thể sử dụng với màu marker và màu chì &lt;/span&gt;(chú ý khi sử dụng với màu dạ sổ vẫn có thể thấm sang mặt sau, các bạn có thể sử dụng thêm 1 tờ nháp để lót bên dưới, ...)&lt;/p&gt;&lt;p&gt;- Giấy có độ kị tẩy ở mức vừa phải&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Sổ vẽ màu nước, màu gouache Lobeo Dream Sketchbook 300gsm</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.01%;"&gt;&lt;colgroup&gt;&lt;col style="width:16%;"/&gt;&lt;col style="width:84%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;SỔ VẼ MÀU NƯỚC LOBEO DREAM SKETCHBOOK&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;i&gt;&lt;span&gt;&lt;strong&gt;&lt;u&gt;LOBEO&lt;/u&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Lobeo là thương hiệu độc quyền được phát triển bởi đội ngũ Lobeo Art.&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;Việt Nam&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Định lượng: 300gsm&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Thành phần cotton: 30%&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Vân giấy sần nhẹ, màu kem&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Bìa sổ cứng, giả da màu đen (các size nhỏ kèm dây buộc đặc biệt bất kì)&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Sổ LOBEO DREAM SKETCHBOOK được sử dụng để phác thảo màu nước, gouache, acrylic&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Sổ có bìa cứng giả da chắc chắn, basic. Giấy có độ dày 300gsm dày dặn, giúp tối ưu khả năng sử dụng nhiều mặt của sổ.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Giấy phù có thể sử dụng với màu nước, màu gouache, poster, acrylic, màu marker &lt;/span&gt;(chú ý khi sử dụng với màu dạ sổ vẫn có thể thấm sang mặt sau, các bạn có thể sử dụng thêm 1 tờ nháp để lót bên dưới, ...)&lt;/p&gt;&lt;p&gt;- Giấy có độ kị tẩy ở mức vừa phải. đủ để không ảnh hưởng đến khả năng sử dụng màu nước, do đó nếu bạn muốn sử dụng với màu nước ở trạng thái tốt nhất thì nên đánh chì dùng lực vừa phải. &lt;/p&gt;&lt;p&gt;&lt;span&gt;- Sản phẩm phù hợp với các bạn học sinh, sinh viên hoặc các hoạ sĩ có nhu cầu về một cuốn sổ giá hợp lý để phác thảo màu nước và bảo quản ý tưởng của mình một cách trọn vẹn nhất&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span style="color:rgb(0,26,51);font-size:15px;"&gt;&lt;i&gt;* Chú ý: Dòng sổ Dream Sketchbook có thành phần 30% cotton, phủ hợp để phác thảo màu nước trong quá trình luyện tập hơn việc hoàn thành một tác phẩm hoàn thiện. Nếu quý khách có nhu cầu sử dụng hoàn thành tác phẩm chất lượng cao thì nên sử dụng giấy màu nước chuyên dụng 100% cotton.&lt;/i&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Sổ vẽ Lobeo Idea Sketchbook 50 tờ 200gsm</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.2%;"&gt;&lt;colgroup&gt;&lt;col style="width:12.08%;"/&gt;&lt;col style="width:87.92%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;SỔ VẼ LOBEO IDEA SKETCHBOOK&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;i&gt;&lt;span&gt;&lt;strong&gt;&lt;u&gt;LOBEO&lt;/u&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Lobeo là thương hiệu độc quyền được phát triển bởi đội ngũ Lobeo Art.&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;Việt Nam&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Số tờ: 50 tờ (100 trang)&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Định lượng: 200gsm&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Vân giấy mịn, màu trắng&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Bìa sổ cứng, giả da màu đen&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Kích thước: A4, A5 chuẩn&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Sổ LOBEO IDEA SKETCHBOOK được sử dụng để phác thảo, sketch trong quá trình học tập, tìm kiếm, phát triển ý tưởng&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Sổ có 50 trang với thiết kế bìa cứng giả da chắc chắn, basic phù hợp với nhu cầu lưu trữ ý tưởng nhiều và bảo quản trong thời gian dài. Giấy có độ dày 200gsm dày dặn, giúp tối ưu khả năng sử dụng nhiều mặt của sổ &lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Giấy phù có thể sử dụng với chì, màu chì, màu dạ, bút đi nét, bút bi, bút acrylic, bút sơn, bút gốc nước, bút gel,... Giấy có độ dày 200gsm dày dặn, giúp tối ưu khả năng sử dụng nhiều mặt của sổ &lt;/span&gt;(chú ý khi sử dụng với màu dạ sổ vẫn có thể thấm sang mặt sau, các bạn có thể sử dụng thêm 1 tờ nháp để lót bên dưới, ...)&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Sản phẩm phù hợp với các bạn học sinh, sinh viên hoặc các hoạ sĩ có nhu cầu về một cuốn sổ giá hợp lý để phác thảo, nghiên cứu, phát triển và lưu trữ ý tưởng, ký hoạ, làm bản name truyện tranh, thiết kế thời trang, ...&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span style="color:rgb(255,0,0);"&gt;&lt;i&gt;&lt;span&gt;&lt;strong&gt;- CHÚ Ý: SỔ KHÔNG SỬ DỤNG ĐƯỢC VỚI MÀU NƯỚC&lt;/strong&gt;&lt;/span&gt;&lt;/i&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color:rgb(0,26,51);font-size:15px;"&gt;&lt;i&gt;* Dòng sổ Idea Sketchbook này là dòng giấy mịn chuyên chì, màu chì, màu dạ và kỹ thuật ký hoạ, tăng độ dai khi tẩy. Nên khi sử dụng với bút đi nét sẽ phù hợp với các nét đưa nhanh và dứt khoát, nếu đi nét chỉnh chu và chậm sẽ dễ xuất hiện tình trạng lem mực.&lt;/i&gt;&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Giấy vẽ màu nước Nabii Aqua Fat 300gsm - Newbie Set</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized"&gt;&lt;colgroup&gt;&lt;col style="width:14.43%;"/&gt;&lt;col style="width:85.57%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;GIẤY VẼ MÀU NƯỚC NABII AQUA FAT - NEWBIE SET&lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;i&gt;&lt;strong&gt;&lt;u&gt;Nabii&lt;/u&gt;&lt;/strong&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;Nabii là thương hiệu giấy chuyên nghiệp đầu tiên tại Việt Nam với nhiều sản phẩm bán chạy trên thị trường bởi chất lượng và giá thành cạnh tranh &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Việt Nam&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Định lượng giấy: 300gsm&lt;/p&gt;&lt;p&gt;- Số lượng: 08 tờ/tệp&lt;/p&gt;&lt;p&gt;- Kích thước: khổ A6 lỡ (9.5x13.5cm)&lt;/p&gt;&lt;p&gt;- Thành phần: 55% cotton&lt;/p&gt;&lt;p&gt;- Vân giấy: Colpress&lt;/p&gt;&lt;p&gt;- Có 3 phiên bản bìa màu pastel: hồng, tím lavender và xanh dương&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;-&lt;strong&gt; GIẤY VẼ MÀU NƯỚC NABII AQUA FAT&lt;/strong&gt; - &lt;strong&gt;NEWBIE SET &lt;/strong&gt;có chất giấy dày dặn, có độ loang tốt thích hợp với nhiều kỹ thuật, chất lượng không đổi so với bản thường&lt;/p&gt;&lt;p&gt;- Giấy sử dụng được cả 2 mặt&lt;/p&gt;&lt;p&gt;- Ngoài vẽ màu nước &lt;strong&gt;GIẤY VẼ MÀU NƯỚC NABII AQUA FAT&lt;/strong&gt; - &lt;strong&gt;NEWBIE SET&lt;/strong&gt; cũng có thể sử dụng với màu dạ, màu poster, acrylic&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Sử dụng trực tiếp&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Sổ Sketchbook Nabii Ima - 160gsm 32 tờ</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Giấy vẽ màu nước Nabii Aqua Fat 300gsm - tệp 16 tờ</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.2%;"&gt;&lt;colgroup&gt;&lt;col style="width:10.05%;"/&gt;&lt;col style="width:89.95%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;SỔ VẼ MÀU NƯỚC NABII AQUA FAT &lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;i&gt;&lt;strong&gt;&lt;u&gt;Nabii&lt;/u&gt;&lt;/strong&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;Nabii là thương hiệu giấy chuyên nghiệp đầu tiên tại Việt Nam với nhiều sản phẩm bán chạy trên thị trường bởi chất lượng và giá thành cạnh tranh &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Việt Nam&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Định lượng giấy: 300gsm&lt;/p&gt;&lt;p&gt;- Số lượng: 16 tờ/tệp&lt;/p&gt;&lt;p&gt;- Kích thước: Khổ A4 lỡ (19x27cm), khổ A5 lỡ (13.5x19cm), khổ A6 lỡ&lt;/p&gt;&lt;p&gt;- Thành phần: 55% cotton&lt;/p&gt;&lt;p&gt;- Vân giấy: Colpress&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- &lt;strong&gt;GIẤY VẼ&lt;/strong&gt; &lt;strong&gt;MÀU NƯỚC NABII AQUA FAT&lt;/strong&gt; có chất giấy dày dặn, có độ loang tốt thích hợp với nhiều kỹ thuật &lt;/p&gt;&lt;p&gt;- Giấy sử dụng được cả 2 mặt, mặt trước là mặt nhiều vân hơn, có độ loang và lên màu tốt. Mặt sau ít vân hơn phù hợp với những bạn thích bề mặt mịn, dễ đi nét. Mặt sau nhiều keo hơn và loang kém hơn so với mặt nhiều vân. Quý khách có thể lựa chọn bề mặt để sử dụng theo nhu cầu của bản thân.&lt;/p&gt;&lt;p&gt;- Ngoài vẽ màu nước&lt;strong&gt; NABII AQUA FAT&lt;/strong&gt; cũng có thể sử dụng với màu dạ, màu poster, acrylic&lt;/p&gt;&lt;p&gt;- Sản phẩm được đựng trong túi zip chống ẩm cao cấp, tiện lợi khi sử dụng, hạn chế mốc giấy&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Sử dụng trực tiếp&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Sổ vẽ Nabii Ima Sketchbook gáy khâu 160gsm 50 tờ A5</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Sổ vẽ màu nước Nabii Aqua Fat - 300gsm 25 tờ</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized"&gt;&lt;colgroup&gt;&lt;col style="width:21.09%;"/&gt;&lt;col style="width:78.91%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;SỔ VẼ MÀU NƯỚC NABII AQUA FAT &lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;i&gt;&lt;strong&gt;&lt;u&gt;Nabii&lt;/u&gt;&lt;/strong&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;Nabii là thương hiệu giấy chuyên nghiệp đầu tiên tại Việt Nam với nhiều sản phẩm bán chạy trên thị trường bởi chất lượng và giá thành cạnh tranh &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Việt Nam&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Định lượng giấy: 300gsm&lt;/p&gt;&lt;p&gt;- Số lượng: 25 tờ/sổ&lt;/p&gt;&lt;p&gt;- Kích thước: Khổ A4 lỡ (19x27cm) và khổ A5 lỡ (13.5x19cm)&lt;/p&gt;&lt;p&gt;- Thành phần: 55% cotton&lt;/p&gt;&lt;p&gt;- Vân giấy: Coldpress&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- &lt;strong&gt;SỔ VẼ MÀU NƯỚC NABII AQUA FAT&lt;/strong&gt; có chất giấy dày dặn, có độ loang tốt thích hợp với nhiều kỹ thuật &lt;/p&gt;&lt;p&gt;- Giấy sử dụng được cả 2 mặt&lt;/p&gt;&lt;p&gt;- Ngoài vẽ màu nước &lt;strong&gt;SỔ VẼ MÀU NƯỚC NABII AQUA FAT&lt;/strong&gt; cũng có thể sử dụng với màu dạ, màu poster, acrylic&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Sử dụng trực tiếp&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Sổ vẽ Skethbook Potentate 100gsm 120 tờ gáy khâu</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.2%;"&gt;&lt;colgroup&gt;&lt;col style="width:15.95%;"/&gt;&lt;col style="width:84.05%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên Sản Phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;Sổ vẽ Skethbook Potentate 100gsm 120 tờ gáy khâu&lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;i&gt;&lt;strong&gt;&lt;u&gt;Potentate&lt;/u&gt;&lt;/strong&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;Potentate là thương hiệu giấy giá rẻ hạng học sinh sinh viên khá nổi tiếng tại Trung Quốc. Sản phẩm phù hợp với các bạn học sinh sinh viên đang tập vẽ với giá thành phải chăng.&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Trung Quốc&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Vân giấy: sần nhẹ&lt;/p&gt;&lt;p&gt;- Màu sắc giấy: Trắng ngà&lt;/p&gt;&lt;p&gt;- Định lượng: 100gsm&lt;/p&gt;&lt;p&gt;- Số tờ: 120 tờ&lt;/p&gt;&lt;p&gt;- Quy cách: Gáy khâu&lt;/p&gt;&lt;p&gt;- Màu sắc bìa sổ: Đen&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- &lt;strong&gt;Sổ vẽ Skethbook Potentate 100gsm&lt;/strong&gt; có bề mặt hơi sần nhẹ, có khả năng ăn chì và bám chì tốt. Sổ có 120 trang thoả sức phác thảo lại và lưu trữ các ý tưởng sáng tạo. &lt;/p&gt;&lt;p&gt;- Giấy có độ dày vừa phải nên chỉ phù hợp phác thảo nhanh với bút chì, màu chì. Đối với màu dạ, bút đi nét hoặc bút bi giấy sẽ hằn nhẹ và in sang mặt sau nếu mạnh tay.&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Sử dụng trực tiếp&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Bảo quản nơi khô ráo, tháo mát&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:E146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,750 +436,2727 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Name Of Product</t>
+          <t>Duong Dan SP/Alias</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Table Info</t>
+          <t>Ten San Pham</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Noi Dung</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Thuoc Tinh</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Link Hinh San Pham</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Súng bắn keo kèm 3 cây keo nến mini</t>
+          <t>So-ve-mau-da-Ohuhu-200gsm-78-to</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>&lt;table class="ck-table-resized"&gt;&lt;colgroup&gt;&lt;col style="width:15.46%;"/&gt;&lt;col style="width:84.54%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên Sản Phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;Súng bắn keo kèm 3 cây keo nến mini&lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Trung Quốc&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Sản phẩm tặng kèm 3 cây keo nến đóng gói trực tiếp trong sản phẩm&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Súng bắn keo là sản phẩm không thể thiếu khi làm đồ thủ công, DIY. Súng bắn keo mini có 4 tông màu pastel dễ thương, sản phẩm đầu bắt keo nhỏ dễ sử dụng, phù hợp với các chi tiết nhỏ&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng dẫn sử dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Bước 1: Lắp cây keo nến vào súng bắn keo nến&lt;/p&gt;&lt;p&gt;- Bước 2: Cắm điện chờ nhiệt lên ở đầu keo nến. Khi đạt đến nhiệt độ nhất định keo nến sẽ chảy ra. Bóp nút trên súng để keo chảy ra.&lt;/p&gt;&lt;p&gt;* Chú ý: Đầu súng khi cắm điện rất quý khách sử dụng cẩn thận tránh bị phỏng. Tắt công tắc hoặc rút điện sau khi sử dụng để tránh keo nóng quá bị chảy ra làm hỏng súng.&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+          <t>Sổ vẽ màu dạ Ohuhu 200gsm 78 tờ</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:98.2%;"&gt;&lt;colgroup&gt;&lt;col style="width:16%;"/&gt;&lt;col style="width:84%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Sổ vẽ màu dạ Ohuhu 200gsm 78 tờ&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;i&gt;&lt;span&gt;&lt;strong&gt;&lt;u&gt;Ohuhu&lt;/u&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/i&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;Thương hiệu Mỹ sản xuất tại Trung Quốc&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Định lượng: 200gsm&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Màu trắng, vân nhẹ&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Bìa sổ cứng, giả da màu đen (các size nhỏ kèm dây buộc đặc biệt bất kì)&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Sổ vẽ màu dạ Ohuhu 200gsm 78 tờ là sản phẩm chuyên sử dụng cho màu dạ, được phát triển bởi thương hiệu màu dạ Ohuhu&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Sổ có bìa cứng giả da chắc chắn, basic. Giấy có độ dày 200gsm, gáy khâu với số tờ lên đến 78 tờ&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Giấy phù có thể sử dụng với màu marker và màu chì &lt;/span&gt;(chú ý khi sử dụng với màu dạ sổ vẫn có thể thấm sang mặt sau, các bạn có thể sử dụng thêm 1 tờ nháp để lót bên dưới, ...)&lt;/p&gt;&lt;p&gt;- Giấy có độ kị tẩy ở mức vừa phải&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21x21cm</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://pos.nvncdn.com/6dc534-15668/ps/content/20240409_1X6HDqWL.jpg</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bộ dụng cụ DIY tự làm túi da đeo chéo</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.2%;"&gt;&lt;colgroup&gt;&lt;col style="width:14.21%;"/&gt;&lt;col style="width:85.79%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên Sản Phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;Bộ dụng cụ DIY tự làm túi da đeo chéo&lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Trung Quốc&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Sản phẩm bao gồm:&lt;/p&gt;&lt;p&gt;+ 1 bộ các mảnh da để ghép thành túi &lt;/p&gt;&lt;p&gt;+ 1 bộ kim chỉ&lt;/p&gt;&lt;p&gt;+ khuy cài&lt;/p&gt;&lt;p&gt;- Màu sắc:&lt;/p&gt;&lt;p&gt;+ Hồng&lt;/p&gt;&lt;p&gt;+ Xanh&lt;/p&gt;&lt;p&gt;+ Nâu&lt;/p&gt;&lt;p&gt;+ Đen&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Sản phẩm Bộ dụng cụ DIY tự làm túi da đeo chéo thoả mãn đam mê của các tín đồ làm đồ thủ công, DIY, handmade với đầy đủ nguyên liệu sẵn có để có thể tự tạo một chiếc túi xinh xắn&lt;/p&gt;&lt;p&gt; - Bộ sản phẩm có tính ứng dụng cao, vừa có thể tự tay làm chiếc túi cực xinh, vừa có thể sử dụng túi để đi chơi, đi học, đi làm&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Sử dụng trực tiếp và ráp thành túi theo hình ảnh&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Bảo quản nơi khô ráo, tháo mát- &lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
-        </is>
-      </c>
+          <t>So-ve-mau-da-Ohuhu-200gsm-78-to</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Combo bìa lạnh carton đóng card, đóng tranh, làm DIY</t>
+          <t>So-ve-mau-nuoc,-mau-gouache-Lobeo-Dream-Sketchbook-300gsm</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.18%;"&gt;&lt;colgroup&gt;&lt;col style="width:18.19%;"/&gt;&lt;col style="width:81.81%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Tên Sản Phẩm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;Combo bìa lạnh carton&lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Bìa carton sáng &lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Độ dày 2mm&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Combo 10 tấm cắt theo các kích thước 9x12cm, A6, A5, A4 &lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;- Sản phẩm dày dặn chắc chắn chuyên sử dụng để gói hàng tranh, ảnh đi xa hoặc làm đồ handmade&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;- Sử dụng trực tiếp&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;- Bảo quản nơi khô ráo, tháo mát&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+          <t>Sổ vẽ màu nước, màu gouache Lobeo Dream Sketchbook 300gsm</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.01%;"&gt;&lt;colgroup&gt;&lt;col style="width:16%;"/&gt;&lt;col style="width:84%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;SỔ VẼ MÀU NƯỚC LOBEO DREAM SKETCHBOOK&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;i&gt;&lt;span&gt;&lt;strong&gt;&lt;u&gt;LOBEO&lt;/u&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Lobeo là thương hiệu độc quyền được phát triển bởi đội ngũ Lobeo Art.&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;Việt Nam&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Định lượng: 300gsm&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Thành phần cotton: 30%&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Vân giấy sần nhẹ, màu kem&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Bìa sổ cứng, giả da màu đen (các size nhỏ kèm dây buộc đặc biệt bất kì)&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Sổ LOBEO DREAM SKETCHBOOK được sử dụng để phác thảo màu nước, gouache, acrylic&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Sổ có bìa cứng giả da chắc chắn, basic. Giấy có độ dày 300gsm dày dặn, giúp tối ưu khả năng sử dụng nhiều mặt của sổ.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Giấy phù có thể sử dụng với màu nước, màu gouache, poster, acrylic, màu marker &lt;/span&gt;(chú ý khi sử dụng với màu dạ sổ vẫn có thể thấm sang mặt sau, các bạn có thể sử dụng thêm 1 tờ nháp để lót bên dưới, ...)&lt;/p&gt;&lt;p&gt;- Giấy có độ kị tẩy ở mức vừa phải. đủ để không ảnh hưởng đến khả năng sử dụng màu nước, do đó nếu bạn muốn sử dụng với màu nước ở trạng thái tốt nhất thì nên đánh chì dùng lực vừa phải. &lt;/p&gt;&lt;p&gt;&lt;span&gt;- Sản phẩm phù hợp với các bạn học sinh, sinh viên hoặc các hoạ sĩ có nhu cầu về một cuốn sổ giá hợp lý để phác thảo màu nước và bảo quản ý tưởng của mình một cách trọn vẹn nhất&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span style="color:rgb(0,26,51);font-size:15px;"&gt;&lt;i&gt;* Chú ý: Dòng sổ Dream Sketchbook có thành phần 30% cotton, phủ hợp để phác thảo màu nước trong quá trình luyện tập hơn việc hoàn thành một tác phẩm hoàn thiện. Nếu quý khách có nhu cầu sử dụng hoàn thành tác phẩm chất lượng cao thì nên sử dụng giấy màu nước chuyên dụng 100% cotton.&lt;/i&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Size A5 lỡ 25 tờ</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://pos.nvncdn.com/6dc534-15668/ps/content/20240113_5y2Ll1JQ.jpg</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Keo sữa WINQ WG-01 40ml</t>
+          <t>So-ve-mau-nuoc,-mau-gouache-Lobeo-Dream-Sketchbook-300gsm</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Size A4 lỡ 25 tờ</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dụng cụ nặn màu tuýp</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.18%;"&gt;&lt;colgroup&gt;&lt;col style="width:24.44%;"/&gt;&lt;col style="width:75.56%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên Sản Phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;DỤNG CỤ NẶN MÀU TUÝP&lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Trung Quốc&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Sản phẩm hỗ trợ nặn màu tuýp giúp tiết kiệm tối đa lượng màu còn sót lại trong tuýp&lt;/p&gt;&lt;p&gt;- Kích thước sản phẩm phù hợp với nhiều kích cỡ tuýp màu, kể các các tuýp to tầm 50ml&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Đưa tuýp màu vào rồi vặn nút ở bên cạnh&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
-        </is>
-      </c>
+          <t>So-ve-mau-nuoc,-mau-gouache-Lobeo-Dream-Sketchbook-300gsm</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Size 8x13cm 20 tờ</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bộ dao khắc gỗ thủ công Junesix</t>
+          <t>So-ve-mau-nuoc,-mau-gouache-Lobeo-Dream-Sketchbook-300gsm</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Size 12x13cm 20 tờ</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Nhíp gắp Sticker thép Laiwang</t>
+          <t>So-ve-Lobeo-Idea-Sketchbook-50-to-200gsm</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.18%;"&gt;&lt;colgroup&gt;&lt;col style="width:13.33%;"/&gt;&lt;col style="width:86.67%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên Sản Phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;NHÍP GẮP STICKER THÉP LAIWANG&lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;i&gt;&lt;strong&gt;&lt;u&gt;Laiwang&lt;/u&gt;&lt;/strong&gt;&lt;/i&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Trung Quốc&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Chất liệu: Thép không dỉ&lt;/p&gt;&lt;p&gt;- Màu sắc: Xanh, Tím, Cam, Vàng&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Dụng cụ gắp và dán sticker hỗ trợ tách sticker được dễ dàng mà không làm ảnh hưởng đến các mảng dính keo, dán sticker được chuẩn và chính xác hơn khi sử dụng bằng tay. Dụng cụ giúp giảm tỉ lệ hỏng sticker khi bóc.&lt;/p&gt;&lt;p&gt;- Dụng cụ được làm bằng thép không dỉ, bền bỉ theo thời gian&lt;/p&gt;&lt;p&gt;- Sản phẩm có thể dùng được cả với sticker, washi hoặc các chức năng DIY khác, đặc biệt với các chi tiết nhỏ&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Sử dụng trực tiếp&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+          <t>Sổ vẽ Lobeo Idea Sketchbook 50 tờ 200gsm</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.2%;"&gt;&lt;colgroup&gt;&lt;col style="width:12.08%;"/&gt;&lt;col style="width:87.92%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;SỔ VẼ LOBEO IDEA SKETCHBOOK&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;i&gt;&lt;span&gt;&lt;strong&gt;&lt;u&gt;LOBEO&lt;/u&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Lobeo là thương hiệu độc quyền được phát triển bởi đội ngũ Lobeo Art.&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;Việt Nam&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Số tờ: 50 tờ (100 trang)&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Định lượng: 200gsm&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Vân giấy mịn, màu trắng&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Bìa sổ cứng, giả da màu đen&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Kích thước: A4, A5 chuẩn&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Sổ LOBEO IDEA SKETCHBOOK được sử dụng để phác thảo, sketch trong quá trình học tập, tìm kiếm, phát triển ý tưởng&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Sổ có 50 trang với thiết kế bìa cứng giả da chắc chắn, basic phù hợp với nhu cầu lưu trữ ý tưởng nhiều và bảo quản trong thời gian dài. Giấy có độ dày 200gsm dày dặn, giúp tối ưu khả năng sử dụng nhiều mặt của sổ &lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Giấy phù có thể sử dụng với chì, màu chì, màu dạ, bút đi nét, bút bi, bút acrylic, bút sơn, bút gốc nước, bút gel,... Giấy có độ dày 200gsm dày dặn, giúp tối ưu khả năng sử dụng nhiều mặt của sổ &lt;/span&gt;(chú ý khi sử dụng với màu dạ sổ vẫn có thể thấm sang mặt sau, các bạn có thể sử dụng thêm 1 tờ nháp để lót bên dưới, ...)&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Sản phẩm phù hợp với các bạn học sinh, sinh viên hoặc các hoạ sĩ có nhu cầu về một cuốn sổ giá hợp lý để phác thảo, nghiên cứu, phát triển và lưu trữ ý tưởng, ký hoạ, làm bản name truyện tranh, thiết kế thời trang, ...&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span style="color:rgb(255,0,0);"&gt;&lt;i&gt;&lt;span&gt;&lt;strong&gt;- CHÚ Ý: SỔ KHÔNG SỬ DỤNG ĐƯỢC VỚI MÀU NƯỚC&lt;/strong&gt;&lt;/span&gt;&lt;/i&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color:rgb(0,26,51);font-size:15px;"&gt;&lt;i&gt;* Dòng sổ Idea Sketchbook này là dòng giấy mịn chuyên chì, màu chì, màu dạ và kỹ thuật ký hoạ, tăng độ dai khi tẩy. Nên khi sử dụng với bút đi nét sẽ phù hợp với các nét đưa nhanh và dứt khoát, nếu đi nét chỉnh chu và chậm sẽ dễ xuất hiện tình trạng lem mực.&lt;/i&gt;&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>A6 chuẩn (gáy dọc)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://pos.nvncdn.com/6dc534-15668/ps/content/20230123_itWosX0hS7WSUsn1K0KX6wye.jpg</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Đất sét nhẹ tự khô</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.18%;"&gt;&lt;colgroup&gt;&lt;col style="width:16.81%;"/&gt;&lt;col style="width:83.19%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên Sản Phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;ĐẤT SÉT NHẸ TỰ KHÔ&lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Trung Quốc&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Trọng lượng màu nhỏ theo set:&lt;/p&gt;&lt;p&gt;+ 13g/màu (Các set 12/24/36/48) (có kèm dụng cụ nhựa)&lt;/p&gt;&lt;p&gt;+ Màu lẻ bịch lớn: 500g&lt;/p&gt;&lt;p&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;-&lt;span&gt; Đất sét nhẹ tự khô có giá thành hợp lý, đặc tính dễ sử dụng, dễ tạo hình theo mong muốn&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Đất có thể nặn móc khoá trang trí, vẽ tranh đất sét, ...&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Các bạn có thể mua 1 bộ màu nhỏ gồm các màu cơ bản và 1 bịch đất trắng 500gsm để pha các tông màu pastel dễ thương mà không làm lãng phí đất&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color:rgba(0,0,0,0.8);"&gt;- Nếu đất bị ẩm hoặc nhão quá thì bạn có thể mở túi zip để ngoài nhiệt độ thường cho đất tự khô lại. (Lưu ý kiểm tra thường xuyên để đạt được độ khô mong muốn)&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color:rgba(0,0,0,0.8);"&gt;- Các bước nặn đất sét:&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color:rgba(0,0,0,0.8);"&gt;+ Bước 1: Lau khô tay. Lấy 1 ít đất sét ra và vo lại, lúc này đất sét có thể hơi dính. Khoảng 3 - 4 phút sau đất sét sẽ bắt đầu tự khô lại.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color:rgba(0,0,0,0.8);"&gt;+ Bước 2: Làm tương tự. Bước vò đất sét thành 1 cục tròn hơi tốn thời gian cần sự kiên nhẫn.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color:rgba(0,0,0,0.8);"&gt;+ Bước 3: Khi đất sét đã thành 1 cục tròn, bỏ vào hủ tránh gió.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color:rgba(0,0,0,0.8);"&gt;+ Bước 4: Nặn hình theo ý thích&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Bảo quản nơi khô ráo, tháo mát&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
-        </is>
-      </c>
+          <t>So-ve-Lobeo-Idea-Sketchbook-50-to-200gsm</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>A5 chuẩn (gáy dọc)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bộ 2 con lăn mút xốp quét keo, tạo hiệu ứng Keep Smiling</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="border-collapse:collapse;border:1px solid rgb(238,238,238);color:rgb(68,68,68);font-family:Helvetica;font-size:14px;margin:0px;padding:0px;"&gt;&lt;colgroup&gt;&lt;col style="width:20.01%;"/&gt;&lt;col style="width:79.99%;"/&gt;&lt;/colgroup&gt;&lt;tbody style="margin:0px;padding:0px;"&gt;&lt;tr style="border:1px solid rgb(238,238,238);margin:0px;padding:0px;"&gt;&lt;td style="border:1px solid rgb(238,238,238);padding:7px;"&gt;&lt;span style="margin:0px;padding:0px;"&gt;&lt;strong&gt;Tên Sản Phẩm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td style="border:1px solid rgb(238,238,238);padding:7px;"&gt;&lt;span style="font-size:16px;"&gt;&lt;strong&gt;Bộ 2 con lăn mút xốp quét keo, tạo hiệu ứng Keep Smiling&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr style="border:1px solid rgb(238,238,238);margin:0px;padding:0px;"&gt;&lt;td style="border:1px solid rgb(238,238,238);padding:7px;"&gt;&lt;span style="margin:0px;padding:0px;"&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td style="border:1px solid rgb(238,238,238);padding:7px;"&gt;&lt;p style="margin:0px;padding:0px;"&gt;Keep Smiling&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr style="border:1px solid rgb(238,238,238);margin:0px;padding:0px;"&gt;&lt;td style="border:1px solid rgb(238,238,238);padding:7px;"&gt;&lt;span style="margin:0px;padding:0px;"&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td style="border:1px solid rgb(238,238,238);padding:7px;"&gt;&lt;p style="margin:0px;padding:0px;"&gt;&lt;span style="margin:0px;padding:0px;"&gt;Trung Quốc&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr style="border:1px solid rgb(238,238,238);margin:0px;padding:0px;"&gt;&lt;td style="border:1px solid rgb(238,238,238);padding:7px;"&gt;&lt;span style="margin:0px;padding:0px;"&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td style="border:1px solid rgb(238,238,238);padding:7px;"&gt;&lt;p style="margin:0px;padding:0px;"&gt;- 2 con lăn mút xốp&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr style="border:1px solid rgb(238,238,238);margin:0px;padding:0px;"&gt;&lt;td style="border:1px solid rgb(238,238,238);padding:7px;"&gt;&lt;span style="margin:0px;padding:0px;"&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td style="border:1px solid rgb(238,238,238);padding:7px;"&gt;&lt;p style="margin:0px;padding:0px;"&gt;&lt;span style="margin:0px;padding:0px;"&gt;- Đầu mút mềm, có độ thấm hút cao&lt;/span&gt;&lt;/p&gt;&lt;p style="margin:0px;padding:0px;"&gt;- Cây mút có thể sử dụng để quét keo sữa làm đồ thủ công, tạo hiệu ứng trong tranh vẽ màu nước, màu poster, màu acrylic&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr style="border:1px solid rgb(238,238,238);margin:0px;padding:0px;"&gt;&lt;td style="border:1px solid rgb(238,238,238);padding:7px;"&gt;&lt;span style="margin:0px;padding:0px;"&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng  &lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td style="border:1px solid rgb(238,238,238);padding:7px;"&gt;&lt;p style="margin:0px;padding:0px;"&gt;&lt;span style="margin:0px;padding:0px;"&gt;- Giặt sạch đầu mút sau khi sử dụng, đặc biệt khi sử dụng màu acrylic và keo phải giặt sạch hoặc ngâm nước ngay sau khi sử dụng tránh làm hỏng sản phẩm&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
-        </is>
-      </c>
+          <t>So-ve-Lobeo-Idea-Sketchbook-50-to-200gsm</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>A5 chuẩn (gáy ngang)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Bộ 4 cây mút đầu tròn quét keo, tạo hiệu ứng Keep Smiling</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="border-collapse:collapse;border:1px solid rgb(238,238,238);color:rgb(68,68,68);font-family:Helvetica;font-size:14px;margin:0px;padding:0px;"&gt;&lt;colgroup&gt;&lt;col style="width:20.01%;"/&gt;&lt;col style="width:79.99%;"/&gt;&lt;/colgroup&gt;&lt;tbody style="margin:0px;padding:0px;"&gt;&lt;tr style="border:1px solid rgb(238,238,238);margin:0px;padding:0px;"&gt;&lt;td style="border:1px solid rgb(238,238,238);padding:7px;"&gt;&lt;span style="margin:0px;padding:0px;"&gt;&lt;strong&gt;Tên Sản Phẩm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td style="border:1px solid rgb(238,238,238);padding:7px;"&gt;&lt;span style="font-size:16px;"&gt;&lt;strong&gt;Bộ 4 cây mút đầu tròn quét keo, tạo hiệu ứng Keep Smiling&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr style="border:1px solid rgb(238,238,238);margin:0px;padding:0px;"&gt;&lt;td style="border:1px solid rgb(238,238,238);padding:7px;"&gt;&lt;span style="margin:0px;padding:0px;"&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td style="border:1px solid rgb(238,238,238);padding:7px;"&gt;&lt;p style="margin:0px;padding:0px;"&gt;Keep Smiling&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr style="border:1px solid rgb(238,238,238);margin:0px;padding:0px;"&gt;&lt;td style="border:1px solid rgb(238,238,238);padding:7px;"&gt;&lt;span style="margin:0px;padding:0px;"&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td style="border:1px solid rgb(238,238,238);padding:7px;"&gt;&lt;p style="margin:0px;padding:0px;"&gt;&lt;span style="margin:0px;padding:0px;"&gt;Trung Quốc&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr style="border:1px solid rgb(238,238,238);margin:0px;padding:0px;"&gt;&lt;td style="border:1px solid rgb(238,238,238);padding:7px;"&gt;&lt;span style="margin:0px;padding:0px;"&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td style="border:1px solid rgb(238,238,238);padding:7px;"&gt;&lt;p style="margin:0px;padding:0px;"&gt;- 4 cây mút đầu tròn, tay cầm gỗ&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr style="border:1px solid rgb(238,238,238);margin:0px;padding:0px;"&gt;&lt;td style="border:1px solid rgb(238,238,238);padding:7px;"&gt;&lt;span style="margin:0px;padding:0px;"&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td style="border:1px solid rgb(238,238,238);padding:7px;"&gt;&lt;p style="margin:0px;padding:0px;"&gt;&lt;span style="margin:0px;padding:0px;"&gt;- Đầu mút mềm, có độ thấm hút cao&lt;/span&gt;&lt;/p&gt;&lt;p style="margin:0px;padding:0px;"&gt;- Cây mút có thể sử dụng để quét keo sữa làm đồ thủ công, tạo hiệu ứng trong tranh vẽ màu nước, màu poster, màu acrylic&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr style="border:1px solid rgb(238,238,238);margin:0px;padding:0px;"&gt;&lt;td style="border:1px solid rgb(238,238,238);padding:7px;"&gt;&lt;span style="margin:0px;padding:0px;"&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng  &lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td style="border:1px solid rgb(238,238,238);padding:7px;"&gt;&lt;p style="margin:0px;padding:0px;"&gt;&lt;span style="margin:0px;padding:0px;"&gt;- Giặt sạch đầu mút sau khi sử dụng, đặc biệt khi sử dụng màu acrylic và keo phải giặt sạch hoặc ngâm nước ngay sau khi sử dụng tránh làm hỏng sản phẩm&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
-        </is>
-      </c>
+          <t>So-ve-Lobeo-Idea-Sketchbook-50-to-200gsm</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>A4 chuẩn (gáy dọc)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bộ 4 cây mút đầu vuông quét keo, tạo hiệu ứng Keep Smiling</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="border-collapse:collapse;border:1px solid rgb(238,238,238);color:rgb(68,68,68);font-family:Helvetica;font-size:14px;margin:0px;padding:0px;"&gt;&lt;colgroup&gt;&lt;col style="width:20.01%;"/&gt;&lt;col style="width:79.99%;"/&gt;&lt;/colgroup&gt;&lt;tbody style="margin:0px;padding:0px;"&gt;&lt;tr style="border:1px solid rgb(238,238,238);margin:0px;padding:0px;"&gt;&lt;td style="border:1px solid rgb(238,238,238);padding:7px;"&gt;&lt;span style="margin:0px;padding:0px;"&gt;&lt;strong&gt;Tên Sản Phẩm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td style="border:1px solid rgb(238,238,238);padding:7px;"&gt;&lt;span style="font-size:16px;"&gt;&lt;strong&gt;Bộ 4 cây mút đầu vuông quét keo, tạo hiệu ứng Keep Smiling&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr style="border:1px solid rgb(238,238,238);margin:0px;padding:0px;"&gt;&lt;td style="border:1px solid rgb(238,238,238);padding:7px;"&gt;&lt;span style="margin:0px;padding:0px;"&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td style="border:1px solid rgb(238,238,238);padding:7px;"&gt;&lt;p style="margin:0px;padding:0px;"&gt;Keep Smiling&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr style="border:1px solid rgb(238,238,238);margin:0px;padding:0px;"&gt;&lt;td style="border:1px solid rgb(238,238,238);padding:7px;"&gt;&lt;span style="margin:0px;padding:0px;"&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td style="border:1px solid rgb(238,238,238);padding:7px;"&gt;&lt;p style="margin:0px;padding:0px;"&gt;&lt;span style="margin:0px;padding:0px;"&gt;Trung Quốc&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr style="border:1px solid rgb(238,238,238);margin:0px;padding:0px;"&gt;&lt;td style="border:1px solid rgb(238,238,238);padding:7px;"&gt;&lt;span style="margin:0px;padding:0px;"&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td style="border:1px solid rgb(238,238,238);padding:7px;"&gt;&lt;p style="margin:0px;padding:0px;"&gt;- 4 cây mút đầu vuông kích thước khác nhau&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr style="border:1px solid rgb(238,238,238);margin:0px;padding:0px;"&gt;&lt;td style="border:1px solid rgb(238,238,238);padding:7px;"&gt;&lt;span style="margin:0px;padding:0px;"&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td style="border:1px solid rgb(238,238,238);padding:7px;"&gt;&lt;p style="margin:0px;padding:0px;"&gt;&lt;span style="margin:0px;padding:0px;"&gt;- Đầu mút mềm, có độ thấm hút cao&lt;/span&gt;&lt;/p&gt;&lt;p style="margin:0px;padding:0px;"&gt;- Cây mút có thể sử dụng để quét keo sữa làm đồ thủ công, tạo hiệu ứng trong tranh vẽ màu nước, màu poster, màu acrylic&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr style="border:1px solid rgb(238,238,238);margin:0px;padding:0px;"&gt;&lt;td style="border:1px solid rgb(238,238,238);padding:7px;"&gt;&lt;span style="margin:0px;padding:0px;"&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng  &lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td style="border:1px solid rgb(238,238,238);padding:7px;"&gt;&lt;p style="margin:0px;padding:0px;"&gt;&lt;span style="margin:0px;padding:0px;"&gt;- Giặt sạch đầu mút sau khi sử dụng, đặc biệt khi sử dụng màu acrylic và keo phải giặt sạch hoặc ngâm nước ngay sau khi sử dụng tránh làm hỏng sản phẩm&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
-        </is>
-      </c>
+          <t>So-ve-Lobeo-Idea-Sketchbook-50-to-200gsm</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>A4 chuẩn (gáy ngang)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Miếng gỗ vẽ màu Acrylic 10x10cm - 10 miếng</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized"&gt;&lt;colgroup&gt;&lt;col style="width:50%;"/&gt;&lt;col style="width:50%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên Sản Phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;TẤM GỖ VẼ ACRYLIC&lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Trung Quốc&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Chất liệu: Gỗ ép&lt;/p&gt;&lt;p&gt;- Số lượng: 10 tấm&lt;/p&gt;&lt;p&gt;- Kích thước: 10x10cm&lt;/p&gt;&lt;p&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Tấm gỗ có kích thước tương đương tấm lót ly, có thể sử dụng với màu acrylic để vẽ tranh hoặc trang trí thành tấm lót li&lt;/p&gt;&lt;p&gt;- Bề mặt gỗ được xử lý tốt, dễ bám màu và cho texture đẹp mắt&lt;/p&gt;&lt;p&gt;- Quý khách có thể xem thêm video bên dưới để tham khảo tính năng của sản phẩm&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Sử dụng trực tiếp&lt;/p&gt;&lt;p&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
-        </is>
-      </c>
+          <t>So-ve-Lobeo-Idea-Sketchbook-50-to-200gsm</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>A3 chuẩn (gáy ngang)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Đất sét tự khô Mont Marte</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.17%;"&gt;&lt;colgroup&gt;&lt;col style="width:16.15%;"/&gt;&lt;col style="width:83.85%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên Sản Phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;ĐẤT SÉT TỰ KHÔ MONT MARTE&lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;i&gt;&lt;strong&gt;&lt;u&gt;MONT MARTE&lt;/u&gt;&lt;/strong&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;Mont Marte là thương hiệu hoạ phẩm bình dân đến từ Úc, được nhiều các bạn học sinh, sinh viên mỹ thuật tin dùng.&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Mont Marte Trung Quốc (Dưới sự quản lý của Mont Marte Úc)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Sản phẩm được đóng gói chắc chắn giúp bảo quản đất sét được tốt hơn&lt;/p&gt;&lt;p&gt;- Phân loại:&lt;/p&gt;&lt;p&gt;+ Gói nhỏ: 500g&lt;/p&gt;&lt;p&gt;+ Gói lớn: 2kg&lt;/p&gt;&lt;p&gt;- Màu sắc: Trắng (white), Nâu đất (terra)&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Đất sét tự khô Mont Marte là sản phẩm được nhiều bạn trẻ đam mê DIY ưa chuộng bởi đặc tính linh hoạt và dễ sử dụng trong quá trình tạo hình, kể cả với những người mới bắt đầu&lt;/p&gt;&lt;p&gt;- Đất có màu xám khi ướt và đổi màu sang màu trắng khi đất khô. Khi ướt đất có độ mềm, dẻo và khô chậm có thể dễ dàng tạo hình trong một khoảng thời gian khá dài giúp quá trình sáng tạo được thuận tiện hơn.&lt;/p&gt;&lt;p&gt;- Đất sẽ tự khô sau 24h tuỳ vào độ dày của sản phẩm.&lt;/p&gt;&lt;p&gt;- Sau khi khô sản phẩm có thể dùng giấy nhám để làm mịn hoặc tạo hình cứng. Chúng ta có thể xịt bảo quản hoặc phủ vanish để bảo quản.&lt;/p&gt;&lt;p&gt;- Sản phẩm có thể dùng kèm với bộ &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Sử dụng trực tiếp&lt;/p&gt;&lt;p&gt;- Có thể sử dụng với một chút nước để làm mịn bề mặt hoặc hỗ trợ tạo hình nhỏ (không nên dùng quá nhiều)&lt;/p&gt;&lt;p&gt;- Nên sử dụng với bộ dụng cụ tạo hình đất sét để tạo hình được dễ dàng hơn (Tham khảo mua tại &lt;a href="https://lostore.vn/dung-cu-tao-hinh-dat-set-mont-marte-10-mon-p34422200.html"&gt;&lt;span style="color:#40E0D0;"&gt;&lt;strong&gt;ĐÂY&lt;/strong&gt;&lt;/span&gt;&lt;/a&gt;)&lt;/p&gt;&lt;p&gt;- Sau khi đất khô có thể dùng màu acrylic hoặc màu gouache để trang trí&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Bảo quản nơi khô ráo, tháo mát&lt;/p&gt;&lt;p&gt;- Bọc chặt đất sau khi sử dụng nếu còn thừa (có thể dùng màng bọc thực phẩm để bảo quản kỹ hơn)&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
-        </is>
-      </c>
+          <t>So-ve-Lobeo-Idea-Sketchbook-50-to-200gsm</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Vuông 21x21cm</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Keo dán dạng bút Shands</t>
+          <t>Giay-ve-mau-nuoc-Nabii-Aqua-Fat-300gsm-Newbie-Set</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.17%;"&gt;&lt;colgroup&gt;&lt;col style="width:17.56%;"/&gt;&lt;col style="width:82.44%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên Sản Phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;Keo dán dạng bút Shands&lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;i&gt;&lt;strong&gt;&lt;u&gt;Shands&lt;/u&gt;&lt;/strong&gt;&lt;/i&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Trung Quốc&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Mực: Là keo dán, màu sắc phụ thuộc vào màu của bút&lt;/p&gt;&lt;p&gt;- Màu sắc: Trắng, Tím Pastel, Hồng Pastel, Xanh Lá Pastel, Xanh Dương Pastel, Hồng Cam Pastel&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Bút dạng keo dán là một sản phẩm công nghệ mới và mới được ra mắt thời gian dần đây. Sản phẩm phù hợp để dính các chi tiết nhỏ, làm DIY hoặc trang trí sổ.&lt;/p&gt;&lt;p&gt;- Tuổi thọ 1-2 tháng sau khi sử dụng&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Đóng chặt nắp sau khi sử dụng để tránh khô keo&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+          <t>Giấy vẽ màu nước Nabii Aqua Fat 300gsm - Newbie Set</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized"&gt;&lt;colgroup&gt;&lt;col style="width:14.43%;"/&gt;&lt;col style="width:85.57%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;GIẤY VẼ MÀU NƯỚC NABII AQUA FAT - NEWBIE SET&lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;i&gt;&lt;strong&gt;&lt;u&gt;Nabii&lt;/u&gt;&lt;/strong&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;Nabii là thương hiệu giấy chuyên nghiệp đầu tiên tại Việt Nam với nhiều sản phẩm bán chạy trên thị trường bởi chất lượng và giá thành cạnh tranh &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Việt Nam&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Định lượng giấy: 300gsm&lt;/p&gt;&lt;p&gt;- Số lượng: 08 tờ/tệp&lt;/p&gt;&lt;p&gt;- Kích thước: khổ A6 lỡ (9.5x13.5cm)&lt;/p&gt;&lt;p&gt;- Thành phần: 55% cotton&lt;/p&gt;&lt;p&gt;- Vân giấy: Colpress&lt;/p&gt;&lt;p&gt;- Có 3 phiên bản bìa màu pastel: hồng, tím lavender và xanh dương&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;-&lt;strong&gt; GIẤY VẼ MÀU NƯỚC NABII AQUA FAT&lt;/strong&gt; - &lt;strong&gt;NEWBIE SET &lt;/strong&gt;có chất giấy dày dặn, có độ loang tốt thích hợp với nhiều kỹ thuật, chất lượng không đổi so với bản thường&lt;/p&gt;&lt;p&gt;- Giấy sử dụng được cả 2 mặt&lt;/p&gt;&lt;p&gt;- Ngoài vẽ màu nước &lt;strong&gt;GIẤY VẼ MÀU NƯỚC NABII AQUA FAT&lt;/strong&gt; - &lt;strong&gt;NEWBIE SET&lt;/strong&gt; cũng có thể sử dụng với màu dạ, màu poster, acrylic&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Sử dụng trực tiếp&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Hồng</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://pos.nvncdn.com/6dc534-15668/ps/20230503_5h8pDWR7.jpg</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Súng bắn keo kèm 3 cây keo nến mini</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>&lt;table class="ck-table-resized"&gt;&lt;colgroup&gt;&lt;col style="width:15.46%;"/&gt;&lt;col style="width:84.54%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên Sản Phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;Súng bắn keo kèm 3 cây keo nến mini&lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Trung Quốc&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Sản phẩm tặng kèm 3 cây keo nến đóng gói trực tiếp trong sản phẩm&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Súng bắn keo là sản phẩm không thể thiếu khi làm đồ thủ công, DIY. Súng bắn keo mini có 4 tông màu pastel dễ thương, sản phẩm đầu bắt keo nhỏ dễ sử dụng, phù hợp với các chi tiết nhỏ&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng dẫn sử dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Bước 1: Lắp cây keo nến vào súng bắn keo nến&lt;/p&gt;&lt;p&gt;- Bước 2: Cắm điện chờ nhiệt lên ở đầu keo nến. Khi đạt đến nhiệt độ nhất định keo nến sẽ chảy ra. Bóp nút trên súng để keo chảy ra.&lt;/p&gt;&lt;p&gt;* Chú ý: Đầu súng khi cắm điện rất quý khách sử dụng cẩn thận tránh bị phỏng. Tắt công tắc hoặc rút điện sau khi sử dụng để tránh keo nóng quá bị chảy ra làm hỏng súng.&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
-        </is>
-      </c>
+          <t>Giay-ve-mau-nuoc-Nabii-Aqua-Fat-300gsm-Newbie-Set</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Tím</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Túi tote, túi vải canvas Zumeo MS57 Smoky Cat (Khoá kéo)</t>
+          <t>Giay-ve-mau-nuoc-Nabii-Aqua-Fat-300gsm-Newbie-Set</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Xanh</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Túi tote Lobeo Studio - Little Corner</t>
+          <t>So-Sketchbook-Nabii-Ima-160gsm-32-to</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized"&gt;&lt;colgroup&gt;&lt;col style="width:20.61%;"/&gt;&lt;col style="width:79.39%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;Túi tote Lobeo Studio - BST Little Corner&lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;i&gt;&lt;span&gt;&lt;strong&gt;&lt;u&gt;LOBEO&lt;/u&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Lobeo là thương hiệu độc quyền được phát triển bởi đội ngũ Lobeo Art.&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;Việt Nam&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Chất liệu: Vải canvas thân thiện với môi trường&lt;/span&gt;&lt;/p&gt;&lt;p&gt;- Kích thước: Túi 38x40cm (không may đáy), quai 60cm&lt;/p&gt;&lt;p&gt;- Thiết kế: Kéo khoá, kèm túi phụ nhỏ kéo khoá bên trong để đựng phụ kiện&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Từ mong muốn có thể đưa các bản vẽ của bản thân lên túi vải và các sản phẩm khác nhau. Các mẫu thiết kế &lt;strong&gt;Túi tote Lobeo Studio&lt;/strong&gt; đều được vẽ tay 100% bằng các chất liệu khác nhau như màu dạ, màu chì, màu nước, … bởi Lobeo và Zumeo trước khi đưa lên máy để xử lý chất lượng hình ảnh, chỉnh sửa để đảm bảo chất lượng hình in sắc nét nhất. &lt;/p&gt;&lt;p&gt;- Tranh được in với công nghệ in phun trực tiếp lên vải cao cấp nhất của Nhật Bản.&lt;/p&gt;&lt;p&gt;- Túi có khoá kéo và túi phụ để đựng những phụ kiện nhỏ.&lt;/p&gt;&lt;p&gt;- Lưu ý: Sản phẩm sẽ không may đáy để đảm bảo bố cục của Artwork&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;- Không giặt túi với chất tẩy rửa mạnh hoặc vò mạnh ở hình in để bảo quản hình in một cách tốt nhất&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+          <t>Sổ Sketchbook Nabii Ima - 160gsm 32 tờ</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>A5 (14x21cm) - gáy dọc</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://pos.nvncdn.com/6dc534-15668/ps/content/20230314_SzE9whZxeC49.jpg</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Túi tote, túi vải canvas Zumeo MS48 Choco Bear?</t>
+          <t>So-Sketchbook-Nabii-Ima-160gsm-32-to</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>A4 (21x28 cm) - gáy dọc</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Túi tote, túi vải canvas Zumeo MS39 Thỏ 1</t>
+          <t>So-Sketchbook-Nabii-Ima-160gsm-32-to</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>A5 (14x21cm) - gáy ngang</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Túi tote, Túi vải canvas 12 Cung Hoàng Đạo Basic Túi cúc hít vải thô</t>
+          <t>So-Sketchbook-Nabii-Ima-160gsm-32-to</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>A4 (21x28 cm) - gáy ngang</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Túi tote, túi vải canvas BST Cat Planet Túi khoá kéo vải mềm</t>
+          <t>Giay-ve-mau-nuoc-Nabii-Aqua-Fat-300gsm-tep-16-to</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized"&gt;&lt;colgroup&gt;&lt;col style="width:50%;"/&gt;&lt;col style="width:50%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;TÚI TOTE, TÚI VẢI ZUMEO&lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;Việt Nam&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Chất liệu: Canvas sợi nhỏ&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Màu sắc: màu kem&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Kích thước túi: 38x38cm, có may đáy&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Khoá nút nam châm&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Có túi phụ kéo khoá&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Túi tote Zumeo được làm từ chất liệu thân thiện với môi trường, phù hợp với nhiều chức năng như đi học, đi làm, đi chơi, đi vẽ tranh, ...&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;-  Túi in bằng công nghệ in kỹ thuật số trực tiếp lên vải để đảm bảo độ lên màu của hình in cũng như đem lại cảm giác mạnh mẽ về chất liệu, giặt không phai&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Túi được may chắc chắn, đứng form với kích thước có thể để vừa laptop 15inch&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Sản phẩm có túi phụ kèm khoá kéo bên trong có khoá để có thể đựng đồ quan trọng như điện thoại, ví, chìa khoá, tẩy,...&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+          <t>Giấy vẽ màu nước Nabii Aqua Fat 300gsm - tệp 16 tờ</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.2%;"&gt;&lt;colgroup&gt;&lt;col style="width:10.05%;"/&gt;&lt;col style="width:89.95%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;SỔ VẼ MÀU NƯỚC NABII AQUA FAT &lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;i&gt;&lt;strong&gt;&lt;u&gt;Nabii&lt;/u&gt;&lt;/strong&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;Nabii là thương hiệu giấy chuyên nghiệp đầu tiên tại Việt Nam với nhiều sản phẩm bán chạy trên thị trường bởi chất lượng và giá thành cạnh tranh &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Việt Nam&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Định lượng giấy: 300gsm&lt;/p&gt;&lt;p&gt;- Số lượng: 16 tờ/tệp&lt;/p&gt;&lt;p&gt;- Kích thước: Khổ A4 lỡ (19x27cm), khổ A5 lỡ (13.5x19cm), khổ A6 lỡ&lt;/p&gt;&lt;p&gt;- Thành phần: 55% cotton&lt;/p&gt;&lt;p&gt;- Vân giấy: Colpress&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- &lt;strong&gt;GIẤY VẼ&lt;/strong&gt; &lt;strong&gt;MÀU NƯỚC NABII AQUA FAT&lt;/strong&gt; có chất giấy dày dặn, có độ loang tốt thích hợp với nhiều kỹ thuật &lt;/p&gt;&lt;p&gt;- Giấy sử dụng được cả 2 mặt, mặt trước là mặt nhiều vân hơn, có độ loang và lên màu tốt. Mặt sau ít vân hơn phù hợp với những bạn thích bề mặt mịn, dễ đi nét. Mặt sau nhiều keo hơn và loang kém hơn so với mặt nhiều vân. Quý khách có thể lựa chọn bề mặt để sử dụng theo nhu cầu của bản thân.&lt;/p&gt;&lt;p&gt;- Ngoài vẽ màu nước&lt;strong&gt; NABII AQUA FAT&lt;/strong&gt; cũng có thể sử dụng với màu dạ, màu poster, acrylic&lt;/p&gt;&lt;p&gt;- Sản phẩm được đựng trong túi zip chống ẩm cao cấp, tiện lợi khi sử dụng, hạn chế mốc giấy&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Sử dụng trực tiếp&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9,5x13,5 cm</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://pos.nvncdn.com/6dc534-15668/ps/content/20230314_BfYvQCp45ReF.jpg</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Túi tote, túi vải canvas Retro 1</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.27%;"&gt;&lt;colgroup&gt;&lt;col style="width:14.53%;"/&gt;&lt;col style="width:85.47%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;TÚI TOTE, TÚI VẢI ZUMEO&lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;Việt Nam&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Chất liệu: Canvas sợi nhỏ&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Màu sắc: màu kem&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Kích thước túi: 38x38cm, có may đáy&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Khoá nút nam châm&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Có túi phụ kéo khoá&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Túi tote Zumeo được làm từ chất liệu thân thiện với môi trường, phù hợp với nhiều chức năng như đi học, đi làm, đi chơi, đi vẽ tranh, ...&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;-  Túi in bằng công nghệ in kỹ thuật số trực tiếp lên vải để đảm bảo độ lên màu của hình in cũng như đem lại cảm giác mạnh mẽ về chất liệu, giặt không phai&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Túi được may chắc chắn, đứng form với kích thước có thể để vừa laptop 15inch&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Sản phẩm có túi phụ kèm khoá kéo bên trong có khoá để có thể đựng đồ quan trọng như điện thoại, ví, chìa khoá, tẩy,...&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
-        </is>
-      </c>
+          <t>Giay-ve-mau-nuoc-Nabii-Aqua-Fat-300gsm-tep-16-to</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13,5x19cm</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Túi tote, túi vải canvas sợi nhỏ BST Iu Thưn</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized"&gt;&lt;colgroup&gt;&lt;col style="width:50%;"/&gt;&lt;col style="width:50%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;TÚI TOTE, TÚI VẢI ZUMEO&lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;i&gt;&lt;span&gt;&lt;strong&gt;&lt;u&gt;ZUMEO&lt;/u&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Zumeo là thương hiệu túi tote độc quyền chuyên cung cấp các sản phẩm dễ thương được phát triển bởi đội ngũ Lobeo Art. Sản phẩm được thiết kế độc quyền cũng như collab với các hoạ sĩ trẻ tại Việt Nam. Túi in bằng công nghệ in kỹ thuật số trực tiếp lên vải để đảm bảo độ lên màu của hình in cũng như đem lại cảm giác mạnh mẽ về chất liệu.&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;Việt Nam&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Chất liệu: Canvas sợi nhỏ&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Màu sắc: màu kem&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Kích thước túi: 38x38cm, có may đáy&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Khoá nút nam châm&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Có túi phụ kéo khoá&lt;/span&gt;&lt;/p&gt;&lt;p&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Túi tote Zumeo được làm từ chất liệu thân thiện với môi trường, phù hợp với nhiều chức năng như đi học, đi làm, đi chơi, đi vẽ tranh, ...&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;-  Túi in bằng công nghệ in kỹ thuật số trực tiếp lên vải để đảm bảo độ lên màu của hình in cũng như đem lại cảm giác mạnh mẽ về chất liệu, giặt không phai&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Túi được may chắc chắn, đứng form với kích thước có thể để vừa laptop 15inch&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Sản phẩm có túi phụ kèm khoá kéo bên trong có khoá để có thể đựng đồ quan trọng như điện thoại, ví, chìa khoá, tẩy,...&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
-        </is>
-      </c>
+          <t>Giay-ve-mau-nuoc-Nabii-Aqua-Fat-300gsm-tep-16-to</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>19x27 cm</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sổ vẽ màu dạ Ohuhu 200gsm 78 tờ</t>
+          <t>So-ve-Nabii-Ima-Sketchbook-gay-khau-160gsm-50-to-A5</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:98.2%;"&gt;&lt;colgroup&gt;&lt;col style="width:16%;"/&gt;&lt;col style="width:84%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Sổ vẽ màu dạ Ohuhu 200gsm 78 tờ&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;i&gt;&lt;span&gt;&lt;strong&gt;&lt;u&gt;Ohuhu&lt;/u&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/i&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;Thương hiệu Mỹ sản xuất tại Trung Quốc&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Định lượng: 200gsm&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Màu trắng, vân nhẹ&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Bìa sổ cứng, giả da màu đen (các size nhỏ kèm dây buộc đặc biệt bất kì)&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Sổ vẽ màu dạ Ohuhu 200gsm 78 tờ là sản phẩm chuyên sử dụng cho màu dạ, được phát triển bởi thương hiệu màu dạ Ohuhu&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Sổ có bìa cứng giả da chắc chắn, basic. Giấy có độ dày 200gsm, gáy khâu với số tờ lên đến 78 tờ&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Giấy phù có thể sử dụng với màu marker và màu chì &lt;/span&gt;(chú ý khi sử dụng với màu dạ sổ vẫn có thể thấm sang mặt sau, các bạn có thể sử dụng thêm 1 tờ nháp để lót bên dưới, ...)&lt;/p&gt;&lt;p&gt;- Giấy có độ kị tẩy ở mức vừa phải&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+          <t>Sổ vẽ Nabii Ima Sketchbook gáy khâu 160gsm 50 tờ A5</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Mẫu 1</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://pos.nvncdn.com/6dc534-15668/ps/20230506_6dyy08Mq.jpg</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sổ vẽ màu dạ Ohuhu 200gsm 78 tờ</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:98.2%;"&gt;&lt;colgroup&gt;&lt;col style="width:16%;"/&gt;&lt;col style="width:84%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Sổ vẽ màu dạ Ohuhu 200gsm 78 tờ&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;i&gt;&lt;span&gt;&lt;strong&gt;&lt;u&gt;Ohuhu&lt;/u&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/i&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;Thương hiệu Mỹ sản xuất tại Trung Quốc&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Định lượng: 200gsm&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Màu trắng, vân nhẹ&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Bìa sổ cứng, giả da màu đen (các size nhỏ kèm dây buộc đặc biệt bất kì)&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Sổ vẽ màu dạ Ohuhu 200gsm 78 tờ là sản phẩm chuyên sử dụng cho màu dạ, được phát triển bởi thương hiệu màu dạ Ohuhu&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Sổ có bìa cứng giả da chắc chắn, basic. Giấy có độ dày 200gsm, gáy khâu với số tờ lên đến 78 tờ&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Giấy phù có thể sử dụng với màu marker và màu chì &lt;/span&gt;(chú ý khi sử dụng với màu dạ sổ vẫn có thể thấm sang mặt sau, các bạn có thể sử dụng thêm 1 tờ nháp để lót bên dưới, ...)&lt;/p&gt;&lt;p&gt;- Giấy có độ kị tẩy ở mức vừa phải&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
-        </is>
-      </c>
+          <t>So-ve-Nabii-Ima-Sketchbook-gay-khau-160gsm-50-to-A5</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Mẫu 2</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sổ vẽ màu nước, màu gouache Lobeo Dream Sketchbook 300gsm</t>
+          <t>So-ve-mau-nuoc-Nabii-Aqua-Fat-300gsm-25-to</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.01%;"&gt;&lt;colgroup&gt;&lt;col style="width:16%;"/&gt;&lt;col style="width:84%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;SỔ VẼ MÀU NƯỚC LOBEO DREAM SKETCHBOOK&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;i&gt;&lt;span&gt;&lt;strong&gt;&lt;u&gt;LOBEO&lt;/u&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Lobeo là thương hiệu độc quyền được phát triển bởi đội ngũ Lobeo Art.&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;Việt Nam&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Định lượng: 300gsm&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Thành phần cotton: 30%&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Vân giấy sần nhẹ, màu kem&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Bìa sổ cứng, giả da màu đen (các size nhỏ kèm dây buộc đặc biệt bất kì)&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Sổ LOBEO DREAM SKETCHBOOK được sử dụng để phác thảo màu nước, gouache, acrylic&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Sổ có bìa cứng giả da chắc chắn, basic. Giấy có độ dày 300gsm dày dặn, giúp tối ưu khả năng sử dụng nhiều mặt của sổ.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Giấy phù có thể sử dụng với màu nước, màu gouache, poster, acrylic, màu marker &lt;/span&gt;(chú ý khi sử dụng với màu dạ sổ vẫn có thể thấm sang mặt sau, các bạn có thể sử dụng thêm 1 tờ nháp để lót bên dưới, ...)&lt;/p&gt;&lt;p&gt;- Giấy có độ kị tẩy ở mức vừa phải. đủ để không ảnh hưởng đến khả năng sử dụng màu nước, do đó nếu bạn muốn sử dụng với màu nước ở trạng thái tốt nhất thì nên đánh chì dùng lực vừa phải. &lt;/p&gt;&lt;p&gt;&lt;span&gt;- Sản phẩm phù hợp với các bạn học sinh, sinh viên hoặc các hoạ sĩ có nhu cầu về một cuốn sổ giá hợp lý để phác thảo màu nước và bảo quản ý tưởng của mình một cách trọn vẹn nhất&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span style="color:rgb(0,26,51);font-size:15px;"&gt;&lt;i&gt;* Chú ý: Dòng sổ Dream Sketchbook có thành phần 30% cotton, phủ hợp để phác thảo màu nước trong quá trình luyện tập hơn việc hoàn thành một tác phẩm hoàn thiện. Nếu quý khách có nhu cầu sử dụng hoàn thành tác phẩm chất lượng cao thì nên sử dụng giấy màu nước chuyên dụng 100% cotton.&lt;/i&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+          <t>Sổ vẽ màu nước Nabii Aqua Fat - 300gsm 25 tờ</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized"&gt;&lt;colgroup&gt;&lt;col style="width:21.09%;"/&gt;&lt;col style="width:78.91%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;SỔ VẼ MÀU NƯỚC NABII AQUA FAT &lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;i&gt;&lt;strong&gt;&lt;u&gt;Nabii&lt;/u&gt;&lt;/strong&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;Nabii là thương hiệu giấy chuyên nghiệp đầu tiên tại Việt Nam với nhiều sản phẩm bán chạy trên thị trường bởi chất lượng và giá thành cạnh tranh &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Việt Nam&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Định lượng giấy: 300gsm&lt;/p&gt;&lt;p&gt;- Số lượng: 25 tờ/sổ&lt;/p&gt;&lt;p&gt;- Kích thước: Khổ A4 lỡ (19x27cm) và khổ A5 lỡ (13.5x19cm)&lt;/p&gt;&lt;p&gt;- Thành phần: 55% cotton&lt;/p&gt;&lt;p&gt;- Vân giấy: Coldpress&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- &lt;strong&gt;SỔ VẼ MÀU NƯỚC NABII AQUA FAT&lt;/strong&gt; có chất giấy dày dặn, có độ loang tốt thích hợp với nhiều kỹ thuật &lt;/p&gt;&lt;p&gt;- Giấy sử dụng được cả 2 mặt&lt;/p&gt;&lt;p&gt;- Ngoài vẽ màu nước &lt;strong&gt;SỔ VẼ MÀU NƯỚC NABII AQUA FAT&lt;/strong&gt; cũng có thể sử dụng với màu dạ, màu poster, acrylic&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Sử dụng trực tiếp&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://pos.nvncdn.com/6dc534-15668/ps/content/20230314_drSKXkU3WI31.jpg</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sổ vẽ Lobeo Idea Sketchbook 50 tờ 200gsm</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.2%;"&gt;&lt;colgroup&gt;&lt;col style="width:12.08%;"/&gt;&lt;col style="width:87.92%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;SỔ VẼ LOBEO IDEA SKETCHBOOK&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;i&gt;&lt;span&gt;&lt;strong&gt;&lt;u&gt;LOBEO&lt;/u&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Lobeo là thương hiệu độc quyền được phát triển bởi đội ngũ Lobeo Art.&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;Việt Nam&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Số tờ: 50 tờ (100 trang)&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Định lượng: 200gsm&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Vân giấy mịn, màu trắng&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Bìa sổ cứng, giả da màu đen&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Kích thước: A4, A5 chuẩn&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Sổ LOBEO IDEA SKETCHBOOK được sử dụng để phác thảo, sketch trong quá trình học tập, tìm kiếm, phát triển ý tưởng&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Sổ có 50 trang với thiết kế bìa cứng giả da chắc chắn, basic phù hợp với nhu cầu lưu trữ ý tưởng nhiều và bảo quản trong thời gian dài. Giấy có độ dày 200gsm dày dặn, giúp tối ưu khả năng sử dụng nhiều mặt của sổ &lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Giấy phù có thể sử dụng với chì, màu chì, màu dạ, bút đi nét, bút bi, bút acrylic, bút sơn, bút gốc nước, bút gel,... Giấy có độ dày 200gsm dày dặn, giúp tối ưu khả năng sử dụng nhiều mặt của sổ &lt;/span&gt;(chú ý khi sử dụng với màu dạ sổ vẫn có thể thấm sang mặt sau, các bạn có thể sử dụng thêm 1 tờ nháp để lót bên dưới, ...)&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Sản phẩm phù hợp với các bạn học sinh, sinh viên hoặc các hoạ sĩ có nhu cầu về một cuốn sổ giá hợp lý để phác thảo, nghiên cứu, phát triển và lưu trữ ý tưởng, ký hoạ, làm bản name truyện tranh, thiết kế thời trang, ...&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span style="color:rgb(255,0,0);"&gt;&lt;i&gt;&lt;span&gt;&lt;strong&gt;- CHÚ Ý: SỔ KHÔNG SỬ DỤNG ĐƯỢC VỚI MÀU NƯỚC&lt;/strong&gt;&lt;/span&gt;&lt;/i&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color:rgb(0,26,51);font-size:15px;"&gt;&lt;i&gt;* Dòng sổ Idea Sketchbook này là dòng giấy mịn chuyên chì, màu chì, màu dạ và kỹ thuật ký hoạ, tăng độ dai khi tẩy. Nên khi sử dụng với bút đi nét sẽ phù hợp với các nét đưa nhanh và dứt khoát, nếu đi nét chỉnh chu và chậm sẽ dễ xuất hiện tình trạng lem mực.&lt;/i&gt;&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
-        </is>
-      </c>
+          <t>So-ve-mau-nuoc-Nabii-Aqua-Fat-300gsm-25-to</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Giấy vẽ màu nước Nabii Aqua Fat 300gsm - Newbie Set</t>
+          <t>So-ve-Skethbook-Potentate-100gsm-120-to-gay-khau</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized"&gt;&lt;colgroup&gt;&lt;col style="width:14.43%;"/&gt;&lt;col style="width:85.57%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;GIẤY VẼ MÀU NƯỚC NABII AQUA FAT - NEWBIE SET&lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;i&gt;&lt;strong&gt;&lt;u&gt;Nabii&lt;/u&gt;&lt;/strong&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;Nabii là thương hiệu giấy chuyên nghiệp đầu tiên tại Việt Nam với nhiều sản phẩm bán chạy trên thị trường bởi chất lượng và giá thành cạnh tranh &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Việt Nam&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Định lượng giấy: 300gsm&lt;/p&gt;&lt;p&gt;- Số lượng: 08 tờ/tệp&lt;/p&gt;&lt;p&gt;- Kích thước: khổ A6 lỡ (9.5x13.5cm)&lt;/p&gt;&lt;p&gt;- Thành phần: 55% cotton&lt;/p&gt;&lt;p&gt;- Vân giấy: Colpress&lt;/p&gt;&lt;p&gt;- Có 3 phiên bản bìa màu pastel: hồng, tím lavender và xanh dương&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;-&lt;strong&gt; GIẤY VẼ MÀU NƯỚC NABII AQUA FAT&lt;/strong&gt; - &lt;strong&gt;NEWBIE SET &lt;/strong&gt;có chất giấy dày dặn, có độ loang tốt thích hợp với nhiều kỹ thuật, chất lượng không đổi so với bản thường&lt;/p&gt;&lt;p&gt;- Giấy sử dụng được cả 2 mặt&lt;/p&gt;&lt;p&gt;- Ngoài vẽ màu nước &lt;strong&gt;GIẤY VẼ MÀU NƯỚC NABII AQUA FAT&lt;/strong&gt; - &lt;strong&gt;NEWBIE SET&lt;/strong&gt; cũng có thể sử dụng với màu dạ, màu poster, acrylic&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Sử dụng trực tiếp&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+          <t>Sổ vẽ Skethbook Potentate 100gsm 120 tờ gáy khâu</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.2%;"&gt;&lt;colgroup&gt;&lt;col style="width:15.95%;"/&gt;&lt;col style="width:84.05%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên Sản Phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;Sổ vẽ Skethbook Potentate 100gsm 120 tờ gáy khâu&lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;i&gt;&lt;strong&gt;&lt;u&gt;Potentate&lt;/u&gt;&lt;/strong&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;Potentate là thương hiệu giấy giá rẻ hạng học sinh sinh viên khá nổi tiếng tại Trung Quốc. Sản phẩm phù hợp với các bạn học sinh sinh viên đang tập vẽ với giá thành phải chăng.&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Trung Quốc&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Vân giấy: sần nhẹ&lt;/p&gt;&lt;p&gt;- Màu sắc giấy: Trắng ngà&lt;/p&gt;&lt;p&gt;- Định lượng: 100gsm&lt;/p&gt;&lt;p&gt;- Số tờ: 120 tờ&lt;/p&gt;&lt;p&gt;- Quy cách: Gáy khâu&lt;/p&gt;&lt;p&gt;- Màu sắc bìa sổ: Đen&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- &lt;strong&gt;Sổ vẽ Skethbook Potentate 100gsm&lt;/strong&gt; có bề mặt hơi sần nhẹ, có khả năng ăn chì và bám chì tốt. Sổ có 120 trang thoả sức phác thảo lại và lưu trữ các ý tưởng sáng tạo. &lt;/p&gt;&lt;p&gt;- Giấy có độ dày vừa phải nên chỉ phù hợp phác thảo nhanh với bút chì, màu chì. Đối với màu dạ, bút đi nét hoặc bút bi giấy sẽ hằn nhẹ và in sang mặt sau nếu mạnh tay.&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Sử dụng trực tiếp&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Bảo quản nơi khô ráo, tháo mát&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://pos.nvncdn.com/6dc534-15668/ps/content/20230221_nCnjuCt9i20UC1y9nSNuVsoO.jpg</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sổ Sketchbook Nabii Ima - 160gsm 32 tờ</t>
+          <t>So-ve-Skethbook-Potentate-100gsm-120-to-gay-khau</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Giấy vẽ màu nước Nabii Aqua Fat 300gsm - tệp 16 tờ</t>
+          <t>So-ve-mau-gouache,-mau-da-Lobeo-Wandering-30-to-225gsm</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.2%;"&gt;&lt;colgroup&gt;&lt;col style="width:10.05%;"/&gt;&lt;col style="width:89.95%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;SỔ VẼ MÀU NƯỚC NABII AQUA FAT &lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;i&gt;&lt;strong&gt;&lt;u&gt;Nabii&lt;/u&gt;&lt;/strong&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;Nabii là thương hiệu giấy chuyên nghiệp đầu tiên tại Việt Nam với nhiều sản phẩm bán chạy trên thị trường bởi chất lượng và giá thành cạnh tranh &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Việt Nam&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Định lượng giấy: 300gsm&lt;/p&gt;&lt;p&gt;- Số lượng: 16 tờ/tệp&lt;/p&gt;&lt;p&gt;- Kích thước: Khổ A4 lỡ (19x27cm), khổ A5 lỡ (13.5x19cm), khổ A6 lỡ&lt;/p&gt;&lt;p&gt;- Thành phần: 55% cotton&lt;/p&gt;&lt;p&gt;- Vân giấy: Colpress&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- &lt;strong&gt;GIẤY VẼ&lt;/strong&gt; &lt;strong&gt;MÀU NƯỚC NABII AQUA FAT&lt;/strong&gt; có chất giấy dày dặn, có độ loang tốt thích hợp với nhiều kỹ thuật &lt;/p&gt;&lt;p&gt;- Giấy sử dụng được cả 2 mặt, mặt trước là mặt nhiều vân hơn, có độ loang và lên màu tốt. Mặt sau ít vân hơn phù hợp với những bạn thích bề mặt mịn, dễ đi nét. Mặt sau nhiều keo hơn và loang kém hơn so với mặt nhiều vân. Quý khách có thể lựa chọn bề mặt để sử dụng theo nhu cầu của bản thân.&lt;/p&gt;&lt;p&gt;- Ngoài vẽ màu nước&lt;strong&gt; NABII AQUA FAT&lt;/strong&gt; cũng có thể sử dụng với màu dạ, màu poster, acrylic&lt;/p&gt;&lt;p&gt;- Sản phẩm được đựng trong túi zip chống ẩm cao cấp, tiện lợi khi sử dụng, hạn chế mốc giấy&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Sử dụng trực tiếp&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+          <t>Sổ vẽ màu gouache, màu dạ Lobeo Wandering 30 tờ 225gsm</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:98.41%;"&gt;&lt;colgroup&gt;&lt;col style="width:12.08%;"/&gt;&lt;col style="width:87.92%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Sổ vẽ màu gouache, màu dạ Lobeo Wandering 30 tờ 225gsm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;i&gt;&lt;span&gt;&lt;strong&gt;&lt;u&gt;LOBEO&lt;/u&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Lobeo là thương hiệu độc quyền được phát triển bởi đội ngũ Lobeo Art.&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;Việt Nam&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Số tờ: 30 tờ&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Định lượng: 225gsm&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Vân giấy ngang nhẹ, màu kem&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Bìa sổ cứng, giả da màu đen&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Kích thước: A4, A5 chuẩn&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Giấy có thể sử dụng với màu dạ, màu gouachem, màu poster, bút acrylic, bút sơn và 2-3 lớp màu nước &lt;/span&gt;(chú ý khi sử dụng với màu dạ sổ vẫn có thể thấm sang mặt sau, các bạn có thể sử dụng thêm 1 tờ nháp để lót bên dưới, ...)&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Sản phẩm phù hợp để vẽ tranh gouache, màu dạ hoàn thiện hoặc ký hoạ màu nước nhanh&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Khổ A5</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://pos.nvncdn.com/6dc534-15668/ps/content/20231028_uUwxUe00.jpg</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sổ vẽ Nabii Ima Sketchbook gáy khâu 160gsm 50 tờ A5</t>
+          <t>So-ve-mau-gouache,-mau-da-Lobeo-Wandering-30-to-225gsm</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Khổ A4</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sổ vẽ màu nước Nabii Aqua Fat - 300gsm 25 tờ</t>
+          <t>Giay-ve-chi-Canson-Truyen-Thong-110gsm-10-to</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized"&gt;&lt;colgroup&gt;&lt;col style="width:21.09%;"/&gt;&lt;col style="width:78.91%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;SỔ VẼ MÀU NƯỚC NABII AQUA FAT &lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;i&gt;&lt;strong&gt;&lt;u&gt;Nabii&lt;/u&gt;&lt;/strong&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;Nabii là thương hiệu giấy chuyên nghiệp đầu tiên tại Việt Nam với nhiều sản phẩm bán chạy trên thị trường bởi chất lượng và giá thành cạnh tranh &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Việt Nam&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Định lượng giấy: 300gsm&lt;/p&gt;&lt;p&gt;- Số lượng: 25 tờ/sổ&lt;/p&gt;&lt;p&gt;- Kích thước: Khổ A4 lỡ (19x27cm) và khổ A5 lỡ (13.5x19cm)&lt;/p&gt;&lt;p&gt;- Thành phần: 55% cotton&lt;/p&gt;&lt;p&gt;- Vân giấy: Coldpress&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- &lt;strong&gt;SỔ VẼ MÀU NƯỚC NABII AQUA FAT&lt;/strong&gt; có chất giấy dày dặn, có độ loang tốt thích hợp với nhiều kỹ thuật &lt;/p&gt;&lt;p&gt;- Giấy sử dụng được cả 2 mặt&lt;/p&gt;&lt;p&gt;- Ngoài vẽ màu nước &lt;strong&gt;SỔ VẼ MÀU NƯỚC NABII AQUA FAT&lt;/strong&gt; cũng có thể sử dụng với màu dạ, màu poster, acrylic&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Sử dụng trực tiếp&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+          <t>Giấy vẽ chì Canson Truyền Thống 110gsm 10 tờ</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.26%;"&gt;&lt;colgroup&gt;&lt;col style="width:18.01%;"/&gt;&lt;col style="width:81.99%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;Giấy vẽ chì Canson Truyền Thống 110gsm 10 tờ&lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;Canson là thương hiệu giấy vẽ (đặc biệt giấy vẽ màu nước) nổi tiếng và được nhiều hoạ sĩ tin dùng&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Trung Quốc&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;- Định lượng: 110gsm&lt;/p&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;- Vân giấy: Vân ngang&lt;/p&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;- Kích thước: A5, A4, A3 chuẩn&lt;/p&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;- Đóng gói: 10 tờ/bịch.&lt;/p&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;- Chức năng: Vẽ màu gouache, chì&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Bề mặt giấy ngoài vẽ chì, màu chì có thể vẽ được màu dạ (marker)&lt;/p&gt;&lt;p&gt;- Sản phẩm thường được dùng để luyện thi&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Sử dụng trực tiếp&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://pos.nvncdn.com/6dc534-15668/ps/content/20231028_uUwxUe00.jpg</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sổ vẽ Skethbook Potentate 100gsm 120 tờ gáy khâu</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.2%;"&gt;&lt;colgroup&gt;&lt;col style="width:15.95%;"/&gt;&lt;col style="width:84.05%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên Sản Phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;Sổ vẽ Skethbook Potentate 100gsm 120 tờ gáy khâu&lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;i&gt;&lt;strong&gt;&lt;u&gt;Potentate&lt;/u&gt;&lt;/strong&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;Potentate là thương hiệu giấy giá rẻ hạng học sinh sinh viên khá nổi tiếng tại Trung Quốc. Sản phẩm phù hợp với các bạn học sinh sinh viên đang tập vẽ với giá thành phải chăng.&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Trung Quốc&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Vân giấy: sần nhẹ&lt;/p&gt;&lt;p&gt;- Màu sắc giấy: Trắng ngà&lt;/p&gt;&lt;p&gt;- Định lượng: 100gsm&lt;/p&gt;&lt;p&gt;- Số tờ: 120 tờ&lt;/p&gt;&lt;p&gt;- Quy cách: Gáy khâu&lt;/p&gt;&lt;p&gt;- Màu sắc bìa sổ: Đen&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- &lt;strong&gt;Sổ vẽ Skethbook Potentate 100gsm&lt;/strong&gt; có bề mặt hơi sần nhẹ, có khả năng ăn chì và bám chì tốt. Sổ có 120 trang thoả sức phác thảo lại và lưu trữ các ý tưởng sáng tạo. &lt;/p&gt;&lt;p&gt;- Giấy có độ dày vừa phải nên chỉ phù hợp phác thảo nhanh với bút chì, màu chì. Đối với màu dạ, bút đi nét hoặc bút bi giấy sẽ hằn nhẹ và in sang mặt sau nếu mạnh tay.&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Sử dụng trực tiếp&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Bảo quản nơi khô ráo, tháo mát&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
-        </is>
-      </c>
+          <t>Giay-ve-chi-Canson-Truyen-Thong-110gsm-10-to</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sổ vẽ màu dạ Touchnew 30 tờ 150gsm A5</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.26%;"&gt;&lt;colgroup&gt;&lt;col style="width:18.01%;"/&gt;&lt;col style="width:81.99%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;Sổ vẽ màu dạ Touchnew 30 tờ 150gsm A5&lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;Touchnew&lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Trung Quốc&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Định lượng giấy: 150GSM&lt;/p&gt;&lt;p&gt;- Số lượng: 30 tờ/sổ&lt;/p&gt;&lt;p&gt;- Kích thước: khổ A5&lt;/p&gt;&lt;p&gt;- Vân giấy: Trắng mịn&lt;/p&gt;&lt;p&gt;- Đóng gói: Sổ gáy xoắn&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Bề mặt giấy ngoài vẽ màu dạ có thể vẽ được cả màu màu chì, hạn chế thấm mực sang mặt sau (tuy nhiên nếu chồng nhiều lớp vẫn có thể bị thấm)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Sử dụng trực tiếp&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
-        </is>
-      </c>
+          <t>Giay-ve-chi-Canson-Truyen-Thong-110gsm-10-to</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sổ vẽ màu gouache, màu dạ Lobeo Wandering 30 tờ 225gsm</t>
+          <t>Giay-can-Gateway-83gsm-(tracing-paper)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:98.41%;"&gt;&lt;colgroup&gt;&lt;col style="width:12.08%;"/&gt;&lt;col style="width:87.92%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Sổ vẽ màu gouache, màu dạ Lobeo Wandering 30 tờ 225gsm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;i&gt;&lt;span&gt;&lt;strong&gt;&lt;u&gt;LOBEO&lt;/u&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Lobeo là thương hiệu độc quyền được phát triển bởi đội ngũ Lobeo Art.&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;Việt Nam&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Số tờ: 30 tờ&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Định lượng: 225gsm&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Vân giấy ngang nhẹ, màu kem&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Bìa sổ cứng, giả da màu đen&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Kích thước: A4, A5 chuẩn&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Giấy có thể sử dụng với màu dạ, màu gouachem, màu poster, bút acrylic, bút sơn và 2-3 lớp màu nước &lt;/span&gt;(chú ý khi sử dụng với màu dạ sổ vẫn có thể thấm sang mặt sau, các bạn có thể sử dụng thêm 1 tờ nháp để lót bên dưới, ...)&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Sản phẩm phù hợp để vẽ tranh gouache, màu dạ hoàn thiện hoặc ký hoạ màu nước nhanh&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+          <t>Giấy can Gateway 83gsm (tracing paper)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>&lt;table class="ck-table-resized"&gt;&lt;colgroup&gt;&lt;col style="width:18.39%;"/&gt;&lt;col style="width:81.61%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;Giấy can Gateway 83gsm (tracing paper)&lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Gateway&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Anh&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Định lượng giấy: 83gsm&lt;/p&gt;&lt;p&gt;- Số lượng: tách lẻ 10 tờ/bịch&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Giấy can thường dùng để can các bản vẽ, đặc biệt trong xây dựng, kiến trúc, đồ hoạ và các ứng dụng khác trong in ấn, mỹ thuật, đóng gói&lt;/p&gt;&lt;p&gt;- Giấy can Gateway đến từ Anh Quốc, đảm bảo chất lượng sử dụng&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Sử dụng trực tiếp&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Tệp 10 tờ A4</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://pos.nvncdn.com/6dc534-15668/ps/20230317_i5xWHQkM.jpg</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Giấy vẽ chì Canson Truyền Thống 110gsm 10 tờ</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.26%;"&gt;&lt;colgroup&gt;&lt;col style="width:18.01%;"/&gt;&lt;col style="width:81.99%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;Giấy vẽ chì Canson Truyền Thống 110gsm 10 tờ&lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;Canson là thương hiệu giấy vẽ (đặc biệt giấy vẽ màu nước) nổi tiếng và được nhiều hoạ sĩ tin dùng&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Trung Quốc&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;- Định lượng: 110gsm&lt;/p&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;- Vân giấy: Vân ngang&lt;/p&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;- Kích thước: A5, A4, A3 chuẩn&lt;/p&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;- Đóng gói: 10 tờ/bịch.&lt;/p&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;- Chức năng: Vẽ màu gouache, chì&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Bề mặt giấy ngoài vẽ chì, màu chì có thể vẽ được màu dạ (marker)&lt;/p&gt;&lt;p&gt;- Sản phẩm thường được dùng để luyện thi&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Sử dụng trực tiếp&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
-        </is>
-      </c>
+          <t>Giay-can-Gateway-83gsm-(tracing-paper)</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Tệp 10 tờ A3</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Giấy can Gateway 83gsm (tracing paper)</t>
+          <t>So-Canson-1557-300gsm-20-to</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>&lt;table class="ck-table-resized"&gt;&lt;colgroup&gt;&lt;col style="width:18.39%;"/&gt;&lt;col style="width:81.61%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;Giấy can Gateway 83gsm (tracing paper)&lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Gateway&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Anh&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Định lượng giấy: 83gsm&lt;/p&gt;&lt;p&gt;- Số lượng: tách lẻ 10 tờ/bịch&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Giấy can thường dùng để can các bản vẽ, đặc biệt trong xây dựng, kiến trúc, đồ hoạ và các ứng dụng khác trong in ấn, mỹ thuật, đóng gói&lt;/p&gt;&lt;p&gt;- Giấy can Gateway đến từ Anh Quốc, đảm bảo chất lượng sử dụng&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Sử dụng trực tiếp&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+          <t>Sổ Canson 1557 - 300gsm 20 tờ</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.2%;"&gt;&lt;colgroup&gt;&lt;col style="width:12.6%;"/&gt;&lt;col style="width:87.4%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Tên Sản Phẩm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Giấy vẽ màu nước Canson 1557 300gsm​&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;i&gt;&lt;span&gt;&lt;strong&gt;&lt;u&gt;Canson&lt;/u&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color:rgb(0,0,0);"&gt;&lt;span&gt;Canson là thương hiệu giấy lâu đời và nổi tiếng trên thế giới với nhiều dòng sản phẩm từ bình dân và cao cấp, đáp ứng nhu cầu của nhiều phân khúc khách hàng&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;Canson Trung Quốc&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span style="color:rgb(0,0,0);"&gt;- Định lượng giấy: 300gsm&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color:rgb(0,0,0);"&gt;&lt;span&gt;- Số tờ: 20&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color:rgb(0,0,0);"&gt;&lt;span&gt;- Vân: Coldpress (vân nhẹ hơn coldpress các hãng 100% cotton)&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color:rgb(0,0,0);"&gt;&lt;span&gt;- Sổ dạng pad gáy keo 1 mặt, có thể dễ dàng sử dụng như 1 cuốn sổ hoặc tách từng tờ mà không làm mất form giấy. &lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span style="color:rgb(0,0,0);"&gt;- Sổ dạng pad chắc chắn có thể sử dụng trực tiếp mà không cần bảng kê hoặc bàn, đặc biệt tiện lợi khi vẽ ngoài trời&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color:rgb(0,0,0);"&gt;&lt;span&gt;- Giấy được làm từ bột gỗ nên có đặt tính của giấy tráng keo lai với giấy cotton&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color:rgb(0,0,0);"&gt;&lt;span&gt;- Giấy thích hợp sử dụng với màu nước, màu dạ, màu gouache, acrylic, sáp dầu, ...&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;- Sử dụng trực tiếp&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;- Bảo quản nơi khô ráo, tháo mát&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://lostore.vn/sites/default/files/hvnh_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sổ Canson 1557 - 300gsm 20 tờ</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.2%;"&gt;&lt;colgroup&gt;&lt;col style="width:12.6%;"/&gt;&lt;col style="width:87.4%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Tên Sản Phẩm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Giấy vẽ màu nước Canson 1557 300gsm​&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;i&gt;&lt;span&gt;&lt;strong&gt;&lt;u&gt;Canson&lt;/u&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color:rgb(0,0,0);"&gt;&lt;span&gt;Canson là thương hiệu giấy lâu đời và nổi tiếng trên thế giới với nhiều dòng sản phẩm từ bình dân và cao cấp, đáp ứng nhu cầu của nhiều phân khúc khách hàng&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;Canson Trung Quốc&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span style="color:rgb(0,0,0);"&gt;- Định lượng giấy: 300gsm&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color:rgb(0,0,0);"&gt;&lt;span&gt;- Số tờ: 20&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color:rgb(0,0,0);"&gt;&lt;span&gt;- Vân: Coldpress (vân nhẹ hơn coldpress các hãng 100% cotton)&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color:rgb(0,0,0);"&gt;&lt;span&gt;- Sổ dạng pad gáy keo 1 mặt, có thể dễ dàng sử dụng như 1 cuốn sổ hoặc tách từng tờ mà không làm mất form giấy. &lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span style="color:rgb(0,0,0);"&gt;- Sổ dạng pad chắc chắn có thể sử dụng trực tiếp mà không cần bảng kê hoặc bàn, đặc biệt tiện lợi khi vẽ ngoài trời&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color:rgb(0,0,0);"&gt;&lt;span&gt;- Giấy được làm từ bột gỗ nên có đặt tính của giấy tráng keo lai với giấy cotton&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color:rgb(0,0,0);"&gt;&lt;span&gt;- Giấy thích hợp sử dụng với màu nước, màu dạ, màu gouache, acrylic, sáp dầu, ...&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;- Sử dụng trực tiếp&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;- Bảo quản nơi khô ráo, tháo mát&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
-        </is>
-      </c>
+          <t>So-Canson-1557-300gsm-20-to</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Giấy vẽ màu nước Canson Truyền Thống 230gsm 10 tờ</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.26%;"&gt;&lt;colgroup&gt;&lt;col style="width:18.01%;"/&gt;&lt;col style="width:81.99%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;Giấy vẽ Canson Truyền Thống 230gsm 10 tờ&lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;Canson là thương hiệu giấy vẽ (đặc biệt giấy vẽ màu nước) nổi tiếng và được nhiều hoạ sĩ tin dùng&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Trung Quốc&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;- Định lượng: 230gsm&lt;/p&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;- Vân giấy: Vân ngang&lt;/p&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;- Kích thước: A5, A4, A3 chuẩn&lt;/p&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;- Đóng gói: 10 tờ/bịch.&lt;/p&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;- Chức năng: Vẽ màu gouache, chì, màu nước, màu dạ&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Sản phẩm thường được dùng để luyện thi&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Sử dụng trực tiếp&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
-        </is>
-      </c>
+          <t>So-Canson-1557-300gsm-20-to</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Giấy vẽ kỹ thuật 200gsm tệp 5 tờ</t>
+          <t>Giay-ve-mau-nuoc-Canson-Truyen-Thong-230gsm-10-to</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.26%;"&gt;&lt;colgroup&gt;&lt;col style="width:18.01%;"/&gt;&lt;col style="width:81.99%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;Giấy vẽ kỹ thuật 200gsm tệp 5 tờ&lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;- Định lượng: 200gsm&lt;/p&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;- Vân giấy: Vân mịn &lt;/p&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;- Màu sắc: Trắng&lt;/p&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;- Kích thước: A4, A3 chuẩn&lt;/p&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;- Đóng gói: 5 tờ/bịch.&lt;/p&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;- Chức năng: Vẽ chì, màu chì, màu dạ, bút đi nét&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;-  Sản phẩm thường được dùng để vẽ kỹ thuật hoặc vẽ màu chì, màu dạ, chân dung&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Sử dụng trực tiếp&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+          <t>Giấy vẽ màu nước Canson Truyền Thống 230gsm 10 tờ</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.26%;"&gt;&lt;colgroup&gt;&lt;col style="width:18.01%;"/&gt;&lt;col style="width:81.99%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;Giấy vẽ Canson Truyền Thống 230gsm 10 tờ&lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;Canson là thương hiệu giấy vẽ (đặc biệt giấy vẽ màu nước) nổi tiếng và được nhiều hoạ sĩ tin dùng&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Trung Quốc&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;- Định lượng: 230gsm&lt;/p&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;- Vân giấy: Vân ngang&lt;/p&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;- Kích thước: A5, A4, A3 chuẩn&lt;/p&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;- Đóng gói: 10 tờ/bịch.&lt;/p&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;- Chức năng: Vẽ màu gouache, chì, màu nước, màu dạ&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Sản phẩm thường được dùng để luyện thi&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Sử dụng trực tiếp&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://lostore.vn/sites/default/files/hvnh_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Giấy màu nước 100% cotton LEYTON 300gsm túi 10 tờ</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.18%;"&gt;&lt;colgroup&gt;&lt;col style="width:17.36%;"/&gt;&lt;col style="width:82.64%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;i&gt;&lt;strong&gt;&lt;u&gt;Leyton&lt;/u&gt;&lt;/strong&gt;&lt;/i&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Trung Quốc&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- &lt;strong&gt;GIẤY VẼ MÀU NƯỚC LEYTON&lt;/strong&gt;  Có 3 loại vân hotpress ( bìa xám),  coldpress( bìa xanh),&lt;/p&gt;&lt;p&gt;- Độ dày: 300gsm và làm từ 100% cotton&lt;/p&gt;&lt;p&gt;- Túi 10 tờ &lt;/p&gt;&lt;p&gt;- Gồm khổ: A5/A4/A3 lỡ&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Giấy có độ sần nhẹ, không kỵ tẩy.&lt;/p&gt;&lt;p&gt;- Chất giấy 300gsm dày dặn, có độ bám màu chuẩn, và loang màu nước tốt. &lt;/p&gt;&lt;p&gt;- Có thể sử dụng nhiều chất liệu màu trên giấy như màu nước, màu dạ, gouche,...&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Sử dụng dao dọc giấy hoặc dụng cụ tách giấy tách ở khe giấy chỗ mũi tên chỉ vào. Có thể sử dụng trực tiếp trên sổ hoặc xé từng tờ để vẽ.&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Bảo quản nơi khô ráo thoáng mát&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
-        </is>
-      </c>
+          <t>Giay-ve-mau-nuoc-Canson-Truyen-Thong-230gsm-10-to</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Giấy vẽ truyện tranh Holbein Maxon</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized"&gt;&lt;colgroup&gt;&lt;col style="width:50%;"/&gt;&lt;col style="width:50%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên Sản Phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;Giấy vẽ truyện tranh Holbein Maxon&lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;i&gt;&lt;strong&gt;&lt;u&gt;Maxon thuộc Holbein&lt;/u&gt;&lt;/strong&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;Maxon là thương hiệu chuyên về các sản phẩm vẽ manga thuộc hãng Holbein. Holbein có trụ sở chính tại Osaka và được thành lập vào năm 1930 với tên của một hoạ sĩ nổi tiếng Hans Holbein. Từ thời điểm đó, sự hiện diện của Holbein đã có ý nghĩa không chỉ ở Đông Nam Á, mà còn ở Bắc Mỹ, Úc và Châu Âu.&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Nhật Bản&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Số tờ: 40 tờ&lt;/p&gt;&lt;p&gt;- Khổ chuẩn&lt;/p&gt;&lt;p&gt;- Định lượng:&lt;/p&gt;&lt;p&gt;+ Bìa hồng: 110gsm&lt;/p&gt;&lt;p&gt;+ Bìa xanh: 135gsm&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Giấy vẽ truyện tranh Maxon là dòng giấy chuyên dụng để vẽ manga. Giấy mịn, có kẻ sẵn khung tranh ở viền để vẽ truyện.&lt;/p&gt;&lt;p&gt;- Giấy phù hợp để vẽ bút sắt, bút kim. Bề mặt giấy giúp quá trình vẽ được mượt mà, ngòi bút vẽ lâu mòn hơn. &lt;/p&gt;&lt;p&gt;- Giấy dai, chống sờn&lt;/p&gt;&lt;p&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;-  Bảo quản nơi khô ráo, tháo mát&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
-        </is>
-      </c>
+          <t>Giay-ve-mau-nuoc-Canson-Truyen-Thong-230gsm-10-to</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sổ vẽ CANVAS Faber Castell 280 Gsm 12 tờ A4</t>
+          <t>Giay-ve-ky-thuat-200gsm-tep-5-to</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="border-collapse:collapse;border:1px solid rgb(238,238,238);color:rgb(68,68,68);font-family:Helvetica, Arial, sans-serif;font-size:14px;margin:0px;padding:0px;width:99.17%;"&gt;&lt;colgroup&gt;&lt;col style="width:17.42%;"/&gt;&lt;col style="width:82.58%;"/&gt;&lt;/colgroup&gt;&lt;tbody style="margin:0px;padding:0px;"&gt;&lt;tr style="border:1px solid rgb(238,238,238);margin:0px;padding:0px;"&gt;&lt;td style="border:1px solid rgb(238,238,238);padding:0px;"&gt;&lt;span style="color:#000000;"&gt;&lt;span style="margin:0px;padding:0px;"&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/span&gt;&lt;/span&gt;&lt;/td&gt;&lt;td style="border:1px solid rgb(238,238,238);padding:0px;"&gt;&lt;p style="margin:0px 0px 10px;padding:0px;"&gt;&lt;span style="color:#000000;font-size:15px;"&gt;&lt;i&gt;&lt;span style="margin:0px;padding:0px;"&gt;&lt;strong&gt;&lt;u&gt;Faber castell&lt;/u&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/i&gt;&lt;/span&gt;&lt;/p&gt;&lt;p style="margin:0px 0px 10px;padding:0px;"&gt;&lt;span style="color:#000000;font-size:15px;"&gt;&lt;span style="margin:0px;padding:0px;"&gt;&lt;strong&gt; &lt;/strong&gt;là hãng văn phòng phẩm uy tín với các dòng bút chì, tẩy, màu dành cho mọi lứa tuổi.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr style="border:1px solid rgb(238,238,238);margin:0px;padding:0px;"&gt;&lt;td style="border:1px solid rgb(238,238,238);padding:0px;"&gt;&lt;span style="color:#000000;"&gt;&lt;span style="margin:0px;padding:0px;"&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/span&gt;&lt;/span&gt;&lt;/td&gt;&lt;td style="border:1px solid rgb(238,238,238);padding:0px;"&gt;&lt;span style="color:#000000;"&gt;&lt;span&gt;   Đức&lt;/span&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr style="border:1px solid rgb(238,238,238);margin:0px;padding:0px;"&gt;&lt;td style="border:1px solid rgb(238,238,238);padding:0px;"&gt;&lt;span style="color:#000000;"&gt;&lt;span style="margin:0px;padding:0px;"&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/span&gt;&lt;/span&gt;&lt;/td&gt;&lt;td style="border:1px solid rgb(238,238,238);padding:0px;"&gt;&lt;p style="margin:0px 0px 10px;padding:0px;"&gt;&lt;span style="color:rgb(0,0,0);"&gt;- Chất liệu: Canvas được phủ sẵn gesso hỗ trợ lên màu và bám màu tốt hơ&lt;/span&gt;&lt;/p&gt;&lt;p style="margin:0px 0px 10px;padding:0px;"&gt;&lt;span style="color:rgb(0,0,0);"&gt;- Độ dày: 280gsm&lt;/span&gt;&lt;/p&gt;&lt;p style="color:rgb(68,68,68);margin:0px 0px 10px;padding:0px;"&gt;&lt;span style="color:rgb(0,0,0);"&gt;&lt;span&gt;- Kích thước: A4&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p style="color:rgb(68,68,68);margin:0px 0px 10px;padding:0px;"&gt;&lt;span style="color:rgb(0,0,0);"&gt;- Số tờ: 12 tờ&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr style="border:1px solid rgb(238,238,238);margin:0px;padding:0px;"&gt;&lt;td style="border:1px solid rgb(238,238,238);padding:0px;"&gt;&lt;span style="color:#000000;"&gt;&lt;span style="margin:0px;padding:0px;"&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/span&gt;&lt;/span&gt;&lt;/td&gt;&lt;td style="border:1px solid rgb(238,238,238);padding:0px;"&gt;&lt;p style="margin:0px 0px 10px;padding:0px;"&gt;&lt;span style="color:rgb(0,0,0);"&gt;- Tập lò xo nên có thể vẽ trực tiếp lên sổ hoặc tách rời tửng tờ để vẽ. Sản phẩm tiết kiệm hơn so với toan khung gỗ.&lt;/span&gt;&lt;/p&gt;&lt;p style="margin:0px 0px 10px;padding:0px;"&gt;&lt;span style="color:rgb(0,0,0);"&gt;&lt;span&gt;- &lt;/span&gt;&lt;/span&gt;Phù hợp sử dụng  Màu Acrylic, Gouache, Poster, Sơn Dầu để luyện tập hoặc lồng khung với các tác phẩm hoàn thiện &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr style="border:1px solid rgb(238,238,238);margin:0px;padding:0px;"&gt;&lt;td style="border:1px solid rgb(238,238,238);padding:0px;"&gt;&lt;span style="color:#000000;"&gt;&lt;span style="margin:0px;padding:0px;"&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/span&gt;&lt;/span&gt;&lt;/td&gt;&lt;td style="border:1px solid rgb(238,238,238);padding:0px;"&gt;&lt;p style="margin:0px 0px 10px;padding:0px;"&gt;&lt;span style="color:#000000;"&gt;&lt;span&gt;- Sử dụng trực tiếp&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p style="margin:0px 0px 10px;padding:0px;"&gt;&lt;span style="color:#000000;"&gt;&lt;span&gt;- Có thể vẽ trực tiếp hoặc tách rời từng tờ.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr style="border:1px solid rgb(238,238,238);margin:0px;padding:0px;"&gt;&lt;td style="border:1px solid rgb(238,238,238);padding:0px;"&gt;&lt;span style="color:#000000;"&gt;&lt;span style="margin:0px;padding:0px;"&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/span&gt;&lt;/span&gt;&lt;/td&gt;&lt;td style="border:1px solid rgb(238,238,238);padding:0px;"&gt;&lt;p style="margin:0px 0px 10px;padding:0px;"&gt;&lt;span style="color:#000000;"&gt;&lt;span&gt;  - Bảo quản nơi khô ráo thoáng mát&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p style="margin:0px 0px 10px;padding:0px;"&gt;&lt;span style="color:#000000;"&gt;&lt;span&gt;  - Xé nhẹ nhàng, tránh rách canvas.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+          <t>Giấy vẽ kỹ thuật 200gsm tệp 5 tờ</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.26%;"&gt;&lt;colgroup&gt;&lt;col style="width:18.01%;"/&gt;&lt;col style="width:81.99%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;Giấy vẽ kỹ thuật 200gsm tệp 5 tờ&lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;- Định lượng: 200gsm&lt;/p&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;- Vân giấy: Vân mịn &lt;/p&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;- Màu sắc: Trắng&lt;/p&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;- Kích thước: A4, A3 chuẩn&lt;/p&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;- Đóng gói: 5 tờ/bịch.&lt;/p&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;- Chức năng: Vẽ chì, màu chì, màu dạ, bút đi nét&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;-  Sản phẩm thường được dùng để vẽ kỹ thuật hoặc vẽ màu chì, màu dạ, chân dung&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Sử dụng trực tiếp&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://lostore.vn/sites/default/files/hvnh_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sổ Leyton 300gsm 20 tờ</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.18%;"&gt;&lt;colgroup&gt;&lt;col style="width:18.06%;"/&gt;&lt;col style="width:81.94%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;i&gt;&lt;strong&gt;&lt;u&gt;Leyton&lt;/u&gt;&lt;/strong&gt;&lt;/i&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Trung Quốc&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- &lt;strong&gt;GIẤY VẼ MÀU NƯỚC LEYTON&lt;/strong&gt;  Có 3 loại vân hotpress ( bìa xám),  coldpress( bìa xanh), rough (bìa đen)&lt;/p&gt;&lt;p&gt;- Độ dày: 300gsm và làm từ 100% cotton&lt;/p&gt;&lt;p&gt;- Tệp 20 tờ phủ keo 3 gáy (Sổ phủ keo 3 gáy để không cần sử dụng băng dính cố định mỗi lần vẽ, có thể sử dụng bằng cách sau khi vẽ xong mới tách tranh ra khỏi sổ)&lt;/p&gt;&lt;p&gt;- Gồm khổ: A5/A4/A3 lỡ&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Giấy có độ sần nhẹ, không kỵ tẩy.&lt;/p&gt;&lt;p&gt;- Chất giấy 300gsm dày dặn, có độ bám màu chuẩn, và loang màu nước tốt. &lt;/p&gt;&lt;p&gt;- Có thể sử dụng nhiều chất liệu màu trên giấy như màu nước, màu dạ, gouche,...&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Sử dụng dao dọc giấy hoặc dụng cụ tách giấy tách ở khe giấy chỗ mũi tên chỉ vào. Có thể sử dụng trực tiếp trên sổ hoặc xé từng tờ để vẽ.&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Bảo quản nơi khô ráo thoáng mát&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
-        </is>
-      </c>
+          <t>Giay-ve-ky-thuat-200gsm-tep-5-to</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Giấy vẽ màu nước Baohong 100% cotton 20 tờ</t>
+          <t>Giay-mau-nuoc-100%-cotton-LEYTON-300gsm-tui-10-to</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.18%;"&gt;&lt;colgroup&gt;&lt;col style="width:15.42%;"/&gt;&lt;col style="width:84.58%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Tên Sản Phẩm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Giấy vẽ màu nước Baohong 100% cotton 20 tờ&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;i&gt;&lt;span&gt;&lt;strong&gt;&lt;u&gt;Baohong&lt;/u&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Baohong là thương hiệu giấy vẽ màu nước cao cấp đến từ Trung Quốc và được nhiều hoạ sĩ cũng như học sinh, sinh viên mỹ thuật tại Trung Quốc tin dùng&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;Trung Quốc&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Thành phần: 100% cotton&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Định lượng: 300gsm&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Màu sắc: Trắng kem&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Số tờ: 20 tờ&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Kích thước: A5/A4/A3 lỡ&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Vân giấy: &lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;+ Vân hotpress (bìa đỏ cam)&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;+ Vân coldpress (bìa xanh)&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Thiết kế: Sổ dạng pad có phủ keo 3 gáy ( &lt;/span&gt;&lt;span style="color:rgb(68,68,68);"&gt;&lt;span&gt;Sổ phủ keo 3 gáy để không cần sử dụng băng dính cố định mỗi lần vẽ, có thể sử dụng bằng cách sau khi vẽ xong mới tách tranh ra khỏi sổ)&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Giấy có độ sần nhẹ, độ loang tốt và độ bám màu cao&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Chất giấy dày 300gsm phù hợp vẽ nhiều lớp màu nước, phù hợp với nhiều thể loại tranh&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Ngoài màu nước giấy Baohong có thể sử dụng cả màu dạ, màu gouache, màu acrylic&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- &lt;/span&gt;&lt;span style="color:rgb(68,68,68);"&gt;Sử dụng dao dọc giấy hoặc dụng cụ tách giấy tách ở khe giấy chỗ mũi tên chỉ vào. Có thể sử dụng trực tiếp trên sổ hoặc xé từng tờ để vẽ.&lt;/span&gt;&lt;/p&gt;&lt;p&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt; &lt;/p&gt;&lt;p&gt;&lt;span&gt;- Bảo quản nơi khô ráo, tháo mát&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+          <t>Giấy màu nước 100% cotton LEYTON 300gsm túi 10 tờ</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.18%;"&gt;&lt;colgroup&gt;&lt;col style="width:17.36%;"/&gt;&lt;col style="width:82.64%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;i&gt;&lt;strong&gt;&lt;u&gt;Leyton&lt;/u&gt;&lt;/strong&gt;&lt;/i&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Trung Quốc&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- &lt;strong&gt;GIẤY VẼ MÀU NƯỚC LEYTON&lt;/strong&gt;  Có 3 loại vân hotpress ( bìa xám),  coldpress( bìa xanh),&lt;/p&gt;&lt;p&gt;- Độ dày: 300gsm và làm từ 100% cotton&lt;/p&gt;&lt;p&gt;- Túi 10 tờ &lt;/p&gt;&lt;p&gt;- Gồm khổ: A5/A4/A3 lỡ&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Giấy có độ sần nhẹ, không kỵ tẩy.&lt;/p&gt;&lt;p&gt;- Chất giấy 300gsm dày dặn, có độ bám màu chuẩn, và loang màu nước tốt. &lt;/p&gt;&lt;p&gt;- Có thể sử dụng nhiều chất liệu màu trên giấy như màu nước, màu dạ, gouche,...&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Sử dụng dao dọc giấy hoặc dụng cụ tách giấy tách ở khe giấy chỗ mũi tên chỉ vào. Có thể sử dụng trực tiếp trên sổ hoặc xé từng tờ để vẽ.&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Bảo quản nơi khô ráo thoáng mát&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Coldpressed 135*195 (A5 lỡ)</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://lostore.vn/sites/default/files/hvnh_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Giấy chuyên vẽ chì, marker 250gsm tệp 10 tờ</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.26%;"&gt;&lt;colgroup&gt;&lt;col style="width:18.01%;"/&gt;&lt;col style="width:81.99%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;Giấy chuyên vẽ chì, marker 250gsm tệp 10 tờ&lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;- Định lượng: 250gsm&lt;/p&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;- Vân giấy: Vân mịn &lt;/p&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;- Màu sắc: Trắng&lt;/p&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;- Kích thước: A5, A4 chuẩn&lt;/p&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;- Đóng gói: 10 tờ/bịch.&lt;/p&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;- Chức năng: Vẽ chì, màu chì, màu dạ, bút đi nét&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;-  Sản phẩm thường được dùng để vẽ kỹ thuật hoặc vẽ màu chì, màu dạ, chân dung&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Sử dụng trực tiếp&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
-        </is>
-      </c>
+          <t>Giay-mau-nuoc-100%-cotton-LEYTON-300gsm-tui-10-to</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Coldpressed 195*270 (A4 lỡ)</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Giấy vẽ Happy Pittura 250gsm 10 tờ</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>&lt;table class="ck-table-resized"&gt;&lt;colgroup&gt;&lt;col style="width:15.62%;"/&gt;&lt;col style="width:84.38%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên Sản Phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;Giấy vẽ Happy Pittura 250gsm 10 tờ&lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Happy&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Việt Nam&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span style="color:rgb(0,0,0);"&gt;- Định lượng giấy: 250gsm&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color:rgb(0,0,0);"&gt;- Số tờ: 10&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color:rgb(0,0,0);"&gt;- Vân: Sần có phủ lớp tráng keo&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span style="color:rgb(0,0,0);"&gt;- Giấy vẽ màu nước Happy giá rẻ dành cho các bạn mới bắt đầu học vẽ&lt;/span&gt;&lt;/p&gt;&lt;p&gt;- Giấy có lớp phủ tráng keo nhẹ phù hợp với những bạn dùng ít nước, các bạn dùng nhiều nước có thể tham khảo qua các dòng 50-55% cotton&lt;/p&gt;&lt;p&gt;- Giấy có thể vẽ màu dạ, màu gouache, màu acrylic&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Sử dụng trực tiếp&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Bảo quản nơi khô ráo, tháo mát&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
-        </is>
-      </c>
+          <t>Giay-mau-nuoc-100%-cotton-LEYTON-300gsm-tui-10-to</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Coldpressed 270*390 (A3 lỡ)</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Giấy bìa màu Arto CAMPAP 180gsm 10 tờ - A4</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.18%;"&gt;&lt;colgroup&gt;&lt;col style="width:14.44%;"/&gt;&lt;col style="width:85.56%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên Sản Phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;Giấy bìa màu Arto CAMPAP 180gsm 10 tờ - A4&lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Campap&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Malaysia&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Size: A4 (21x29.7cm)&lt;/p&gt;&lt;p&gt;- Định lượng: 180gsm&lt;/p&gt;&lt;p&gt;- Số tờ: 10 tờ&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Giấy bìa màu với bảng màu đa dạng, đầy đủ thích hợp để làm đồ thủ công, handmade&lt;/p&gt;&lt;p&gt;- Giấy bìa màu cũng có thể sử dụng để vẽ tranh màu chì, màu gouache, acrylic&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Dùng trực tiếp&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Để nơi khô ráo, thoáng mát&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
-        </is>
-      </c>
+          <t>Giay-mau-nuoc-100%-cotton-LEYTON-300gsm-tui-10-to</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Hotpressed 135*195 (A5 lỡ)</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sổ Canson Creative Pad - 160gsm 30 tờ</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.18%;"&gt;&lt;colgroup&gt;&lt;col style="width:16.12%;"/&gt;&lt;col style="width:83.88%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Sổ Canson Creative Pad - 160gsm 30 tờ&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;i&gt;&lt;span&gt;&lt;strong&gt;&lt;u&gt;Canson&lt;/u&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Canson là thương hiệu giấy mỹ thuật nổi tiếng khắp thế giới và được nhiều họa sĩ tin dùng&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;Canson tại Trung Quốc&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Định lượng giấy: 160gsm&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Số lượng: 30 tờ/sổ&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Kích thước: Khổ A4 lỡ và khổ A5 lỡ&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Vân giấy: Sần nhẹ&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- &lt;strong&gt;Canson Creative Pad 160gsm 30 tờ&lt;/strong&gt; có chất giấy màu kem nhẹ, hơi sần, thích hợp để vẽ chì, màu chì, phấn tiên, sáp dầu&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Giấy sử dụng được 2 mặt&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Giấy có độ bám màu cao&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;- Sử dụng trực tiếp&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
-        </is>
-      </c>
+          <t>Giay-mau-nuoc-100%-cotton-LEYTON-300gsm-tui-10-to</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Hotpressed 195*270 túi (A4 lỡ)</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Bảng vải Holic Canvas</t>
+          <t>Giay-ve-truyen-tranh-Holbein-Maxon</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>&lt;table border="1" cellpadding="5" cellspacing="0" class="ck-table-resized" style="border-collapse:collapse;width:99.2%;"&gt;&lt;colgroup&gt;&lt;col style="width:12.46%;"/&gt;&lt;col style="width:87.54%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Tên sản phẩm&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;strong&gt; BẢNG VẢI CANVAS HOLIC PRO&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color:rgb(255,0,0);"&gt;&lt;strong&gt;(Sản phẩm có bán lẻ tại Cửa hàng offline và nhận ship lẻ trong nội thành Hà Nội)&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Thương&lt;strong&gt; &lt;/strong&gt;Hiệu&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;strong&gt;HOLIC&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Với mong muốn có thể cung cấp các dòng họa phầm chất lượng cao và giá thành phải chăng, đối với các dòng sản phẩm chưa đủ điều kiện gia công và sản xuất tại Việt Nam, Nabii đã quyết định hợp tác với các đối tác nước ngoài để ra mắt thương hiệu mới với tên Holic. Các sản phẩm mang thương hiệu Holic sẽ được thiết kế cũng như sản xuất theo công thức độc quyền của phòng phát triển sản phẩm thuộc Công ty Nabii.&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Xuất Xứ&lt;/td&gt;&lt;td&gt;Trung Quốc&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Đặc Điểm&lt;/td&gt;&lt;td&gt;&lt;p&gt;- &lt;strong&gt;HOLIC CANVAS PRO&lt;/strong&gt; là sản phẩm canvas chất lượng cao đến từ thương hiệu Holic&lt;/p&gt;&lt;p&gt;- &lt;strong&gt;Holic Canvas Pro&lt;/strong&gt; có sợi vải được làm từ 100% cotton tự nhiên, định lượng 280gsm, được quét sẵn gesso 03 lớp giúp cho bề mặt canvas cứng cáp, khả năng bám màu cao.&lt;/p&gt;&lt;p&gt;- Khung viền &lt;strong&gt;Holic Canvas Pro&lt;/strong&gt; được làm bằng chất liệu gỗ thông nguyên khối chắc chắn. &lt;/p&gt;&lt;p&gt;- Đa dạng kích thước: &lt;/p&gt;&lt;p&gt;&lt;i&gt;&lt;strong&gt;+ 20x20: 35.000 VND/bảng&lt;/strong&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt;&lt;strong&gt;+ 30x30: 48.000 VND/bảng&lt;/strong&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt;&lt;strong&gt;+ 30x40: 55.000 VND/bảng&lt;/strong&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt;&lt;strong&gt;+ 40x40: 62.000 VND/bảng&lt;/strong&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt;&lt;strong&gt;+40x60: 95.000 VND/bảng&lt;/strong&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt;&lt;strong&gt;+ 60x90: 185.000 VND/bảng&lt;/strong&gt;&lt;/i&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Hướng Dẫn Sử Dụng&lt;/td&gt;&lt;td&gt;&lt;p&gt;- &lt;span style="color:rgba(0,0,0,0.8);"&gt;Sản phẩm có trọng lượng nhẹ, kích thước gọn, dễ dàng mang theo khi vẽ ngoài trời, đi học&lt;/span&gt;&lt;/p&gt;&lt;p&gt;- Thích hợp với tranh acrylic, tranh sơn dầu&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Bảo Quản&lt;/td&gt;&lt;td&gt;&lt;span style="color:rgba(0,0,0,0.8);"&gt;- Bảo quản ở nơi khô thoáng, tránh ánh nắng trực tiếp hoặc không khí ẩm ướt.&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+          <t>Giấy vẽ truyện tranh Holbein Maxon</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized"&gt;&lt;colgroup&gt;&lt;col style="width:50%;"/&gt;&lt;col style="width:50%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên Sản Phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;Giấy vẽ truyện tranh Holbein Maxon&lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;i&gt;&lt;strong&gt;&lt;u&gt;Maxon thuộc Holbein&lt;/u&gt;&lt;/strong&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;Maxon là thương hiệu chuyên về các sản phẩm vẽ manga thuộc hãng Holbein. Holbein có trụ sở chính tại Osaka và được thành lập vào năm 1930 với tên của một hoạ sĩ nổi tiếng Hans Holbein. Từ thời điểm đó, sự hiện diện của Holbein đã có ý nghĩa không chỉ ở Đông Nam Á, mà còn ở Bắc Mỹ, Úc và Châu Âu.&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Nhật Bản&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Số tờ: 40 tờ&lt;/p&gt;&lt;p&gt;- Khổ chuẩn&lt;/p&gt;&lt;p&gt;- Định lượng:&lt;/p&gt;&lt;p&gt;+ Bìa hồng: 110gsm&lt;/p&gt;&lt;p&gt;+ Bìa xanh: 135gsm&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Giấy vẽ truyện tranh Maxon là dòng giấy chuyên dụng để vẽ manga. Giấy mịn, có kẻ sẵn khung tranh ở viền để vẽ truyện.&lt;/p&gt;&lt;p&gt;- Giấy phù hợp để vẽ bút sắt, bút kim. Bề mặt giấy giúp quá trình vẽ được mượt mà, ngòi bút vẽ lâu mòn hơn. &lt;/p&gt;&lt;p&gt;- Giấy dai, chống sờn&lt;/p&gt;&lt;p&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;-  Bảo quản nơi khô ráo, tháo mát&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Bìa hồng 110gsm 40 tờ A4 (21x29.7cm)</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://lostore.vn/sites/default/files/hvnh_1.jpg</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Bảng vải canvas mini - kèm giá đỡ</t>
+          <t>Giay-ve-truyen-tranh-Holbein-Maxon</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Bìa hồng 110gsm 40 tờ B4 (25.7x36.4cm)</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Bảng vải Mini Canvas Mont Marte</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.2%;"&gt;&lt;colgroup&gt;&lt;col style="width:17.16%;"/&gt;&lt;col style="width:82.84%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên Sản Phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;Bảng vải Mini Canvas Mont Marte&lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;i&gt;&lt;strong&gt;&lt;u&gt;Mont Marte&lt;/u&gt;&lt;/strong&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;Mont Marte là thương hiệu hoạ phẩm bình dân đến từ Úc, được nhiều các bạn học sinh, sinh viên mỹ thuật quốc tế tin dùng&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Mont Marte Trung Quốc (Dưới sự quản lý của Mont Marte Úc)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Bảng vải mini có kích thước nhỏ xinh, phù hợp cho các bạn mới tập làm quen với chất liệu&lt;/p&gt;&lt;p&gt;- Bảng vải được sử dụng với màu acrylic, gouache. Sau khi vẽ xong có thể sử dụng để trang trí linh hoạt.&lt;/p&gt;&lt;p&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Sử dụng trực tiếp&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Bảo quản nơi khô ráo, tháo mát&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
-        </is>
-      </c>
+          <t>Giay-ve-truyen-tranh-Holbein-Maxon</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Bìa xanh 135gsm 40 tờ A4 (21x29.7cm)</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Tranh vẽ sẵn tô màu nước, gouache, poster</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized"&gt;&lt;colgroup&gt;&lt;col style="width:21.27%;"/&gt;&lt;col style="width:78.73%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;Tranh vẽ sẵn tô màu nước, gouache, poster&lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;i&gt;&lt;strong&gt;&lt;u&gt;Lobeo Art&lt;/u&gt;&lt;/strong&gt;&lt;/i&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Việt Nam&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Set tranh tô màu nước bao gồm: &lt;/p&gt;&lt;p&gt;+ 3 lineart A5 lỡ in mực đỏ mờ (giấy Nabii Aqua Fat)&lt;/p&gt;&lt;p&gt;- Tranh vẽ thuộc bản quyền của Lobeo Studio&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Sản phẩm được in trên giấy chuyên dụng để vẽ màu nước&lt;/p&gt;&lt;p&gt;- Sản phẩm thích hợp cho các bạn mới tập vẽ luyện tô màu nước hoặc làm quà tặng cho bạn bè, người thân&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Sử dụng trực tiếp&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Bảo quản nơi khô ráo thoáng mát&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
-        </is>
-      </c>
+          <t>Giay-ve-truyen-tranh-Holbein-Maxon</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Bìa xanh 135gsm 40 tờ B4 (25.7x36.4cm)</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Bộ 4 tranh tô màu nước Lobeo Collection A4 100% cotton (tặng 1 tranh đặc biệt)</t>
+          <t>So-Leyton-300gsm-20-to</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized"&gt;&lt;colgroup&gt;&lt;col style="width:21.27%;"/&gt;&lt;col style="width:78.73%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;Bộ 4 tranh tô màu nước Lobeo Collection A4 100% cotton (tặng 1 tranh đặc biệt)&lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;i&gt;&lt;strong&gt;&lt;u&gt;Lobeo Art&lt;/u&gt;&lt;/strong&gt;&lt;/i&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Việt Nam&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Set tranh tô màu nước Lobeo Collection bao gồm:&lt;/p&gt;&lt;p&gt;+ 4 tranh mẫu&lt;/p&gt;&lt;p&gt;+ 4 tranh mẫu cố định khổ A4 lỡ + 1 tranh special (Được in trên giấy 100% cotton)&lt;/p&gt;&lt;p&gt;- Tranh vẽ thuộc bản quyền của Lobeo Studio&lt;/p&gt;&lt;p&gt;- Artist: Lobeo&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Sản phẩm được in trên giấy chuyên dụng để vẽ màu nước&lt;/p&gt;&lt;p&gt;- Sản phẩm thích hợp cho các bạn mới tập vẽ luyện tô màu nước hoặc làm quà tặng cho bạn bè, người thân&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Sử dụng trực tiếp&lt;/p&gt;&lt;p&gt;- Quá trình tô tranh mẫu:&lt;/p&gt;&lt;p&gt;+ Tranh Stuffed Animals: &lt;a href="https://youtu.be/SnMzgS5sCDY" rel="noreferrer noopener" target="_blank"&gt;&lt;i&gt;&lt;u&gt;Link&lt;/u&gt;&lt;/i&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;+ Tranh Laundry Day: &lt;a href="https://www.youtube.com/watch?v=Oo3Ik0dgzfI&amp;amp;t=465s" rel="noreferrer noopener" target="_blank"&gt;&lt;i&gt;&lt;u&gt;Link&lt;/u&gt;&lt;/i&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;+ Tranh Cozy Day: &lt;a href="https://www.youtube.com/watch?v=pUDSddFyFZQ&amp;amp;t=15s" rel="noreferrer noopener" target="_blank"&gt;&lt;i&gt;&lt;u&gt;Link&lt;/u&gt;&lt;/i&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;+ Tranh Pumpkin Shop: Updating (Bản tô màu dạ: &lt;a href="https://www.youtube.com/watch?v=poPbs3cCSb8" rel="noreferrer noopener" target="_blank"&gt;&lt;i&gt;&lt;u&gt;Link&lt;/u&gt;&lt;/i&gt;&lt;/a&gt; )&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Bảo quản nơi khô ráo thoáng mát&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+          <t>Sổ Leyton 300gsm 20 tờ</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.18%;"&gt;&lt;colgroup&gt;&lt;col style="width:18.06%;"/&gt;&lt;col style="width:81.94%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;i&gt;&lt;strong&gt;&lt;u&gt;Leyton&lt;/u&gt;&lt;/strong&gt;&lt;/i&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Trung Quốc&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- &lt;strong&gt;GIẤY VẼ MÀU NƯỚC LEYTON&lt;/strong&gt;  Có 3 loại vân hotpress ( bìa xám),  coldpress( bìa xanh), rough (bìa đen)&lt;/p&gt;&lt;p&gt;- Độ dày: 300gsm và làm từ 100% cotton&lt;/p&gt;&lt;p&gt;- Tệp 20 tờ phủ keo 3 gáy (Sổ phủ keo 3 gáy để không cần sử dụng băng dính cố định mỗi lần vẽ, có thể sử dụng bằng cách sau khi vẽ xong mới tách tranh ra khỏi sổ)&lt;/p&gt;&lt;p&gt;- Gồm khổ: A5/A4/A3 lỡ&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Giấy có độ sần nhẹ, không kỵ tẩy.&lt;/p&gt;&lt;p&gt;- Chất giấy 300gsm dày dặn, có độ bám màu chuẩn, và loang màu nước tốt. &lt;/p&gt;&lt;p&gt;- Có thể sử dụng nhiều chất liệu màu trên giấy như màu nước, màu dạ, gouche,...&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Sử dụng dao dọc giấy hoặc dụng cụ tách giấy tách ở khe giấy chỗ mũi tên chỉ vào. Có thể sử dụng trực tiếp trên sổ hoặc xé từng tờ để vẽ.&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Bảo quản nơi khô ráo thoáng mát&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>coldpress A5 lỡ - bìa xanh</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>https://pos.nvncdn.com/6dc534-15668/ps/content/20230314_t8QXgjspIWSt.jpg</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Set tranh tô màu nước Lobeo Lineart Bé Bơ - 2 mẫu 4 tranh khổ A6</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized"&gt;&lt;colgroup&gt;&lt;col style="width:21.27%;"/&gt;&lt;col style="width:78.73%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;Set tranh tô màu nước Lobeo Lineart Bé Bơ - 2 mẫu 4 tranh khổ A6&lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;i&gt;&lt;strong&gt;&lt;u&gt;Lobeo Art&lt;/u&gt;&lt;/strong&gt;&lt;/i&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Việt Nam&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Set tranh tô màu nước Lobeo Lineart Bé Bơ bao gồm:&lt;/p&gt;&lt;p&gt;+ 2 postcard tranh mẫu&lt;/p&gt;&lt;p&gt;+ 4 tranh lineart (mỗi mẫu 2 tranh) kích thước A6 lỡ để tập tô (nếu tô hỏng chúng ta vẫn có tranh dự phòng nè!!)&lt;/p&gt;&lt;p&gt;- Tranh vẽ thuộc bản quyền của Lobeo Studio&lt;/p&gt;&lt;p&gt;- Artist: Lobeo&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Sản phẩm được in trên giấy chuyên dụng để vẽ màu nước&lt;/p&gt;&lt;p&gt;- Sản phẩm thích hợp cho các bạn mới tập vẽ luyện tô màu nước hoặc làm quà tặng cho bạn bè, người thân&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Sử dụng trực tiếp&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Bảo quản nơi khô ráo thoáng mát&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
-        </is>
-      </c>
+          <t>So-Leyton-300gsm-20-to</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>coldpress A4 lỡ - bìa xanh</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Bộ 3 tranh chibi tô màu nước Good Morning</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.17%;"&gt;&lt;colgroup&gt;&lt;col style="width:19.24%;"/&gt;&lt;col style="width:80.76%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;Bộ 3 tranh chibi tô màu nước Good Morning (Lineart)&lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;i&gt;&lt;strong&gt;&lt;u&gt;LobeoxZumeo&lt;/u&gt;&lt;/strong&gt;&lt;/i&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Việt Nam&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- &lt;strong&gt;Bộ 3 tranh chibi tô màu nước Good Morning (Lineart)&lt;/strong&gt; được bọc trong bao bì kraft và 1 lớp bóng kính chống bụi bẩn&lt;/p&gt;&lt;p&gt;- Bộ sản phẩm gồm 3 tranh chibi vẽ sẵn được in trên giấy Nabii Aqua Fat 300gsm, kích thước 13.5x19cm&lt;/p&gt;&lt;p&gt;- Tranh vẽ thuộc bản quyền của Lobeo Studio&lt;/p&gt;&lt;p&gt;- Artist: Zumeo&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Sản phẩm được in trên giấy chuyên dụng để vẽ màu nước&lt;/p&gt;&lt;p&gt;- Sản phẩm thích hợp cho các bạn mới tập vẽ luyện tô màu nước hoặc làm quà tặng cho bạn bè, người thân&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Sử dụng trực tiếp&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Bảo quản nơi khô ráo thoáng mát&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
-        </is>
-      </c>
+          <t>So-Leyton-300gsm-20-to</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>coldpressed A3 lỡ - bìa xanh</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sổ vẽ màu dạ Ohuhu 200gsm 78 tờ</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:98.2%;"&gt;&lt;colgroup&gt;&lt;col style="width:16%;"/&gt;&lt;col style="width:84%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Sổ vẽ màu dạ Ohuhu 200gsm 78 tờ&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;i&gt;&lt;span&gt;&lt;strong&gt;&lt;u&gt;Ohuhu&lt;/u&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/i&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;Thương hiệu Mỹ sản xuất tại Trung Quốc&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Định lượng: 200gsm&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Màu trắng, vân nhẹ&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Bìa sổ cứng, giả da màu đen (các size nhỏ kèm dây buộc đặc biệt bất kì)&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Sổ vẽ màu dạ Ohuhu 200gsm 78 tờ là sản phẩm chuyên sử dụng cho màu dạ, được phát triển bởi thương hiệu màu dạ Ohuhu&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Sổ có bìa cứng giả da chắc chắn, basic. Giấy có độ dày 200gsm, gáy khâu với số tờ lên đến 78 tờ&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Giấy phù có thể sử dụng với màu marker và màu chì &lt;/span&gt;(chú ý khi sử dụng với màu dạ sổ vẫn có thể thấm sang mặt sau, các bạn có thể sử dụng thêm 1 tờ nháp để lót bên dưới, ...)&lt;/p&gt;&lt;p&gt;- Giấy có độ kị tẩy ở mức vừa phải&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
-        </is>
-      </c>
+          <t>So-Leyton-300gsm-20-to</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>hotpress A5 lỡ - bìa xám</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sổ vẽ màu nước, màu gouache Lobeo Dream Sketchbook 300gsm</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.01%;"&gt;&lt;colgroup&gt;&lt;col style="width:16%;"/&gt;&lt;col style="width:84%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;SỔ VẼ MÀU NƯỚC LOBEO DREAM SKETCHBOOK&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;i&gt;&lt;span&gt;&lt;strong&gt;&lt;u&gt;LOBEO&lt;/u&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Lobeo là thương hiệu độc quyền được phát triển bởi đội ngũ Lobeo Art.&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;Việt Nam&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Định lượng: 300gsm&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Thành phần cotton: 30%&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Vân giấy sần nhẹ, màu kem&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Bìa sổ cứng, giả da màu đen (các size nhỏ kèm dây buộc đặc biệt bất kì)&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Sổ LOBEO DREAM SKETCHBOOK được sử dụng để phác thảo màu nước, gouache, acrylic&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Sổ có bìa cứng giả da chắc chắn, basic. Giấy có độ dày 300gsm dày dặn, giúp tối ưu khả năng sử dụng nhiều mặt của sổ.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Giấy phù có thể sử dụng với màu nước, màu gouache, poster, acrylic, màu marker &lt;/span&gt;(chú ý khi sử dụng với màu dạ sổ vẫn có thể thấm sang mặt sau, các bạn có thể sử dụng thêm 1 tờ nháp để lót bên dưới, ...)&lt;/p&gt;&lt;p&gt;- Giấy có độ kị tẩy ở mức vừa phải. đủ để không ảnh hưởng đến khả năng sử dụng màu nước, do đó nếu bạn muốn sử dụng với màu nước ở trạng thái tốt nhất thì nên đánh chì dùng lực vừa phải. &lt;/p&gt;&lt;p&gt;&lt;span&gt;- Sản phẩm phù hợp với các bạn học sinh, sinh viên hoặc các hoạ sĩ có nhu cầu về một cuốn sổ giá hợp lý để phác thảo màu nước và bảo quản ý tưởng của mình một cách trọn vẹn nhất&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span style="color:rgb(0,26,51);font-size:15px;"&gt;&lt;i&gt;* Chú ý: Dòng sổ Dream Sketchbook có thành phần 30% cotton, phủ hợp để phác thảo màu nước trong quá trình luyện tập hơn việc hoàn thành một tác phẩm hoàn thiện. Nếu quý khách có nhu cầu sử dụng hoàn thành tác phẩm chất lượng cao thì nên sử dụng giấy màu nước chuyên dụng 100% cotton.&lt;/i&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
-        </is>
-      </c>
+          <t>So-Leyton-300gsm-20-to</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>hotpress A4 lỡ - bìa xám</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sổ vẽ Lobeo Idea Sketchbook 50 tờ 200gsm</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.2%;"&gt;&lt;colgroup&gt;&lt;col style="width:12.08%;"/&gt;&lt;col style="width:87.92%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;SỔ VẼ LOBEO IDEA SKETCHBOOK&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;i&gt;&lt;span&gt;&lt;strong&gt;&lt;u&gt;LOBEO&lt;/u&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Lobeo là thương hiệu độc quyền được phát triển bởi đội ngũ Lobeo Art.&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;Việt Nam&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Số tờ: 50 tờ (100 trang)&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Định lượng: 200gsm&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Vân giấy mịn, màu trắng&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Bìa sổ cứng, giả da màu đen&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Kích thước: A4, A5 chuẩn&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Sổ LOBEO IDEA SKETCHBOOK được sử dụng để phác thảo, sketch trong quá trình học tập, tìm kiếm, phát triển ý tưởng&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Sổ có 50 trang với thiết kế bìa cứng giả da chắc chắn, basic phù hợp với nhu cầu lưu trữ ý tưởng nhiều và bảo quản trong thời gian dài. Giấy có độ dày 200gsm dày dặn, giúp tối ưu khả năng sử dụng nhiều mặt của sổ &lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Giấy phù có thể sử dụng với chì, màu chì, màu dạ, bút đi nét, bút bi, bút acrylic, bút sơn, bút gốc nước, bút gel,... Giấy có độ dày 200gsm dày dặn, giúp tối ưu khả năng sử dụng nhiều mặt của sổ &lt;/span&gt;(chú ý khi sử dụng với màu dạ sổ vẫn có thể thấm sang mặt sau, các bạn có thể sử dụng thêm 1 tờ nháp để lót bên dưới, ...)&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Sản phẩm phù hợp với các bạn học sinh, sinh viên hoặc các hoạ sĩ có nhu cầu về một cuốn sổ giá hợp lý để phác thảo, nghiên cứu, phát triển và lưu trữ ý tưởng, ký hoạ, làm bản name truyện tranh, thiết kế thời trang, ...&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span style="color:rgb(255,0,0);"&gt;&lt;i&gt;&lt;span&gt;&lt;strong&gt;- CHÚ Ý: SỔ KHÔNG SỬ DỤNG ĐƯỢC VỚI MÀU NƯỚC&lt;/strong&gt;&lt;/span&gt;&lt;/i&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color:rgb(0,26,51);font-size:15px;"&gt;&lt;i&gt;* Dòng sổ Idea Sketchbook này là dòng giấy mịn chuyên chì, màu chì, màu dạ và kỹ thuật ký hoạ, tăng độ dai khi tẩy. Nên khi sử dụng với bút đi nét sẽ phù hợp với các nét đưa nhanh và dứt khoát, nếu đi nét chỉnh chu và chậm sẽ dễ xuất hiện tình trạng lem mực.&lt;/i&gt;&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
-        </is>
-      </c>
+          <t>So-Leyton-300gsm-20-to</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>hotpress A3 lỡ - bìa xám</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Giấy vẽ màu nước Nabii Aqua Fat 300gsm - Newbie Set</t>
+          <t>Giay-ve-mau-nuoc-Baohong-100%-cotton-20-to</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized"&gt;&lt;colgroup&gt;&lt;col style="width:14.43%;"/&gt;&lt;col style="width:85.57%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;GIẤY VẼ MÀU NƯỚC NABII AQUA FAT - NEWBIE SET&lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;i&gt;&lt;strong&gt;&lt;u&gt;Nabii&lt;/u&gt;&lt;/strong&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;Nabii là thương hiệu giấy chuyên nghiệp đầu tiên tại Việt Nam với nhiều sản phẩm bán chạy trên thị trường bởi chất lượng và giá thành cạnh tranh &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Việt Nam&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Định lượng giấy: 300gsm&lt;/p&gt;&lt;p&gt;- Số lượng: 08 tờ/tệp&lt;/p&gt;&lt;p&gt;- Kích thước: khổ A6 lỡ (9.5x13.5cm)&lt;/p&gt;&lt;p&gt;- Thành phần: 55% cotton&lt;/p&gt;&lt;p&gt;- Vân giấy: Colpress&lt;/p&gt;&lt;p&gt;- Có 3 phiên bản bìa màu pastel: hồng, tím lavender và xanh dương&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;-&lt;strong&gt; GIẤY VẼ MÀU NƯỚC NABII AQUA FAT&lt;/strong&gt; - &lt;strong&gt;NEWBIE SET &lt;/strong&gt;có chất giấy dày dặn, có độ loang tốt thích hợp với nhiều kỹ thuật, chất lượng không đổi so với bản thường&lt;/p&gt;&lt;p&gt;- Giấy sử dụng được cả 2 mặt&lt;/p&gt;&lt;p&gt;- Ngoài vẽ màu nước &lt;strong&gt;GIẤY VẼ MÀU NƯỚC NABII AQUA FAT&lt;/strong&gt; - &lt;strong&gt;NEWBIE SET&lt;/strong&gt; cũng có thể sử dụng với màu dạ, màu poster, acrylic&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Sử dụng trực tiếp&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+          <t>Giấy vẽ màu nước Baohong 100% cotton 20 tờ</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.18%;"&gt;&lt;colgroup&gt;&lt;col style="width:15.42%;"/&gt;&lt;col style="width:84.58%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Tên Sản Phẩm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Giấy vẽ màu nước Baohong 100% cotton 20 tờ&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;i&gt;&lt;span&gt;&lt;strong&gt;&lt;u&gt;Baohong&lt;/u&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Baohong là thương hiệu giấy vẽ màu nước cao cấp đến từ Trung Quốc và được nhiều hoạ sĩ cũng như học sinh, sinh viên mỹ thuật tại Trung Quốc tin dùng&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;Trung Quốc&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Thành phần: 100% cotton&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Định lượng: 300gsm&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Màu sắc: Trắng kem&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Số tờ: 20 tờ&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Kích thước: A5/A4/A3 lỡ&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Vân giấy: &lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;+ Vân hotpress (bìa đỏ cam)&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;+ Vân coldpress (bìa xanh)&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Thiết kế: Sổ dạng pad có phủ keo 3 gáy ( &lt;/span&gt;&lt;span style="color:rgb(68,68,68);"&gt;&lt;span&gt;Sổ phủ keo 3 gáy để không cần sử dụng băng dính cố định mỗi lần vẽ, có thể sử dụng bằng cách sau khi vẽ xong mới tách tranh ra khỏi sổ)&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Giấy có độ sần nhẹ, độ loang tốt và độ bám màu cao&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Chất giấy dày 300gsm phù hợp vẽ nhiều lớp màu nước, phù hợp với nhiều thể loại tranh&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Ngoài màu nước giấy Baohong có thể sử dụng cả màu dạ, màu gouache, màu acrylic&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- &lt;/span&gt;&lt;span style="color:rgb(68,68,68);"&gt;Sử dụng dao dọc giấy hoặc dụng cụ tách giấy tách ở khe giấy chỗ mũi tên chỉ vào. Có thể sử dụng trực tiếp trên sổ hoặc xé từng tờ để vẽ.&lt;/span&gt;&lt;/p&gt;&lt;p&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt; &lt;/p&gt;&lt;p&gt;&lt;span&gt;- Bảo quản nơi khô ráo, tháo mát&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>180x125mm Coldpress (Bìa xanh)</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>https://pos.nvncdn.com/6dc534-15668/ps/content/20230314_aHp5L3sntVQX.jpg</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sổ Sketchbook Nabii Ima - 160gsm 32 tờ</t>
+          <t>Giay-ve-mau-nuoc-Baohong-100%-cotton-20-to</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>A4 lỡ Coldpress ( Bìa xanh )</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Giấy vẽ màu nước Nabii Aqua Fat 300gsm - tệp 16 tờ</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.2%;"&gt;&lt;colgroup&gt;&lt;col style="width:10.05%;"/&gt;&lt;col style="width:89.95%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;SỔ VẼ MÀU NƯỚC NABII AQUA FAT &lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;i&gt;&lt;strong&gt;&lt;u&gt;Nabii&lt;/u&gt;&lt;/strong&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;Nabii là thương hiệu giấy chuyên nghiệp đầu tiên tại Việt Nam với nhiều sản phẩm bán chạy trên thị trường bởi chất lượng và giá thành cạnh tranh &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Việt Nam&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Định lượng giấy: 300gsm&lt;/p&gt;&lt;p&gt;- Số lượng: 16 tờ/tệp&lt;/p&gt;&lt;p&gt;- Kích thước: Khổ A4 lỡ (19x27cm), khổ A5 lỡ (13.5x19cm), khổ A6 lỡ&lt;/p&gt;&lt;p&gt;- Thành phần: 55% cotton&lt;/p&gt;&lt;p&gt;- Vân giấy: Colpress&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- &lt;strong&gt;GIẤY VẼ&lt;/strong&gt; &lt;strong&gt;MÀU NƯỚC NABII AQUA FAT&lt;/strong&gt; có chất giấy dày dặn, có độ loang tốt thích hợp với nhiều kỹ thuật &lt;/p&gt;&lt;p&gt;- Giấy sử dụng được cả 2 mặt, mặt trước là mặt nhiều vân hơn, có độ loang và lên màu tốt. Mặt sau ít vân hơn phù hợp với những bạn thích bề mặt mịn, dễ đi nét. Mặt sau nhiều keo hơn và loang kém hơn so với mặt nhiều vân. Quý khách có thể lựa chọn bề mặt để sử dụng theo nhu cầu của bản thân.&lt;/p&gt;&lt;p&gt;- Ngoài vẽ màu nước&lt;strong&gt; NABII AQUA FAT&lt;/strong&gt; cũng có thể sử dụng với màu dạ, màu poster, acrylic&lt;/p&gt;&lt;p&gt;- Sản phẩm được đựng trong túi zip chống ẩm cao cấp, tiện lợi khi sử dụng, hạn chế mốc giấy&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Sử dụng trực tiếp&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
-        </is>
-      </c>
+          <t>Giay-ve-mau-nuoc-Baohong-100%-cotton-20-to</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>A3 lỡ Coldpress (Bìa xanh)</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sổ vẽ Nabii Ima Sketchbook gáy khâu 160gsm 50 tờ A5</t>
+          <t>Giay-ve-mau-nuoc-Baohong-100%-cotton-20-to</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>size 21*31cm Coldpress (Bìa xanh)</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sổ vẽ màu nước Nabii Aqua Fat - 300gsm 25 tờ</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized"&gt;&lt;colgroup&gt;&lt;col style="width:21.09%;"/&gt;&lt;col style="width:78.91%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;SỔ VẼ MÀU NƯỚC NABII AQUA FAT &lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;i&gt;&lt;strong&gt;&lt;u&gt;Nabii&lt;/u&gt;&lt;/strong&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;Nabii là thương hiệu giấy chuyên nghiệp đầu tiên tại Việt Nam với nhiều sản phẩm bán chạy trên thị trường bởi chất lượng và giá thành cạnh tranh &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Việt Nam&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Định lượng giấy: 300gsm&lt;/p&gt;&lt;p&gt;- Số lượng: 25 tờ/sổ&lt;/p&gt;&lt;p&gt;- Kích thước: Khổ A4 lỡ (19x27cm) và khổ A5 lỡ (13.5x19cm)&lt;/p&gt;&lt;p&gt;- Thành phần: 55% cotton&lt;/p&gt;&lt;p&gt;- Vân giấy: Coldpress&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- &lt;strong&gt;SỔ VẼ MÀU NƯỚC NABII AQUA FAT&lt;/strong&gt; có chất giấy dày dặn, có độ loang tốt thích hợp với nhiều kỹ thuật &lt;/p&gt;&lt;p&gt;- Giấy sử dụng được cả 2 mặt&lt;/p&gt;&lt;p&gt;- Ngoài vẽ màu nước &lt;strong&gt;SỔ VẼ MÀU NƯỚC NABII AQUA FAT&lt;/strong&gt; cũng có thể sử dụng với màu dạ, màu poster, acrylic&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Sử dụng trực tiếp&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
-        </is>
-      </c>
+          <t>Giay-ve-mau-nuoc-Baohong-100%-cotton-20-to</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>180x125mm Hotpress (Bìa đỏ)</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
+          <t>Giay-ve-mau-nuoc-Baohong-100%-cotton-20-to</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>A4 lỡ Hotpress ( Bìa đỏ )</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Giay-ve-mau-nuoc-Baohong-100%-cotton-20-to</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>A3 lỡ Hotpress (Bìa đỏ)</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Giay-ve-mau-nuoc-Baohong-100%-cotton-20-to</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>size 21*31cm Hotpress (Bìa đỏ)</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Giay-chuyen-ve-chi,-marker-250gsm-tep-10-to</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Giấy chuyên vẽ chì, marker 250gsm tệp 10 tờ</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.26%;"&gt;&lt;colgroup&gt;&lt;col style="width:18.01%;"/&gt;&lt;col style="width:81.99%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;Giấy chuyên vẽ chì, marker 250gsm tệp 10 tờ&lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;- Định lượng: 250gsm&lt;/p&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;- Vân giấy: Vân mịn &lt;/p&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;- Màu sắc: Trắng&lt;/p&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;- Kích thước: A5, A4 chuẩn&lt;/p&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;- Đóng gói: 10 tờ/bịch.&lt;/p&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;- Chức năng: Vẽ chì, màu chì, màu dạ, bút đi nét&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;-  Sản phẩm thường được dùng để vẽ kỹ thuật hoặc vẽ màu chì, màu dạ, chân dung&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Sử dụng trực tiếp&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>https://pos.nvncdn.com/6dc534-15668/ps/content/20230314_aHp5L3sntVQX.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Giay-chuyen-ve-chi,-marker-250gsm-tep-10-to</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Giay-ve-Happy-Pittura-250gsm-10-to</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Giấy vẽ Happy Pittura 250gsm 10 tờ</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>&lt;table class="ck-table-resized"&gt;&lt;colgroup&gt;&lt;col style="width:15.62%;"/&gt;&lt;col style="width:84.38%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên Sản Phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;Giấy vẽ Happy Pittura 250gsm 10 tờ&lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Happy&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Việt Nam&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span style="color:rgb(0,0,0);"&gt;- Định lượng giấy: 250gsm&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color:rgb(0,0,0);"&gt;- Số tờ: 10&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color:rgb(0,0,0);"&gt;- Vân: Sần có phủ lớp tráng keo&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span style="color:rgb(0,0,0);"&gt;- Giấy vẽ màu nước Happy giá rẻ dành cho các bạn mới bắt đầu học vẽ&lt;/span&gt;&lt;/p&gt;&lt;p&gt;- Giấy có lớp phủ tráng keo nhẹ phù hợp với những bạn dùng ít nước, các bạn dùng nhiều nước có thể tham khảo qua các dòng 50-55% cotton&lt;/p&gt;&lt;p&gt;- Giấy có thể vẽ màu dạ, màu gouache, màu acrylic&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Sử dụng trực tiếp&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Bảo quản nơi khô ráo, tháo mát&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>https://pos.nvncdn.com/6dc534-15668/ps/content/20230314_aHp5L3sntVQX.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Giay-ve-Happy-Pittura-250gsm-10-to</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Giay-ve-Happy-Pittura-250gsm-10-to</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>So-Canson-Creative-Pad-160gsm-30-to</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Sổ Canson Creative Pad - 160gsm 30 tờ</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.18%;"&gt;&lt;colgroup&gt;&lt;col style="width:16.12%;"/&gt;&lt;col style="width:83.88%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Sổ Canson Creative Pad - 160gsm 30 tờ&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;i&gt;&lt;span&gt;&lt;strong&gt;&lt;u&gt;Canson&lt;/u&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Canson là thương hiệu giấy mỹ thuật nổi tiếng khắp thế giới và được nhiều họa sĩ tin dùng&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;Canson tại Trung Quốc&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Định lượng giấy: 160gsm&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Số lượng: 30 tờ/sổ&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Kích thước: Khổ A4 lỡ và khổ A5 lỡ&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Vân giấy: Sần nhẹ&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- &lt;strong&gt;Canson Creative Pad 160gsm 30 tờ&lt;/strong&gt; có chất giấy màu kem nhẹ, hơi sần, thích hợp để vẽ chì, màu chì, phấn tiên, sáp dầu&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Giấy sử dụng được 2 mặt&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Giấy có độ bám màu cao&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;- Sử dụng trực tiếp&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>https://pos.nvncdn.com/6dc534-15668/ps/content/20231023_QyZnO6kR.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>So-Canson-Creative-Pad-160gsm-30-to</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>So-Canson-Creative-Pad-160gsm-30-to</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Bang-vai-Holic-Canvas</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Bảng vải Holic Canvas</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>&lt;table border="1" cellpadding="5" cellspacing="0" class="ck-table-resized" style="border-collapse:collapse;width:99.2%;"&gt;&lt;colgroup&gt;&lt;col style="width:12.46%;"/&gt;&lt;col style="width:87.54%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Tên sản phẩm&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;strong&gt; BẢNG VẢI CANVAS HOLIC PRO&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color:rgb(255,0,0);"&gt;&lt;strong&gt;(Sản phẩm có bán lẻ tại Cửa hàng offline và nhận ship lẻ trong nội thành Hà Nội)&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Thương&lt;strong&gt; &lt;/strong&gt;Hiệu&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;strong&gt;HOLIC&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Với mong muốn có thể cung cấp các dòng họa phầm chất lượng cao và giá thành phải chăng, đối với các dòng sản phẩm chưa đủ điều kiện gia công và sản xuất tại Việt Nam, Nabii đã quyết định hợp tác với các đối tác nước ngoài để ra mắt thương hiệu mới với tên Holic. Các sản phẩm mang thương hiệu Holic sẽ được thiết kế cũng như sản xuất theo công thức độc quyền của phòng phát triển sản phẩm thuộc Công ty Nabii.&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Xuất Xứ&lt;/td&gt;&lt;td&gt;Trung Quốc&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Đặc Điểm&lt;/td&gt;&lt;td&gt;&lt;p&gt;- &lt;strong&gt;HOLIC CANVAS PRO&lt;/strong&gt; là sản phẩm canvas chất lượng cao đến từ thương hiệu Holic&lt;/p&gt;&lt;p&gt;- &lt;strong&gt;Holic Canvas Pro&lt;/strong&gt; có sợi vải được làm từ 100% cotton tự nhiên, định lượng 280gsm, được quét sẵn gesso 03 lớp giúp cho bề mặt canvas cứng cáp, khả năng bám màu cao.&lt;/p&gt;&lt;p&gt;- Khung viền &lt;strong&gt;Holic Canvas Pro&lt;/strong&gt; được làm bằng chất liệu gỗ thông nguyên khối chắc chắn. &lt;/p&gt;&lt;p&gt;- Đa dạng kích thước: &lt;/p&gt;&lt;p&gt;&lt;i&gt;&lt;strong&gt;+ 20x20: 35.000 VND/bảng&lt;/strong&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt;&lt;strong&gt;+ 30x30: 48.000 VND/bảng&lt;/strong&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt;&lt;strong&gt;+ 30x40: 55.000 VND/bảng&lt;/strong&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt;&lt;strong&gt;+ 40x40: 62.000 VND/bảng&lt;/strong&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt;&lt;strong&gt;+40x60: 95.000 VND/bảng&lt;/strong&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt;&lt;strong&gt;+ 60x90: 185.000 VND/bảng&lt;/strong&gt;&lt;/i&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Hướng Dẫn Sử Dụng&lt;/td&gt;&lt;td&gt;&lt;p&gt;- &lt;span style="color:rgba(0,0,0,0.8);"&gt;Sản phẩm có trọng lượng nhẹ, kích thước gọn, dễ dàng mang theo khi vẽ ngoài trời, đi học&lt;/span&gt;&lt;/p&gt;&lt;p&gt;- Thích hợp với tranh acrylic, tranh sơn dầu&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Bảo Quản&lt;/td&gt;&lt;td&gt;&lt;span style="color:rgba(0,0,0,0.8);"&gt;- Bảo quản ở nơi khô thoáng, tránh ánh nắng trực tiếp hoặc không khí ẩm ướt.&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>size 20x20cm</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>https://pos.nvncdn.com/6dc534-15668/ps/content/20230314_NrBqUyH0mEsW.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Bang-vai-Holic-Canvas</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>size 30x30cm</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Bang-vai-Holic-Canvas</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>size 30x40cm</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Bang-vai-Holic-Canvas</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>size 40x40cm</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Bang-vai-Holic-Canvas</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>size 40x60cm</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Bang-vai-Holic-Canvas</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>size 60x90cm</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Bang-vai-canvas-mini-kem-gia-do</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Bảng vải canvas mini - kèm giá đỡ</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>10x10cm</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>https://pos.nvncdn.com/6dc534-15668/ps/content/20230314_okOeNgdLMUOM.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Bang-vai-canvas-mini-kem-gia-do</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>10x15cm</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Bang-vai-canvas-mini-kem-gia-do</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>13x18cm</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Bang-vai-canvas-mini-kem-gia-do</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>14x20cm</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Bang-vai-Mini-Canvas-Mont-Marte</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Bảng vải Mini Canvas Mont Marte</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.2%;"&gt;&lt;colgroup&gt;&lt;col style="width:17.16%;"/&gt;&lt;col style="width:82.84%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên Sản Phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;Bảng vải Mini Canvas Mont Marte&lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;i&gt;&lt;strong&gt;&lt;u&gt;Mont Marte&lt;/u&gt;&lt;/strong&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;Mont Marte là thương hiệu hoạ phẩm bình dân đến từ Úc, được nhiều các bạn học sinh, sinh viên mỹ thuật quốc tế tin dùng&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Mont Marte Trung Quốc (Dưới sự quản lý của Mont Marte Úc)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Bảng vải mini có kích thước nhỏ xinh, phù hợp cho các bạn mới tập làm quen với chất liệu&lt;/p&gt;&lt;p&gt;- Bảng vải được sử dụng với màu acrylic, gouache. Sau khi vẽ xong có thể sử dụng để trang trí linh hoạt.&lt;/p&gt;&lt;p&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Sử dụng trực tiếp&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Bảo quản nơi khô ráo, tháo mát&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2 bảng 6x8cm (không kèm giá đỡ)</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>https://pos.nvncdn.com/6dc534-15668/ps/content/20230314_nGqRjwiESNFZ.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Bang-vai-Mini-Canvas-Mont-Marte</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2 bảng 8x10cm (không kèm giá đỡ)</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Tranh-ve-san-to-mau-nuoc,-gouache,-poster</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Tranh vẽ sẵn tô màu nước, gouache, poster</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized"&gt;&lt;colgroup&gt;&lt;col style="width:21.27%;"/&gt;&lt;col style="width:78.73%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;Tranh vẽ sẵn tô màu nước, gouache, poster&lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;i&gt;&lt;strong&gt;&lt;u&gt;Lobeo Art&lt;/u&gt;&lt;/strong&gt;&lt;/i&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Việt Nam&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Set tranh tô màu nước bao gồm: &lt;/p&gt;&lt;p&gt;+ 3 lineart A5 lỡ in mực đỏ mờ (giấy Nabii Aqua Fat)&lt;/p&gt;&lt;p&gt;- Tranh vẽ thuộc bản quyền của Lobeo Studio&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Sản phẩm được in trên giấy chuyên dụng để vẽ màu nước&lt;/p&gt;&lt;p&gt;- Sản phẩm thích hợp cho các bạn mới tập vẽ luyện tô màu nước hoặc làm quà tặng cho bạn bè, người thân&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Sử dụng trực tiếp&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Bảo quản nơi khô ráo thoáng mát&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Fruit Set 1 (3pcs)</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>https://pos.nvncdn.com/6dc534-15668/ps/content/20231205_6T6OsFtd.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>So-ve-mau-da-Ohuhu-200gsm-78-to</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Sổ vẽ màu dạ Ohuhu 200gsm 78 tờ</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:98.2%;"&gt;&lt;colgroup&gt;&lt;col style="width:16%;"/&gt;&lt;col style="width:84%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Sổ vẽ màu dạ Ohuhu 200gsm 78 tờ&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;i&gt;&lt;span&gt;&lt;strong&gt;&lt;u&gt;Ohuhu&lt;/u&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/i&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;Thương hiệu Mỹ sản xuất tại Trung Quốc&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Định lượng: 200gsm&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Màu trắng, vân nhẹ&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Bìa sổ cứng, giả da màu đen (các size nhỏ kèm dây buộc đặc biệt bất kì)&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Sổ vẽ màu dạ Ohuhu 200gsm 78 tờ là sản phẩm chuyên sử dụng cho màu dạ, được phát triển bởi thương hiệu màu dạ Ohuhu&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Sổ có bìa cứng giả da chắc chắn, basic. Giấy có độ dày 200gsm, gáy khâu với số tờ lên đến 78 tờ&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Giấy phù có thể sử dụng với màu marker và màu chì &lt;/span&gt;(chú ý khi sử dụng với màu dạ sổ vẫn có thể thấm sang mặt sau, các bạn có thể sử dụng thêm 1 tờ nháp để lót bên dưới, ...)&lt;/p&gt;&lt;p&gt;- Giấy có độ kị tẩy ở mức vừa phải&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>21x21cm</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>https://pos.nvncdn.com/6dc534-15668/ps/content/20240409_BRV6tbbD.jpg, https://pos.nvncdn.com/6dc534-15668/ps/content/20240409_UxzZVwF6.jpg, https://pos.nvncdn.com/6dc534-15668/ps/content/20240409_8Zx6ImSc.jpg, https://pos.nvncdn.com/6dc534-15668/ps/content/20240409_1X6HDqWL.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>So-ve-mau-da-Ohuhu-200gsm-78-to</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>So-ve-mau-nuoc,-mau-gouache-Lobeo-Dream-Sketchbook-300gsm</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Sổ vẽ màu nước, màu gouache Lobeo Dream Sketchbook 300gsm</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.01%;"&gt;&lt;colgroup&gt;&lt;col style="width:16%;"/&gt;&lt;col style="width:84%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;SỔ VẼ MÀU NƯỚC LOBEO DREAM SKETCHBOOK&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;i&gt;&lt;span&gt;&lt;strong&gt;&lt;u&gt;LOBEO&lt;/u&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Lobeo là thương hiệu độc quyền được phát triển bởi đội ngũ Lobeo Art.&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;Việt Nam&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Định lượng: 300gsm&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Thành phần cotton: 30%&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Vân giấy sần nhẹ, màu kem&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Bìa sổ cứng, giả da màu đen (các size nhỏ kèm dây buộc đặc biệt bất kì)&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Sổ LOBEO DREAM SKETCHBOOK được sử dụng để phác thảo màu nước, gouache, acrylic&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Sổ có bìa cứng giả da chắc chắn, basic. Giấy có độ dày 300gsm dày dặn, giúp tối ưu khả năng sử dụng nhiều mặt của sổ.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Giấy phù có thể sử dụng với màu nước, màu gouache, poster, acrylic, màu marker &lt;/span&gt;(chú ý khi sử dụng với màu dạ sổ vẫn có thể thấm sang mặt sau, các bạn có thể sử dụng thêm 1 tờ nháp để lót bên dưới, ...)&lt;/p&gt;&lt;p&gt;- Giấy có độ kị tẩy ở mức vừa phải. đủ để không ảnh hưởng đến khả năng sử dụng màu nước, do đó nếu bạn muốn sử dụng với màu nước ở trạng thái tốt nhất thì nên đánh chì dùng lực vừa phải. &lt;/p&gt;&lt;p&gt;&lt;span&gt;- Sản phẩm phù hợp với các bạn học sinh, sinh viên hoặc các hoạ sĩ có nhu cầu về một cuốn sổ giá hợp lý để phác thảo màu nước và bảo quản ý tưởng của mình một cách trọn vẹn nhất&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span style="color:rgb(0,26,51);font-size:15px;"&gt;&lt;i&gt;* Chú ý: Dòng sổ Dream Sketchbook có thành phần 30% cotton, phủ hợp để phác thảo màu nước trong quá trình luyện tập hơn việc hoàn thành một tác phẩm hoàn thiện. Nếu quý khách có nhu cầu sử dụng hoàn thành tác phẩm chất lượng cao thì nên sử dụng giấy màu nước chuyên dụng 100% cotton.&lt;/i&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Size A5 lỡ 25 tờ</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>https://pos.nvncdn.com/6dc534-15668/ps/content/20240405_L2OvSk9D.jpg, https://pos.nvncdn.com/6dc534-15668/ps/content/20240405_d5lyhala.jpg, https://pos.nvncdn.com/6dc534-15668/ps/content/20240405_rIVZsLyr.jpg, https://pos.nvncdn.com/6dc534-15668/ps/content/20240405_ucMZeitD.jpg, https://pos.nvncdn.com/6dc534-15668/ps/content/20240405_aQLn9aoV.jpg, https://pos.nvncdn.com/6dc534-15668/ps/content/20240405_YzSiSaoH.jpg, https://pos.nvncdn.com/6dc534-15668/ps/content/20240113_BXvouAer.jpg, https://pos.nvncdn.com/6dc534-15668/ps/content/20240113_Xu4hHC08.jpg, https://pos.nvncdn.com/6dc534-15668/ps/content/20240113_CPn1jZAd.jpg, https://pos.nvncdn.com/6dc534-15668/ps/content/20240113_XfwLi17n.jpg, https://pos.nvncdn.com/6dc534-15668/ps/content/20240113_m8xGt2yR.jpg, https://pos.nvncdn.com/6dc534-15668/ps/content/20240113_nfUP6zzB.jpg, https://pos.nvncdn.com/6dc534-15668/ps/content/20240113_WLPlfmpL.jpg, https://pos.nvncdn.com/6dc534-15668/ps/content/20240113_5y2Ll1JQ.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>So-ve-mau-nuoc,-mau-gouache-Lobeo-Dream-Sketchbook-300gsm</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Size A4 lỡ 25 tờ</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>So-ve-mau-nuoc,-mau-gouache-Lobeo-Dream-Sketchbook-300gsm</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Size 8x13cm 20 tờ</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>So-ve-mau-nuoc,-mau-gouache-Lobeo-Dream-Sketchbook-300gsm</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Size 12x13cm 20 tờ</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>So-ve-Lobeo-Idea-Sketchbook-50-to-200gsm</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Sổ vẽ Lobeo Idea Sketchbook 50 tờ 200gsm</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.2%;"&gt;&lt;colgroup&gt;&lt;col style="width:12.08%;"/&gt;&lt;col style="width:87.92%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;SỔ VẼ LOBEO IDEA SKETCHBOOK&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;i&gt;&lt;span&gt;&lt;strong&gt;&lt;u&gt;LOBEO&lt;/u&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Lobeo là thương hiệu độc quyền được phát triển bởi đội ngũ Lobeo Art.&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;Việt Nam&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Số tờ: 50 tờ (100 trang)&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Định lượng: 200gsm&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Vân giấy mịn, màu trắng&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Bìa sổ cứng, giả da màu đen&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Kích thước: A4, A5 chuẩn&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Sổ LOBEO IDEA SKETCHBOOK được sử dụng để phác thảo, sketch trong quá trình học tập, tìm kiếm, phát triển ý tưởng&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Sổ có 50 trang với thiết kế bìa cứng giả da chắc chắn, basic phù hợp với nhu cầu lưu trữ ý tưởng nhiều và bảo quản trong thời gian dài. Giấy có độ dày 200gsm dày dặn, giúp tối ưu khả năng sử dụng nhiều mặt của sổ &lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Giấy phù có thể sử dụng với chì, màu chì, màu dạ, bút đi nét, bút bi, bút acrylic, bút sơn, bút gốc nước, bút gel,... Giấy có độ dày 200gsm dày dặn, giúp tối ưu khả năng sử dụng nhiều mặt của sổ &lt;/span&gt;(chú ý khi sử dụng với màu dạ sổ vẫn có thể thấm sang mặt sau, các bạn có thể sử dụng thêm 1 tờ nháp để lót bên dưới, ...)&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Sản phẩm phù hợp với các bạn học sinh, sinh viên hoặc các hoạ sĩ có nhu cầu về một cuốn sổ giá hợp lý để phác thảo, nghiên cứu, phát triển và lưu trữ ý tưởng, ký hoạ, làm bản name truyện tranh, thiết kế thời trang, ...&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span style="color:rgb(255,0,0);"&gt;&lt;i&gt;&lt;span&gt;&lt;strong&gt;- CHÚ Ý: SỔ KHÔNG SỬ DỤNG ĐƯỢC VỚI MÀU NƯỚC&lt;/strong&gt;&lt;/span&gt;&lt;/i&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color:rgb(0,26,51);font-size:15px;"&gt;&lt;i&gt;* Dòng sổ Idea Sketchbook này là dòng giấy mịn chuyên chì, màu chì, màu dạ và kỹ thuật ký hoạ, tăng độ dai khi tẩy. Nên khi sử dụng với bút đi nét sẽ phù hợp với các nét đưa nhanh và dứt khoát, nếu đi nét chỉnh chu và chậm sẽ dễ xuất hiện tình trạng lem mực.&lt;/i&gt;&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>A6 chuẩn (gáy dọc)</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>https://pos.nvncdn.com/6dc534-15668/ps/content/20230123_SjPzNNFdS2Eqm9rKaT01upfP.jpg, https://pos.nvncdn.com/6dc534-15668/ps/content/20230123_H8vgNqsh2YUybhnRQWnBUTNX.jpg, https://pos.nvncdn.com/6dc534-15668/ps/content/20230123_xp3Eh3N7BsL4nt8UMeJ9TLjp.jpg, https://pos.nvncdn.com/6dc534-15668/ps/content/20230123_eHIXehw31r34qtFlchyDSZlu.jpg, https://pos.nvncdn.com/6dc534-15668/ps/content/20230123_itWosX0hS7WSUsn1K0KX6wye.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>So-ve-Lobeo-Idea-Sketchbook-50-to-200gsm</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>A5 chuẩn (gáy dọc)</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>So-ve-Lobeo-Idea-Sketchbook-50-to-200gsm</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>A5 chuẩn (gáy ngang)</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>So-ve-Lobeo-Idea-Sketchbook-50-to-200gsm</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>A4 chuẩn (gáy dọc)</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>So-ve-Lobeo-Idea-Sketchbook-50-to-200gsm</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>A4 chuẩn (gáy ngang)</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>So-ve-Lobeo-Idea-Sketchbook-50-to-200gsm</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>A3 chuẩn (gáy ngang)</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>So-ve-Lobeo-Idea-Sketchbook-50-to-200gsm</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Vuông 21x21cm</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Giay-ve-mau-nuoc-Nabii-Aqua-Fat-300gsm-Newbie-Set</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Giấy vẽ màu nước Nabii Aqua Fat 300gsm - Newbie Set</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized"&gt;&lt;colgroup&gt;&lt;col style="width:14.43%;"/&gt;&lt;col style="width:85.57%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;GIẤY VẼ MÀU NƯỚC NABII AQUA FAT - NEWBIE SET&lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;i&gt;&lt;strong&gt;&lt;u&gt;Nabii&lt;/u&gt;&lt;/strong&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;Nabii là thương hiệu giấy chuyên nghiệp đầu tiên tại Việt Nam với nhiều sản phẩm bán chạy trên thị trường bởi chất lượng và giá thành cạnh tranh &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Việt Nam&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Định lượng giấy: 300gsm&lt;/p&gt;&lt;p&gt;- Số lượng: 08 tờ/tệp&lt;/p&gt;&lt;p&gt;- Kích thước: khổ A6 lỡ (9.5x13.5cm)&lt;/p&gt;&lt;p&gt;- Thành phần: 55% cotton&lt;/p&gt;&lt;p&gt;- Vân giấy: Colpress&lt;/p&gt;&lt;p&gt;- Có 3 phiên bản bìa màu pastel: hồng, tím lavender và xanh dương&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;-&lt;strong&gt; GIẤY VẼ MÀU NƯỚC NABII AQUA FAT&lt;/strong&gt; - &lt;strong&gt;NEWBIE SET &lt;/strong&gt;có chất giấy dày dặn, có độ loang tốt thích hợp với nhiều kỹ thuật, chất lượng không đổi so với bản thường&lt;/p&gt;&lt;p&gt;- Giấy sử dụng được cả 2 mặt&lt;/p&gt;&lt;p&gt;- Ngoài vẽ màu nước &lt;strong&gt;GIẤY VẼ MÀU NƯỚC NABII AQUA FAT&lt;/strong&gt; - &lt;strong&gt;NEWBIE SET&lt;/strong&gt; cũng có thể sử dụng với màu dạ, màu poster, acrylic&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Sử dụng trực tiếp&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Hồng</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>https://pos.nvncdn.com/6dc534-15668/ps/20230503_foRibNcD.jpg, https://pos.nvncdn.com/6dc534-15668/ps/20230503_XMGrRXOG.jpg, https://pos.nvncdn.com/6dc534-15668/ps/20230503_xlduziqO.jpg, https://pos.nvncdn.com/6dc534-15668/ps/20230503_5h8pDWR7.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Giay-ve-mau-nuoc-Nabii-Aqua-Fat-300gsm-Newbie-Set</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Tím</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Giay-ve-mau-nuoc-Nabii-Aqua-Fat-300gsm-Newbie-Set</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Xanh</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>So-Sketchbook-Nabii-Ima-160gsm-32-to</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Sổ Sketchbook Nabii Ima - 160gsm 32 tờ</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>A5 (14x21cm) - gáy dọc</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>https://pos.nvncdn.com/6dc534-15668/ps/content/20230314_rWeVDgHVThiz.gif, https://pos.nvncdn.com/6dc534-15668/ps/content/20230314_E4UQtnJ4hONk.gif, https://pos.nvncdn.com/6dc534-15668/ps/content/20230314_WkFcckuZY1gj.gif, https://pos.nvncdn.com/6dc534-15668/ps/content/20230314_GKCxiL5XZ6yC.jpg, https://pos.nvncdn.com/6dc534-15668/ps/content/20230314_02o5io9dvXVZ.jpg, https://pos.nvncdn.com/6dc534-15668/ps/content/20230314_dsq7QYXV1a6h.jpg, https://pos.nvncdn.com/6dc534-15668/ps/content/20230314_nzUq1NEroDSZ.jpg, https://pos.nvncdn.com/6dc534-15668/ps/content/20230314_SzE9whZxeC49.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>So-Sketchbook-Nabii-Ima-160gsm-32-to</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>A4 (21x28 cm) - gáy dọc</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>So-Sketchbook-Nabii-Ima-160gsm-32-to</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>A5 (14x21cm) - gáy ngang</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>So-Sketchbook-Nabii-Ima-160gsm-32-to</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>A4 (21x28 cm) - gáy ngang</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Giay-ve-mau-nuoc-Nabii-Aqua-Fat-300gsm-tep-16-to</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Giấy vẽ màu nước Nabii Aqua Fat 300gsm - tệp 16 tờ</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.2%;"&gt;&lt;colgroup&gt;&lt;col style="width:10.05%;"/&gt;&lt;col style="width:89.95%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;SỔ VẼ MÀU NƯỚC NABII AQUA FAT &lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;i&gt;&lt;strong&gt;&lt;u&gt;Nabii&lt;/u&gt;&lt;/strong&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;Nabii là thương hiệu giấy chuyên nghiệp đầu tiên tại Việt Nam với nhiều sản phẩm bán chạy trên thị trường bởi chất lượng và giá thành cạnh tranh &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Việt Nam&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Định lượng giấy: 300gsm&lt;/p&gt;&lt;p&gt;- Số lượng: 16 tờ/tệp&lt;/p&gt;&lt;p&gt;- Kích thước: Khổ A4 lỡ (19x27cm), khổ A5 lỡ (13.5x19cm), khổ A6 lỡ&lt;/p&gt;&lt;p&gt;- Thành phần: 55% cotton&lt;/p&gt;&lt;p&gt;- Vân giấy: Colpress&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- &lt;strong&gt;GIẤY VẼ&lt;/strong&gt; &lt;strong&gt;MÀU NƯỚC NABII AQUA FAT&lt;/strong&gt; có chất giấy dày dặn, có độ loang tốt thích hợp với nhiều kỹ thuật &lt;/p&gt;&lt;p&gt;- Giấy sử dụng được cả 2 mặt, mặt trước là mặt nhiều vân hơn, có độ loang và lên màu tốt. Mặt sau ít vân hơn phù hợp với những bạn thích bề mặt mịn, dễ đi nét. Mặt sau nhiều keo hơn và loang kém hơn so với mặt nhiều vân. Quý khách có thể lựa chọn bề mặt để sử dụng theo nhu cầu của bản thân.&lt;/p&gt;&lt;p&gt;- Ngoài vẽ màu nước&lt;strong&gt; NABII AQUA FAT&lt;/strong&gt; cũng có thể sử dụng với màu dạ, màu poster, acrylic&lt;/p&gt;&lt;p&gt;- Sản phẩm được đựng trong túi zip chống ẩm cao cấp, tiện lợi khi sử dụng, hạn chế mốc giấy&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Sử dụng trực tiếp&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>9,5x13,5 cm</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>https://pos.nvncdn.com/6dc534-15668/ps/content/20230314_gqip3AenpbvR.jpeg, https://pos.nvncdn.com/6dc534-15668/ps/content/20230314_Mk1c7gJ5krco.jpg, https://lostore.vn/sites/default/files/aqua_fat_1.jpg, https://pos.nvncdn.com/6dc534-15668/ps/content/20230314_JGyn3jly5BAj.jpg, 800, https://pos.nvncdn.com/6dc534-15668/ps/content/20230314_BfYvQCp45ReF.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Giay-ve-mau-nuoc-Nabii-Aqua-Fat-300gsm-tep-16-to</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>13,5x19cm</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Giay-ve-mau-nuoc-Nabii-Aqua-Fat-300gsm-tep-16-to</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>19x27 cm</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>So-ve-Nabii-Ima-Sketchbook-gay-khau-160gsm-50-to-A5</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Sổ vẽ Nabii Ima Sketchbook gáy khâu 160gsm 50 tờ A5</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Mẫu 1</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>https://pos.nvncdn.com/6dc534-15668/ps/20230506_UzjiGP64.jpg, https://pos.nvncdn.com/6dc534-15668/ps/20230506_Wp5QtkXh.jpg, https://pos.nvncdn.com/6dc534-15668/ps/20230506_wD3HDuTh.jpg, https://pos.nvncdn.com/6dc534-15668/ps/20230506_TK1hw0yf.jpg, https://pos.nvncdn.com/6dc534-15668/ps/20230506_PkNo6GGk.jpg, https://pos.nvncdn.com/6dc534-15668/ps/20230506_482JQpRP.jpg, https://pos.nvncdn.com/6dc534-15668/ps/20230506_vGII8J3z.jpg, https://pos.nvncdn.com/6dc534-15668/ps/20230506_UJXt2Jth.jpg, https://pos.nvncdn.com/6dc534-15668/ps/20230506_6dyy08Mq.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>So-ve-Nabii-Ima-Sketchbook-gay-khau-160gsm-50-to-A5</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Mẫu 2</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>So-ve-mau-nuoc-Nabii-Aqua-Fat-300gsm-25-to</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Sổ vẽ màu nước Nabii Aqua Fat - 300gsm 25 tờ</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized"&gt;&lt;colgroup&gt;&lt;col style="width:21.09%;"/&gt;&lt;col style="width:78.91%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;SỔ VẼ MÀU NƯỚC NABII AQUA FAT &lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;i&gt;&lt;strong&gt;&lt;u&gt;Nabii&lt;/u&gt;&lt;/strong&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;Nabii là thương hiệu giấy chuyên nghiệp đầu tiên tại Việt Nam với nhiều sản phẩm bán chạy trên thị trường bởi chất lượng và giá thành cạnh tranh &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Việt Nam&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Định lượng giấy: 300gsm&lt;/p&gt;&lt;p&gt;- Số lượng: 25 tờ/sổ&lt;/p&gt;&lt;p&gt;- Kích thước: Khổ A4 lỡ (19x27cm) và khổ A5 lỡ (13.5x19cm)&lt;/p&gt;&lt;p&gt;- Thành phần: 55% cotton&lt;/p&gt;&lt;p&gt;- Vân giấy: Coldpress&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- &lt;strong&gt;SỔ VẼ MÀU NƯỚC NABII AQUA FAT&lt;/strong&gt; có chất giấy dày dặn, có độ loang tốt thích hợp với nhiều kỹ thuật &lt;/p&gt;&lt;p&gt;- Giấy sử dụng được cả 2 mặt&lt;/p&gt;&lt;p&gt;- Ngoài vẽ màu nước &lt;strong&gt;SỔ VẼ MÀU NƯỚC NABII AQUA FAT&lt;/strong&gt; cũng có thể sử dụng với màu dạ, màu poster, acrylic&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Sử dụng trực tiếp&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>https://pos.nvncdn.com/6dc534-15668/ps/20230503_w2rc1wZO.jpg, https://pos.nvncdn.com/6dc534-15668/ps/20230503_NvGdAke5.jpg, https://pos.nvncdn.com/6dc534-15668/ps/20230503_BQuOGwLV.jpg, https://pos.nvncdn.com/6dc534-15668/ps/20230503_iXleLqn7.jpg, https://pos.nvncdn.com/6dc534-15668/ps/content/20230314_VANYWApeqvYv.jpg, https://pos.nvncdn.com/6dc534-15668/ps/content/20230314_i00G5MQHcbu0.jpg, https://lostore.vn/sites/default/files/nabii_fat.jpg, https://pos.nvncdn.com/6dc534-15668/ps/content/20230314_vvAvem0xXONg.jpg, https://pos.nvncdn.com/6dc534-15668/ps/content/20230314_MxZiAAfocZ7e.jpg, https://pos.nvncdn.com/6dc534-15668/ps/content/20230314_nXozP1QWgeuy.jpg, https://pos.nvncdn.com/6dc534-15668/ps/content/20230314_2tJjUKZCoQiB.jpg, https://pos.nvncdn.com/6dc534-15668/ps/content/20230314_tbeG86B0pMqB.jpg, https://pos.nvncdn.com/6dc534-15668/ps/content/20230314_drSKXkU3WI31.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>So-ve-mau-nuoc-Nabii-Aqua-Fat-300gsm-25-to</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>So-ve-Skethbook-Potentate-100gsm-120-to-gay-khau</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
           <t>Sổ vẽ Skethbook Potentate 100gsm 120 tờ gáy khâu</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="C117" t="inlineStr">
         <is>
           <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.2%;"&gt;&lt;colgroup&gt;&lt;col style="width:15.95%;"/&gt;&lt;col style="width:84.05%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên Sản Phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;Sổ vẽ Skethbook Potentate 100gsm 120 tờ gáy khâu&lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;i&gt;&lt;strong&gt;&lt;u&gt;Potentate&lt;/u&gt;&lt;/strong&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;Potentate là thương hiệu giấy giá rẻ hạng học sinh sinh viên khá nổi tiếng tại Trung Quốc. Sản phẩm phù hợp với các bạn học sinh sinh viên đang tập vẽ với giá thành phải chăng.&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Trung Quốc&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Vân giấy: sần nhẹ&lt;/p&gt;&lt;p&gt;- Màu sắc giấy: Trắng ngà&lt;/p&gt;&lt;p&gt;- Định lượng: 100gsm&lt;/p&gt;&lt;p&gt;- Số tờ: 120 tờ&lt;/p&gt;&lt;p&gt;- Quy cách: Gáy khâu&lt;/p&gt;&lt;p&gt;- Màu sắc bìa sổ: Đen&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- &lt;strong&gt;Sổ vẽ Skethbook Potentate 100gsm&lt;/strong&gt; có bề mặt hơi sần nhẹ, có khả năng ăn chì và bám chì tốt. Sổ có 120 trang thoả sức phác thảo lại và lưu trữ các ý tưởng sáng tạo. &lt;/p&gt;&lt;p&gt;- Giấy có độ dày vừa phải nên chỉ phù hợp phác thảo nhanh với bút chì, màu chì. Đối với màu dạ, bút đi nét hoặc bút bi giấy sẽ hằn nhẹ và in sang mặt sau nếu mạnh tay.&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Sử dụng trực tiếp&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Bảo quản nơi khô ráo, tháo mát&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
         </is>
       </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>https://pos.nvncdn.com/6dc534-15668/ps/content/20230221_4HhK9IjdtSmfr5jD121ojNLv.jpg, https://pos.nvncdn.com/6dc534-15668/ps/content/20230221_72v8Exl7W7UOTHxAtgYi6jHr.jpg, https://pos.nvncdn.com/6dc534-15668/ps/content/20230221_oG7NRfCbOj58GsbXubp93qHK.jpg, https://pos.nvncdn.com/6dc534-15668/ps/content/20230221_ry3GQQlVdClNGx1J4sdUZLLN.jpg, https://pos.nvncdn.com/6dc534-15668/ps/content/20230221_nCnjuCt9i20UC1y9nSNuVsoO.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>So-ve-Skethbook-Potentate-100gsm-120-to-gay-khau</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>So-ve-mau-gouache,-mau-da-Lobeo-Wandering-30-to-225gsm</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Sổ vẽ màu gouache, màu dạ Lobeo Wandering 30 tờ 225gsm</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:98.41%;"&gt;&lt;colgroup&gt;&lt;col style="width:12.08%;"/&gt;&lt;col style="width:87.92%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Sổ vẽ màu gouache, màu dạ Lobeo Wandering 30 tờ 225gsm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;i&gt;&lt;span&gt;&lt;strong&gt;&lt;u&gt;LOBEO&lt;/u&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Lobeo là thương hiệu độc quyền được phát triển bởi đội ngũ Lobeo Art.&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;Việt Nam&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Số tờ: 30 tờ&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Định lượng: 225gsm&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Vân giấy ngang nhẹ, màu kem&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Bìa sổ cứng, giả da màu đen&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Kích thước: A4, A5 chuẩn&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Giấy có thể sử dụng với màu dạ, màu gouachem, màu poster, bút acrylic, bút sơn và 2-3 lớp màu nước &lt;/span&gt;(chú ý khi sử dụng với màu dạ sổ vẫn có thể thấm sang mặt sau, các bạn có thể sử dụng thêm 1 tờ nháp để lót bên dưới, ...)&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Sản phẩm phù hợp để vẽ tranh gouache, màu dạ hoàn thiện hoặc ký hoạ màu nước nhanh&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Khổ A5</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>https://pos.nvncdn.com/6dc534-15668/ps/content/20231028_gphPuZXS.jpg, https://pos.nvncdn.com/6dc534-15668/ps/content/20231028_9k8EnKOC.jpg, https://pos.nvncdn.com/6dc534-15668/ps/content/20231028_S5BtHyxc.jpg, https://pos.nvncdn.com/6dc534-15668/ps/content/20231028_uUwxUe00.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>So-ve-mau-gouache,-mau-da-Lobeo-Wandering-30-to-225gsm</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Khổ A4</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Giay-ve-chi-Canson-Truyen-Thong-110gsm-10-to</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Giấy vẽ chì Canson Truyền Thống 110gsm 10 tờ</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.26%;"&gt;&lt;colgroup&gt;&lt;col style="width:18.01%;"/&gt;&lt;col style="width:81.99%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;Giấy vẽ chì Canson Truyền Thống 110gsm 10 tờ&lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;Canson là thương hiệu giấy vẽ (đặc biệt giấy vẽ màu nước) nổi tiếng và được nhiều hoạ sĩ tin dùng&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Trung Quốc&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;- Định lượng: 110gsm&lt;/p&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;- Vân giấy: Vân ngang&lt;/p&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;- Kích thước: A5, A4, A3 chuẩn&lt;/p&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;- Đóng gói: 10 tờ/bịch.&lt;/p&gt;&lt;p style="color:rgb(51,51,51);text-align:left;"&gt;- Chức năng: Vẽ màu gouache, chì&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Bề mặt giấy ngoài vẽ chì, màu chì có thể vẽ được màu dạ (marker)&lt;/p&gt;&lt;p&gt;- Sản phẩm thường được dùng để luyện thi&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Sử dụng trực tiếp&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Giay-ve-chi-Canson-Truyen-Thong-110gsm-10-to</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Giay-ve-chi-Canson-Truyen-Thong-110gsm-10-to</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>So-ve-mau-da-Ohuhu-200gsm-78-to</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Sổ vẽ màu dạ Ohuhu 200gsm 78 tờ</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:98.2%;"&gt;&lt;colgroup&gt;&lt;col style="width:16%;"/&gt;&lt;col style="width:84%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Sổ vẽ màu dạ Ohuhu 200gsm 78 tờ&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;i&gt;&lt;span&gt;&lt;strong&gt;&lt;u&gt;Ohuhu&lt;/u&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/i&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;Thương hiệu Mỹ sản xuất tại Trung Quốc&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Định lượng: 200gsm&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Màu trắng, vân nhẹ&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Bìa sổ cứng, giả da màu đen (các size nhỏ kèm dây buộc đặc biệt bất kì)&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Sổ vẽ màu dạ Ohuhu 200gsm 78 tờ là sản phẩm chuyên sử dụng cho màu dạ, được phát triển bởi thương hiệu màu dạ Ohuhu&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Sổ có bìa cứng giả da chắc chắn, basic. Giấy có độ dày 200gsm, gáy khâu với số tờ lên đến 78 tờ&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Giấy phù có thể sử dụng với màu marker và màu chì &lt;/span&gt;(chú ý khi sử dụng với màu dạ sổ vẫn có thể thấm sang mặt sau, các bạn có thể sử dụng thêm 1 tờ nháp để lót bên dưới, ...)&lt;/p&gt;&lt;p&gt;- Giấy có độ kị tẩy ở mức vừa phải&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>21x21cm</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>https://pos.nvncdn.com/6dc534-15668/ps/content/20240409_BRV6tbbD.jpg,
+https://pos.nvncdn.com/6dc534-15668/ps/content/20240409_UxzZVwF6.jpg,
+https://pos.nvncdn.com/6dc534-15668/ps/content/20240409_8Zx6ImSc.jpg,
+https://pos.nvncdn.com/6dc534-15668/ps/content/20240409_1X6HDqWL.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>So-ve-mau-da-Ohuhu-200gsm-78-to</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>So-ve-mau-nuoc--mau-gouache-Lobeo-Dream-Sketchbook-300gsm</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Sổ vẽ màu nước, màu gouache Lobeo Dream Sketchbook 300gsm</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.01%;"&gt;&lt;colgroup&gt;&lt;col style="width:16%;"/&gt;&lt;col style="width:84%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;SỔ VẼ MÀU NƯỚC LOBEO DREAM SKETCHBOOK&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;i&gt;&lt;span&gt;&lt;strong&gt;&lt;u&gt;LOBEO&lt;/u&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Lobeo là thương hiệu độc quyền được phát triển bởi đội ngũ Lobeo Art.&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;Việt Nam&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Định lượng: 300gsm&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Thành phần cotton: 30%&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Vân giấy sần nhẹ, màu kem&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Bìa sổ cứng, giả da màu đen (các size nhỏ kèm dây buộc đặc biệt bất kì)&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Sổ LOBEO DREAM SKETCHBOOK được sử dụng để phác thảo màu nước, gouache, acrylic&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Sổ có bìa cứng giả da chắc chắn, basic. Giấy có độ dày 300gsm dày dặn, giúp tối ưu khả năng sử dụng nhiều mặt của sổ.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Giấy phù có thể sử dụng với màu nước, màu gouache, poster, acrylic, màu marker &lt;/span&gt;(chú ý khi sử dụng với màu dạ sổ vẫn có thể thấm sang mặt sau, các bạn có thể sử dụng thêm 1 tờ nháp để lót bên dưới, ...)&lt;/p&gt;&lt;p&gt;- Giấy có độ kị tẩy ở mức vừa phải. đủ để không ảnh hưởng đến khả năng sử dụng màu nước, do đó nếu bạn muốn sử dụng với màu nước ở trạng thái tốt nhất thì nên đánh chì dùng lực vừa phải. &lt;/p&gt;&lt;p&gt;&lt;span&gt;- Sản phẩm phù hợp với các bạn học sinh, sinh viên hoặc các hoạ sĩ có nhu cầu về một cuốn sổ giá hợp lý để phác thảo màu nước và bảo quản ý tưởng của mình một cách trọn vẹn nhất&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span style="color:rgb(0,26,51);font-size:15px;"&gt;&lt;i&gt;* Chú ý: Dòng sổ Dream Sketchbook có thành phần 30% cotton, phủ hợp để phác thảo màu nước trong quá trình luyện tập hơn việc hoàn thành một tác phẩm hoàn thiện. Nếu quý khách có nhu cầu sử dụng hoàn thành tác phẩm chất lượng cao thì nên sử dụng giấy màu nước chuyên dụng 100% cotton.&lt;/i&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Size A5 lỡ 25 tờ</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>https://pos.nvncdn.com/6dc534-15668/ps/content/20240405_L2OvSk9D.jpg,
+https://pos.nvncdn.com/6dc534-15668/ps/content/20240405_d5lyhala.jpg,
+https://pos.nvncdn.com/6dc534-15668/ps/content/20240405_rIVZsLyr.jpg,
+https://pos.nvncdn.com/6dc534-15668/ps/content/20240405_ucMZeitD.jpg,
+https://pos.nvncdn.com/6dc534-15668/ps/content/20240405_aQLn9aoV.jpg,
+https://pos.nvncdn.com/6dc534-15668/ps/content/20240405_YzSiSaoH.jpg,
+https://pos.nvncdn.com/6dc534-15668/ps/content/20240113_BXvouAer.jpg,
+https://pos.nvncdn.com/6dc534-15668/ps/content/20240113_Xu4hHC08.jpg,
+https://pos.nvncdn.com/6dc534-15668/ps/content/20240113_CPn1jZAd.jpg,
+https://pos.nvncdn.com/6dc534-15668/ps/content/20240113_XfwLi17n.jpg,
+https://pos.nvncdn.com/6dc534-15668/ps/content/20240113_m8xGt2yR.jpg,
+https://pos.nvncdn.com/6dc534-15668/ps/content/20240113_nfUP6zzB.jpg,
+https://pos.nvncdn.com/6dc534-15668/ps/content/20240113_WLPlfmpL.jpg,
+https://pos.nvncdn.com/6dc534-15668/ps/content/20240113_5y2Ll1JQ.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>So-ve-mau-nuoc--mau-gouache-Lobeo-Dream-Sketchbook-300gsm</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Size A4 lỡ 25 tờ</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>So-ve-mau-nuoc--mau-gouache-Lobeo-Dream-Sketchbook-300gsm</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Size 8x13cm 20 tờ</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>So-ve-mau-nuoc--mau-gouache-Lobeo-Dream-Sketchbook-300gsm</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Size 12x13cm 20 tờ</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>So-ve-Lobeo-Idea-Sketchbook-50-to-200gsm</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Sổ vẽ Lobeo Idea Sketchbook 50 tờ 200gsm</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.2%;"&gt;&lt;colgroup&gt;&lt;col style="width:12.08%;"/&gt;&lt;col style="width:87.92%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;SỔ VẼ LOBEO IDEA SKETCHBOOK&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;i&gt;&lt;span&gt;&lt;strong&gt;&lt;u&gt;LOBEO&lt;/u&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Lobeo là thương hiệu độc quyền được phát triển bởi đội ngũ Lobeo Art.&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;Việt Nam&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Số tờ: 50 tờ (100 trang)&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Định lượng: 200gsm&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Vân giấy mịn, màu trắng&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Bìa sổ cứng, giả da màu đen&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Kích thước: A4, A5 chuẩn&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;- Sổ LOBEO IDEA SKETCHBOOK được sử dụng để phác thảo, sketch trong quá trình học tập, tìm kiếm, phát triển ý tưởng&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Sổ có 50 trang với thiết kế bìa cứng giả da chắc chắn, basic phù hợp với nhu cầu lưu trữ ý tưởng nhiều và bảo quản trong thời gian dài. Giấy có độ dày 200gsm dày dặn, giúp tối ưu khả năng sử dụng nhiều mặt của sổ &lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Giấy phù có thể sử dụng với chì, màu chì, màu dạ, bút đi nét, bút bi, bút acrylic, bút sơn, bút gốc nước, bút gel,... Giấy có độ dày 200gsm dày dặn, giúp tối ưu khả năng sử dụng nhiều mặt của sổ &lt;/span&gt;(chú ý khi sử dụng với màu dạ sổ vẫn có thể thấm sang mặt sau, các bạn có thể sử dụng thêm 1 tờ nháp để lót bên dưới, ...)&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Sản phẩm phù hợp với các bạn học sinh, sinh viên hoặc các hoạ sĩ có nhu cầu về một cuốn sổ giá hợp lý để phác thảo, nghiên cứu, phát triển và lưu trữ ý tưởng, ký hoạ, làm bản name truyện tranh, thiết kế thời trang, ...&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span style="color:rgb(255,0,0);"&gt;&lt;i&gt;&lt;span&gt;&lt;strong&gt;- CHÚ Ý: SỔ KHÔNG SỬ DỤNG ĐƯỢC VỚI MÀU NƯỚC&lt;/strong&gt;&lt;/span&gt;&lt;/i&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color:rgb(0,26,51);font-size:15px;"&gt;&lt;i&gt;* Dòng sổ Idea Sketchbook này là dòng giấy mịn chuyên chì, màu chì, màu dạ và kỹ thuật ký hoạ, tăng độ dai khi tẩy. Nên khi sử dụng với bút đi nét sẽ phù hợp với các nét đưa nhanh và dứt khoát, nếu đi nét chỉnh chu và chậm sẽ dễ xuất hiện tình trạng lem mực.&lt;/i&gt;&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>A6 chuẩn (gáy dọc)</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>https://pos.nvncdn.com/6dc534-15668/ps/content/20230123_SjPzNNFdS2Eqm9rKaT01upfP.jpg,
+https://pos.nvncdn.com/6dc534-15668/ps/content/20230123_H8vgNqsh2YUybhnRQWnBUTNX.jpg,
+https://pos.nvncdn.com/6dc534-15668/ps/content/20230123_xp3Eh3N7BsL4nt8UMeJ9TLjp.jpg,
+https://pos.nvncdn.com/6dc534-15668/ps/content/20230123_eHIXehw31r34qtFlchyDSZlu.jpg,
+https://pos.nvncdn.com/6dc534-15668/ps/content/20230123_itWosX0hS7WSUsn1K0KX6wye.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>So-ve-Lobeo-Idea-Sketchbook-50-to-200gsm</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>A5 chuẩn (gáy dọc)</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>So-ve-Lobeo-Idea-Sketchbook-50-to-200gsm</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>A5 chuẩn (gáy ngang)</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>So-ve-Lobeo-Idea-Sketchbook-50-to-200gsm</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr"/>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>A4 chuẩn (gáy dọc)</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>So-ve-Lobeo-Idea-Sketchbook-50-to-200gsm</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>A4 chuẩn (gáy ngang)</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>So-ve-Lobeo-Idea-Sketchbook-50-to-200gsm</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>A3 chuẩn (gáy ngang)</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>So-ve-Lobeo-Idea-Sketchbook-50-to-200gsm</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Vuông 21x21cm</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Giay-ve-mau-nuoc-Nabii-Aqua-Fat-300gsm-Newbie-Set</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Giấy vẽ màu nước Nabii Aqua Fat 300gsm - Newbie Set</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized"&gt;&lt;colgroup&gt;&lt;col style="width:14.43%;"/&gt;&lt;col style="width:85.57%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;GIẤY VẼ MÀU NƯỚC NABII AQUA FAT - NEWBIE SET&lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;i&gt;&lt;strong&gt;&lt;u&gt;Nabii&lt;/u&gt;&lt;/strong&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;Nabii là thương hiệu giấy chuyên nghiệp đầu tiên tại Việt Nam với nhiều sản phẩm bán chạy trên thị trường bởi chất lượng và giá thành cạnh tranh &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Việt Nam&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Định lượng giấy: 300gsm&lt;/p&gt;&lt;p&gt;- Số lượng: 08 tờ/tệp&lt;/p&gt;&lt;p&gt;- Kích thước: khổ A6 lỡ (9.5x13.5cm)&lt;/p&gt;&lt;p&gt;- Thành phần: 55% cotton&lt;/p&gt;&lt;p&gt;- Vân giấy: Colpress&lt;/p&gt;&lt;p&gt;- Có 3 phiên bản bìa màu pastel: hồng, tím lavender và xanh dương&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;-&lt;strong&gt; GIẤY VẼ MÀU NƯỚC NABII AQUA FAT&lt;/strong&gt; - &lt;strong&gt;NEWBIE SET &lt;/strong&gt;có chất giấy dày dặn, có độ loang tốt thích hợp với nhiều kỹ thuật, chất lượng không đổi so với bản thường&lt;/p&gt;&lt;p&gt;- Giấy sử dụng được cả 2 mặt&lt;/p&gt;&lt;p&gt;- Ngoài vẽ màu nước &lt;strong&gt;GIẤY VẼ MÀU NƯỚC NABII AQUA FAT&lt;/strong&gt; - &lt;strong&gt;NEWBIE SET&lt;/strong&gt; cũng có thể sử dụng với màu dạ, màu poster, acrylic&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Sử dụng trực tiếp&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Hồng</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>https://pos.nvncdn.com/6dc534-15668/ps/20230503_foRibNcD.jpg,
+https://pos.nvncdn.com/6dc534-15668/ps/20230503_XMGrRXOG.jpg,
+https://pos.nvncdn.com/6dc534-15668/ps/20230503_xlduziqO.jpg,
+https://pos.nvncdn.com/6dc534-15668/ps/20230503_5h8pDWR7.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Giay-ve-mau-nuoc-Nabii-Aqua-Fat-300gsm-Newbie-Set</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr"/>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Tím</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Giay-ve-mau-nuoc-Nabii-Aqua-Fat-300gsm-Newbie-Set</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr"/>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Xanh</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>So-Sketchbook-Nabii-Ima-160gsm-32-to</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Sổ Sketchbook Nabii Ima - 160gsm 32 tờ</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>A5 (14x21cm) - gáy dọc</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>https://pos.nvncdn.com/6dc534-15668/ps/content/20230314_rWeVDgHVThiz.gif,
+https://pos.nvncdn.com/6dc534-15668/ps/content/20230314_E4UQtnJ4hONk.gif,
+https://pos.nvncdn.com/6dc534-15668/ps/content/20230314_WkFcckuZY1gj.gif,
+https://pos.nvncdn.com/6dc534-15668/ps/content/20230314_GKCxiL5XZ6yC.jpg,
+https://pos.nvncdn.com/6dc534-15668/ps/content/20230314_02o5io9dvXVZ.jpg,
+https://pos.nvncdn.com/6dc534-15668/ps/content/20230314_dsq7QYXV1a6h.jpg,
+https://pos.nvncdn.com/6dc534-15668/ps/content/20230314_nzUq1NEroDSZ.jpg,
+https://pos.nvncdn.com/6dc534-15668/ps/content/20230314_SzE9whZxeC49.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>So-Sketchbook-Nabii-Ima-160gsm-32-to</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>A4 (21x28 cm) - gáy dọc</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>So-Sketchbook-Nabii-Ima-160gsm-32-to</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>A5 (14x21cm) - gáy ngang</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>So-Sketchbook-Nabii-Ima-160gsm-32-to</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>A4 (21x28 cm) - gáy ngang</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Giay-ve-mau-nuoc-Nabii-Aqua-Fat-300gsm-tep-16-to</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Giấy vẽ màu nước Nabii Aqua Fat 300gsm - tệp 16 tờ</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>&lt;table border="1" cellpadding="1" cellspacing="1" class="ck-table-resized" style="width:99.2%;"&gt;&lt;colgroup&gt;&lt;col style="width:10.05%;"/&gt;&lt;col style="width:89.95%;"/&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Tên sản phẩm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;strong&gt;SỔ VẼ MÀU NƯỚC NABII AQUA FAT &lt;/strong&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Thương Hiệu&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;i&gt;&lt;strong&gt;&lt;u&gt;Nabii&lt;/u&gt;&lt;/strong&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;Nabii là thương hiệu giấy chuyên nghiệp đầu tiên tại Việt Nam với nhiều sản phẩm bán chạy trên thị trường bởi chất lượng và giá thành cạnh tranh &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Xuất Xứ&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;Việt Nam&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Quy Cách&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- Định lượng giấy: 300gsm&lt;/p&gt;&lt;p&gt;- Số lượng: 16 tờ/tệp&lt;/p&gt;&lt;p&gt;- Kích thước: Khổ A4 lỡ (19x27cm), khổ A5 lỡ (13.5x19cm), khổ A6 lỡ&lt;/p&gt;&lt;p&gt;- Thành phần: 55% cotton&lt;/p&gt;&lt;p&gt;- Vân giấy: Colpress&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Đặc Điểm&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;- &lt;strong&gt;GIẤY VẼ&lt;/strong&gt; &lt;strong&gt;MÀU NƯỚC NABII AQUA FAT&lt;/strong&gt; có chất giấy dày dặn, có độ loang tốt thích hợp với nhiều kỹ thuật &lt;/p&gt;&lt;p&gt;- Giấy sử dụng được cả 2 mặt, mặt trước là mặt nhiều vân hơn, có độ loang và lên màu tốt. Mặt sau ít vân hơn phù hợp với những bạn thích bề mặt mịn, dễ đi nét. Mặt sau nhiều keo hơn và loang kém hơn so với mặt nhiều vân. Quý khách có thể lựa chọn bề mặt để sử dụng theo nhu cầu của bản thân.&lt;/p&gt;&lt;p&gt;- Ngoài vẽ màu nước&lt;strong&gt; NABII AQUA FAT&lt;/strong&gt; cũng có thể sử dụng với màu dạ, màu poster, acrylic&lt;/p&gt;&lt;p&gt;- Sản phẩm được đựng trong túi zip chống ẩm cao cấp, tiện lợi khi sử dụng, hạn chế mốc giấy&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Hướng Dẫn Sử Dụng&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Sử dụng trực tiếp&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Bảo Quản&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;- Bảo quản nơi khô ráo, thoáng mát&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>9,5x13,5 cm</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>https://pos.nvncdn.com/6dc534-15668/ps/content/20230314_gqip3AenpbvR.jpeg,
+https://pos.nvncdn.com/6dc534-15668/ps/content/20230314_Mk1c7gJ5krco.jpg,
+https://lostore.vn/sites/default/files/aqua_fat_1.jpg,
+https://pos.nvncdn.com/6dc534-15668/ps/content/20230314_JGyn3jly5BAj.jpg,
+800,
+https://pos.nvncdn.com/6dc534-15668/ps/content/20230314_BfYvQCp45ReF.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Giay-ve-mau-nuoc-Nabii-Aqua-Fat-300gsm-tep-16-to</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>13,5x19cm</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Giay-ve-mau-nuoc-Nabii-Aqua-Fat-300gsm-tep-16-to</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>19x27 cm</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
